--- a/ExtraClase/EMNA-Documentacion.xlsx
+++ b/ExtraClase/EMNA-Documentacion.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B5F8C0-0829-4B31-8329-940A0724CA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF752F0E-41DE-4892-BA3F-5F50FEAAB743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de Contenido" sheetId="1" r:id="rId1"/>
-    <sheet name="HistoriasUsuario" sheetId="26" r:id="rId2"/>
-    <sheet name="TacticasEstrategias" sheetId="23" r:id="rId3"/>
-    <sheet name="AlternativaSolucionSelecc" sheetId="22" r:id="rId4"/>
-    <sheet name="RestriccionesNegocio" sheetId="19" r:id="rId5"/>
-    <sheet name="RestriccionesTecnicas" sheetId="21" r:id="rId6"/>
-    <sheet name="FuncionalidadesCriticas " sheetId="20" r:id="rId7"/>
-    <sheet name="Caracterizacion" sheetId="7" r:id="rId8"/>
-    <sheet name="ESC-CAL-0001-Capacidad-Auditado" sheetId="17" r:id="rId9"/>
-    <sheet name="ESC-CAL-0002-Capacidad-Auditado" sheetId="18" r:id="rId10"/>
-    <sheet name="ESC-CAL-0001-Eficiencia " sheetId="15" r:id="rId11"/>
-    <sheet name="ESC-CAL-0002-Eficiencia " sheetId="16" r:id="rId12"/>
-    <sheet name="ESC-CAL-0001-Portabilidad " sheetId="13" r:id="rId13"/>
-    <sheet name="ESC-CAL-0002-Portabilidad " sheetId="14" r:id="rId14"/>
-    <sheet name="ESC-CAL-0001-Disponibilidad" sheetId="11" r:id="rId15"/>
-    <sheet name="ESC-CAL-0002-Disponibilidad" sheetId="25" r:id="rId16"/>
-    <sheet name="ESC-CAL-0001-ResilienciaFallo" sheetId="12" r:id="rId17"/>
-    <sheet name="ESC-CAL-0002-Seguridad" sheetId="10" r:id="rId18"/>
-    <sheet name="ESC-CAL-0001-Seguridad" sheetId="9" r:id="rId19"/>
-    <sheet name="Mapa Empatia" sheetId="5" r:id="rId20"/>
-    <sheet name="Trade off " sheetId="3" r:id="rId21"/>
+    <sheet name="Elecciones" sheetId="27" r:id="rId2"/>
+    <sheet name="HistoriasUsuario" sheetId="26" r:id="rId3"/>
+    <sheet name="TacticasEstrategias" sheetId="23" r:id="rId4"/>
+    <sheet name="AlternativaSolucionSelecc" sheetId="22" r:id="rId5"/>
+    <sheet name="RestriccionesNegocio" sheetId="19" r:id="rId6"/>
+    <sheet name="RestriccionesTecnicas" sheetId="21" r:id="rId7"/>
+    <sheet name="FuncionalidadesCriticas " sheetId="20" r:id="rId8"/>
+    <sheet name="Caracterizacion" sheetId="7" r:id="rId9"/>
+    <sheet name="ESC-CAL-0001-Capacidad-Auditado" sheetId="17" r:id="rId10"/>
+    <sheet name="ESC-CAL-0002-Capacidad-Auditado" sheetId="18" r:id="rId11"/>
+    <sheet name="ESC-CAL-0001-Eficiencia " sheetId="15" r:id="rId12"/>
+    <sheet name="ESC-CAL-0002-Eficiencia " sheetId="16" r:id="rId13"/>
+    <sheet name="ESC-CAL-0001-Portabilidad " sheetId="13" r:id="rId14"/>
+    <sheet name="ESC-CAL-0002-Portabilidad " sheetId="14" r:id="rId15"/>
+    <sheet name="ESC-CAL-0001-Disponibilidad" sheetId="11" r:id="rId16"/>
+    <sheet name="ESC-CAL-0002-Disponibilidad" sheetId="25" r:id="rId17"/>
+    <sheet name="ESC-CAL-0001-ResilienciaFallo" sheetId="12" r:id="rId18"/>
+    <sheet name="ESC-CAL-0002-Seguridad" sheetId="10" r:id="rId19"/>
+    <sheet name="ESC-CAL-0001-Seguridad" sheetId="9" r:id="rId20"/>
+    <sheet name="Mapa Empatia" sheetId="5" r:id="rId21"/>
+    <sheet name="Trade off " sheetId="3" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="700">
   <si>
     <t>Trade off de QA</t>
   </si>
@@ -2968,6 +2969,204 @@
   <si>
     <t>- Solo el personal autorizado según los roles definidos puede acceder a las claves.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Por que? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elecciones  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura </t>
+  </si>
+  <si>
+    <t>Arquitectura</t>
+  </si>
+  <si>
+    <t>Definición</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Contras</t>
+  </si>
+  <si>
+    <t>Capacidad para ser auditado</t>
+  </si>
+  <si>
+    <t>Monolítica</t>
+  </si>
+  <si>
+    <t>Aplicación en una sola unidad de código. Toda la lógica de negocio, acceso a datos y presentación está integrada.</t>
+  </si>
+  <si>
+    <t>Simplicidad, fácil despliegue</t>
+  </si>
+  <si>
+    <t>Difícil de escalar y mantener cuando crece</t>
+  </si>
+  <si>
+    <t>Microservicios</t>
+  </si>
+  <si>
+    <t>División de la aplicación en pequeños servicios autónomos que se comunican entre sí a través de APIs.</t>
+  </si>
+  <si>
+    <t>Escalabilidad, flexibilidad, modularidad</t>
+  </si>
+  <si>
+    <t>Complejidad de gestión y comunicación</t>
+  </si>
+  <si>
+    <t>En Capas (N-Tier)</t>
+  </si>
+  <si>
+    <t>Divide la aplicación en capas lógicas como presentación, negocio y datos. Cada capa depende de la anterior.</t>
+  </si>
+  <si>
+    <t>Claridad en responsabilidades, estructura organizada</t>
+  </si>
+  <si>
+    <t>Puede volverse rígida y difícil de modificar</t>
+  </si>
+  <si>
+    <t>SOA (Orientada a Servicios)</t>
+  </si>
+  <si>
+    <t>Servicios reutilizables comunicados a través de un bus de servicio (ESB).</t>
+  </si>
+  <si>
+    <t>Reutilización de servicios, integración sencilla</t>
+  </si>
+  <si>
+    <t>Sobrecarga y cuellos de botella en el bus de servicio</t>
+  </si>
+  <si>
+    <t>Basada en Componentes</t>
+  </si>
+  <si>
+    <t>Divide la aplicación en componentes que encapsulan funcionalidades específicas y pueden ser reutilizados.</t>
+  </si>
+  <si>
+    <t>Reutilización y mantenimiento modular</t>
+  </si>
+  <si>
+    <t>Difícil diseñar componentes sin dependencias</t>
+  </si>
+  <si>
+    <t>Cliente-Servidor</t>
+  </si>
+  <si>
+    <t>División entre cliente (solicita) y servidor (responde).</t>
+  </si>
+  <si>
+    <t>Separación de responsabilidades, escalabilidad en el servidor</t>
+  </si>
+  <si>
+    <t>Dependencia de la red, carga del servidor</t>
+  </si>
+  <si>
+    <t>Event-Driven (Basada en Eventos)</t>
+  </si>
+  <si>
+    <t>Comunicación mediante eventos asíncronos entre componentes.</t>
+  </si>
+  <si>
+    <t>Escalabilidad, respuesta rápida</t>
+  </si>
+  <si>
+    <t>Complejidad en coherencia de datos</t>
+  </si>
+  <si>
+    <t>Microkernel (Plugin-based)</t>
+  </si>
+  <si>
+    <t>Un núcleo extensible mediante plugins o módulos que añaden funcionalidad.</t>
+  </si>
+  <si>
+    <t>Flexibilidad, facilidad para añadir funcionalidades</t>
+  </si>
+  <si>
+    <t>Complejidad en gestión de módulos</t>
+  </si>
+  <si>
+    <t>Message-Driven</t>
+  </si>
+  <si>
+    <t>Uso de colas de mensajes para comunicación asíncrona entre componentes.</t>
+  </si>
+  <si>
+    <t>Alta tolerancia a fallos, desacoplamiento</t>
+  </si>
+  <si>
+    <t>Latencia en procesamiento, complejidad de gestión de colas</t>
+  </si>
+  <si>
+    <t>REST (Representational State Transfer)</t>
+  </si>
+  <si>
+    <t>Estilo para crear APIs usando métodos HTTP para interactuar con recursos.</t>
+  </si>
+  <si>
+    <t>Simplicidad, escalabilidad, facilidad en aplicaciones web</t>
+  </si>
+  <si>
+    <t>Limitaciones en interacciones complejas</t>
+  </si>
+  <si>
+    <t>Serverless</t>
+  </si>
+  <si>
+    <t>Funciones que se ejecutan en respuesta a eventos, sin gestionar servidores.</t>
+  </si>
+  <si>
+    <t>Reducción de costos, sin administración de infraestructura</t>
+  </si>
+  <si>
+    <t>Latencia, control limitado del entorno</t>
+  </si>
+  <si>
+    <t>Microfrontend</t>
+  </si>
+  <si>
+    <t>División del frontend en componentes manejables, desarrollados y desplegados de manera independiente.</t>
+  </si>
+  <si>
+    <t>Escalabilidad del frontend, fácil mantenimiento</t>
+  </si>
+  <si>
+    <t>Complejidad en integración</t>
+  </si>
+  <si>
+    <t>Hexagonal (Ports and Adapters)</t>
+  </si>
+  <si>
+    <t>Organiza la aplicación en torno a su lógica de negocio, desacoplando las interfaces externas.</t>
+  </si>
+  <si>
+    <t>Flexibilidad, facilidad de pruebas</t>
+  </si>
+  <si>
+    <t>Complejidad inicial en la configuración</t>
+  </si>
+  <si>
+    <t>Pipe and Filter</t>
+  </si>
+  <si>
+    <t>Datos que pasan por una serie de filtros donde se transforman, cada filtro realiza una operación.</t>
+  </si>
+  <si>
+    <t>Modularidad, fácil de paralelizar</t>
+  </si>
+  <si>
+    <t>Sobrecarga en rendimiento debido al paso de datos</t>
+  </si>
+  <si>
+    <t>Total Puntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicación web </t>
+  </si>
 </sst>
 </file>
 
@@ -2976,7 +3175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3063,8 +3262,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3187,6 +3393,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3496,13 +3707,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3705,23 +3917,42 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3743,6 +3974,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3810,54 +4059,92 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="4" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="154">
+  <dxfs count="166">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -4015,30 +4302,30 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7470,198 +7757,222 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1788D096-E498-4E44-8A15-D33479892DA9}" name="Tabla3" displayName="Tabla3" ref="A7:I9" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150" totalsRowBorderDxfId="149">
-  <autoFilter ref="A7:I9" xr:uid="{1788D096-E498-4E44-8A15-D33479892DA9}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{96C3F5CC-E859-4C74-B45A-A2F62666093E}" name="Número" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{8C8E2A76-F9A4-439B-BCB1-1706EC1813CE}" name="Descripción" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{D0F1B3D4-4255-425E-ACA5-388C773BAB78}" name="Fuente del estímulo" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{89B35F97-20BA-48C5-8C8E-4D9B29ACDDB9}" name="Estímulo" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{AC025101-342D-416E-9513-48EE35475C01}" name="Artefacto" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{72CF0615-137D-4B80-9D71-EEFFB04E7C44}" name="Ambiente" dataDxfId="143"/>
-    <tableColumn id="7" xr3:uid="{127971B5-85A9-4262-BE4D-D73545E672FB}" name="Respuesta" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{372267CF-A0A7-4946-AD66-4E88EF8D432B}" name="Medida de la respuesta" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{285CB59E-2110-4965-A221-F1D8A4058106}" name="Estado" dataDxfId="140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{20B912FF-7A15-4BCD-8F27-A1F642484F2B}" name="Tabla12" displayName="Tabla12" ref="A3:J17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A3:J17" xr:uid="{20B912FF-7A15-4BCD-8F27-A1F642484F2B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J17">
+    <sortCondition descending="1" ref="J3:J17"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D3106D25-91BB-4744-ADD3-339B587B49EB}" name="Arquitectura" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2C09C512-7924-4A4F-9EF1-46917E90676E}" name="Definición" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E1197480-9B81-4FBA-B078-37DD72F9E4FD}" name="Pros" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{54B2780E-5B04-4E6C-BAFC-2C67EF64897D}" name="Contras" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{3EEE904B-8938-46A1-9DED-C155F9E1C298}" name="Seguridad" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5E38046A-FC6A-40B1-97EF-CC96880E9831}" name="Disponibilidad" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C6FD526C-72B4-46A0-B462-4AF86E1D7C65}" name="Portabilidad" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{ABA6ECD7-EB22-4621-AA83-E115A229E1A1}" name="Capacidad para ser auditado" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{755E2121-A5DD-4CFD-9791-D64B929087D1}" name="Rendimiento" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{222C87D4-19F0-4033-BFDD-4E36629757D3}" name="Total Puntos" dataDxfId="2">
+      <calculatedColumnFormula>SUM(E4:I4)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CDB9F837-C30A-4905-930A-9B6B957DD1F9}" name="Tabla10" displayName="Tabla10" ref="A7:I12" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
-  <autoFilter ref="A7:I12" xr:uid="{CDB9F837-C30A-4905-930A-9B6B957DD1F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FD105646-DE94-4BCD-9D32-F5D2F2CD1804}" name="Tabla8" displayName="Tabla8" ref="A7:I10" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+  <autoFilter ref="A7:I10" xr:uid="{FD105646-DE94-4BCD-9D32-F5D2F2CD1804}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{58EC31D5-ABA7-4691-9CE9-2D646A59435B}" name="Número" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{3CC0C371-2809-49AE-9AD0-717653D562B2}" name="Descripción" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{B447105C-0F82-42A8-8BE1-3C028D92B778}" name="Fuente del estímulo" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{1A502254-3DDE-4383-9E15-8F9ABF69D833}" name="Estímulo" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{153FC430-2F9E-4A80-A928-CACFA1547957}" name="Artefacto" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{466B4FE7-6C23-4C8B-BA69-D4671B77084E}" name="Ambiente" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{EF18D027-2093-461D-B82E-65B5A5203D9C}" name="Respuesta" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{868FDE05-111B-429F-978A-DE51A2C228E2}" name="Medida de la respuesta" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{BE9F518D-4B89-469C-AC81-C2A5C1665418}" name="Estado" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{F8E74986-4D9A-40EE-B132-756CA48E9BA8}" name="Número" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{A7EA2EC5-7050-4574-8E0B-B2336E42D086}" name="Descripción" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{3C13C3E1-CC99-49AC-8ACD-AFC471504B58}" name="Fuente del Estímulo" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{8ED8501F-DF7B-428F-AFC3-89281974CE9E}" name="Estímulo" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{F7979D77-EF88-4895-9229-C01552BD545D}" name="Artefacto" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{7E3B6349-03D0-47AD-A10F-B9247DE90C70}" name="Ambiente" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{7AE586CE-1FF1-4333-8182-C69755289199}" name="Respuesta" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{7DBC0AD8-20DE-4974-8466-B4403F7437E3}" name="Medida de la Respuesta" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{8785AEA3-4330-495C-AABC-6725FB4E49F0}" name="Estado" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A0DAC60D-0430-48AE-B285-E89093330F75}" name="Tabla11" displayName="Tabla11" ref="A7:I12" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CDB9F837-C30A-4905-930A-9B6B957DD1F9}" name="Tabla10" displayName="Tabla10" ref="A7:I12" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="A7:I12" xr:uid="{CDB9F837-C30A-4905-930A-9B6B957DD1F9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{58EC31D5-ABA7-4691-9CE9-2D646A59435B}" name="Número" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{3CC0C371-2809-49AE-9AD0-717653D562B2}" name="Descripción" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{B447105C-0F82-42A8-8BE1-3C028D92B778}" name="Fuente del estímulo" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{1A502254-3DDE-4383-9E15-8F9ABF69D833}" name="Estímulo" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{153FC430-2F9E-4A80-A928-CACFA1547957}" name="Artefacto" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{466B4FE7-6C23-4C8B-BA69-D4671B77084E}" name="Ambiente" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{EF18D027-2093-461D-B82E-65B5A5203D9C}" name="Respuesta" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{868FDE05-111B-429F-978A-DE51A2C228E2}" name="Medida de la respuesta" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{BE9F518D-4B89-469C-AC81-C2A5C1665418}" name="Estado" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A0DAC60D-0430-48AE-B285-E89093330F75}" name="Tabla11" displayName="Tabla11" ref="A7:I12" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A7:I12" xr:uid="{A0DAC60D-0430-48AE-B285-E89093330F75}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DED50041-CF24-4ECF-9EE2-5C52EF4FD9CD}" name="Número" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{EC52D308-16EE-4008-859A-4B22C9874B10}" name="Descripción" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{1359B8C1-E434-45C2-9A27-5540925604BB}" name="Fuente del estímulo" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{C579E2FA-9E13-4184-976D-A5AABF4D3739}" name="Estímulo" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E4AE2E75-5556-4CD6-A6AC-4113F8D7431D}" name="Artefacto" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{6223F0F8-4BD8-4090-AA37-D5DA2786C58F}" name="Ambiente" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{92E4B8F8-009E-4EF4-BA28-7BE908E9B568}" name="Respuesta" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{9F234C28-9E82-4ADB-ABE0-C3EA9BB65A21}" name="Medida de la respuesta" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{B335C1B1-C20C-488A-A832-8F42D03CF925}" name="Estado" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{DED50041-CF24-4ECF-9EE2-5C52EF4FD9CD}" name="Número" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{EC52D308-16EE-4008-859A-4B22C9874B10}" name="Descripción" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{1359B8C1-E434-45C2-9A27-5540925604BB}" name="Fuente del estímulo" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{C579E2FA-9E13-4184-976D-A5AABF4D3739}" name="Estímulo" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E4AE2E75-5556-4CD6-A6AC-4113F8D7431D}" name="Artefacto" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{6223F0F8-4BD8-4090-AA37-D5DA2786C58F}" name="Ambiente" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{92E4B8F8-009E-4EF4-BA28-7BE908E9B568}" name="Respuesta" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{9F234C28-9E82-4ADB-ABE0-C3EA9BB65A21}" name="Medida de la respuesta" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{B335C1B1-C20C-488A-A832-8F42D03CF925}" name="Estado" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01CFB1EE-D175-49E3-8D78-4E32ACBD4E6F}" name="Tabla1" displayName="Tabla1" ref="A7:I10" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136" totalsRowBorderDxfId="135">
-  <autoFilter ref="A7:I10" xr:uid="{01CFB1EE-D175-49E3-8D78-4E32ACBD4E6F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1788D096-E498-4E44-8A15-D33479892DA9}" name="Tabla3" displayName="Tabla3" ref="A7:I9" totalsRowShown="0" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164" tableBorderDxfId="162" totalsRowBorderDxfId="161">
+  <autoFilter ref="A7:I9" xr:uid="{1788D096-E498-4E44-8A15-D33479892DA9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CE7CB60D-93CF-4083-A11B-BDEEAC84830C}" name="Número" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{7E196923-DEE9-40E2-A450-06538A6C002E}" name="Descripción" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{E9B733A4-A45C-400A-9B78-129091B248F8}" name="Fuente del estímulo" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{582FAFAE-5680-4146-9D59-B3CB8F5D8AE1}" name="Estímulo" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{C76C8FFE-89F7-4D6B-B177-DC2133FA1C06}" name="Artefacto" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{E56D542D-2F37-4750-B05C-1ABA8591625A}" name="Ambiente" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{114D1CDF-9089-408F-97B9-EBB7C70ADB57}" name="Respuesta" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{68A1B882-E56B-4E28-941F-F82EF543D875}" name="Medida de la respuesta" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{EAA6A413-6975-43A4-ACE7-9036C748FDF6}" name="Estado" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{96C3F5CC-E859-4C74-B45A-A2F62666093E}" name="Número" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{8C8E2A76-F9A4-439B-BCB1-1706EC1813CE}" name="Descripción" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{D0F1B3D4-4255-425E-ACA5-388C773BAB78}" name="Fuente del estímulo" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{89B35F97-20BA-48C5-8C8E-4D9B29ACDDB9}" name="Estímulo" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{AC025101-342D-416E-9513-48EE35475C01}" name="Artefacto" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{72CF0615-137D-4B80-9D71-EEFFB04E7C44}" name="Ambiente" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{127971B5-85A9-4262-BE4D-D73545E672FB}" name="Respuesta" dataDxfId="154"/>
+    <tableColumn id="8" xr3:uid="{372267CF-A0A7-4946-AD66-4E88EF8D432B}" name="Medida de la respuesta" dataDxfId="153"/>
+    <tableColumn id="9" xr3:uid="{285CB59E-2110-4965-A221-F1D8A4058106}" name="Estado" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D5E9A4A-DB0D-4A3E-80B6-A7C5C7EE95DA}" name="Tabla5" displayName="Tabla5" ref="A7:I10" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
-  <autoFilter ref="A7:I10" xr:uid="{4D5E9A4A-DB0D-4A3E-80B6-A7C5C7EE95DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01CFB1EE-D175-49E3-8D78-4E32ACBD4E6F}" name="Tabla1" displayName="Tabla1" ref="A7:I10" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
+  <autoFilter ref="A7:I10" xr:uid="{01CFB1EE-D175-49E3-8D78-4E32ACBD4E6F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AA165854-4B6E-44E3-BB59-EBEE7C59B89E}" name="Número" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{6BBF460F-CACF-4B13-8990-B3E1883F3886}" name="Descripción" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{44407D36-C325-49D9-AB88-50894A0A8464}" name="Fuente del estímulo" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{716F0FA7-234B-4383-92E0-D1AEA6CE3B91}" name="Estímulo" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{BA357186-A806-4ADA-877B-BD3A670F93EB}" name="Artefacto" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{92C6DB34-3C87-4C98-99D7-551261FE4B28}" name="Ambiente" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{B76DD3D3-AD4F-410D-8ABB-A223AC45A6B7}" name="Respuesta" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{32625007-F62C-479D-92A8-94A36848E73A}" name="Medida de la respuesta" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{DEC09DE7-02D1-4D40-809E-9EE66556036E}" name="Estado" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{CE7CB60D-93CF-4083-A11B-BDEEAC84830C}" name="Número" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{7E196923-DEE9-40E2-A450-06538A6C002E}" name="Descripción" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{E9B733A4-A45C-400A-9B78-129091B248F8}" name="Fuente del estímulo" dataDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{582FAFAE-5680-4146-9D59-B3CB8F5D8AE1}" name="Estímulo" dataDxfId="143"/>
+    <tableColumn id="5" xr3:uid="{C76C8FFE-89F7-4D6B-B177-DC2133FA1C06}" name="Artefacto" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{E56D542D-2F37-4750-B05C-1ABA8591625A}" name="Ambiente" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{114D1CDF-9089-408F-97B9-EBB7C70ADB57}" name="Respuesta" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{68A1B882-E56B-4E28-941F-F82EF543D875}" name="Medida de la respuesta" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{EAA6A413-6975-43A4-ACE7-9036C748FDF6}" name="Estado" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD4110C2-F304-4599-B3E2-8F38A8691C72}" name="Tabla4" displayName="Tabla4" ref="A7:I10" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
-  <autoFilter ref="A7:I10" xr:uid="{FD4110C2-F304-4599-B3E2-8F38A8691C72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D5E9A4A-DB0D-4A3E-80B6-A7C5C7EE95DA}" name="Tabla5" displayName="Tabla5" ref="A7:I10" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134" totalsRowBorderDxfId="133">
+  <autoFilter ref="A7:I10" xr:uid="{4D5E9A4A-DB0D-4A3E-80B6-A7C5C7EE95DA}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{36FA7176-8DDB-4D85-AE64-E6C5170F7D83}" name="Número" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{8834A6E8-573A-47F2-A3FE-23E91F2D6836}" name="Descripción" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{8B7A2951-7384-4824-990A-D5D73995746B}" name="Fuente del estímulo" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{95FF5415-84A1-4310-83B7-2FCDE85D783D}" name="Estímulo" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{E05C2C76-E6B1-4D4C-ADF9-BF94944F302B}" name="Artefacto" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{AA6ED53E-FDDB-4B2B-B962-6BB3608DD278}" name="Ambiente" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{7A3FC220-C6DD-403D-9C80-C973D1B52B44}" name="Respuesta" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{12D4BDE7-66E4-4CA9-A211-EE26BB665EF4}" name="Medida de la respuesta" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{5EC1B76D-2A3C-4D29-B896-7B443966919B}" name="Estado" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{AA165854-4B6E-44E3-BB59-EBEE7C59B89E}" name="Número" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{6BBF460F-CACF-4B13-8990-B3E1883F3886}" name="Descripción" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{44407D36-C325-49D9-AB88-50894A0A8464}" name="Fuente del estímulo" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{716F0FA7-234B-4383-92E0-D1AEA6CE3B91}" name="Estímulo" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{BA357186-A806-4ADA-877B-BD3A670F93EB}" name="Artefacto" dataDxfId="128"/>
+    <tableColumn id="6" xr3:uid="{92C6DB34-3C87-4C98-99D7-551261FE4B28}" name="Ambiente" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{B76DD3D3-AD4F-410D-8ABB-A223AC45A6B7}" name="Respuesta" dataDxfId="126"/>
+    <tableColumn id="8" xr3:uid="{32625007-F62C-479D-92A8-94A36848E73A}" name="Medida de la respuesta" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{DEC09DE7-02D1-4D40-809E-9EE66556036E}" name="Estado" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FC2285FC-A3A8-4DAA-92D8-90FB1A4C6825}" name="Tabla7" displayName="Tabla7" ref="A7:I10" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
-  <autoFilter ref="A7:I10" xr:uid="{FC2285FC-A3A8-4DAA-92D8-90FB1A4C6825}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD4110C2-F304-4599-B3E2-8F38A8691C72}" name="Tabla4" displayName="Tabla4" ref="A7:I10" totalsRowShown="0" headerRowDxfId="123" dataDxfId="121" headerRowBorderDxfId="122" tableBorderDxfId="120" totalsRowBorderDxfId="119">
+  <autoFilter ref="A7:I10" xr:uid="{FD4110C2-F304-4599-B3E2-8F38A8691C72}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{254A7DD6-0910-4F86-A83C-9B04320E030C}" name="Número" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{94BC81E9-D89C-49D9-BB30-C63F6FB144BB}" name="Descripción" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{6EB5899F-429B-49F2-951D-ADF7CBE968B7}" name="Fuente del Estímulo" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{72E34A5E-0DB6-462E-8373-FB135A09B919}" name="Estímulo" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{581AC9FB-B793-4065-A738-38DEBB0B3781}" name="Artefacto" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{C058CE89-984A-4AE7-81E7-EA1CDBFBB8C1}" name="Ambiente" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{318DD402-2809-4342-AFDD-667BB63E7D54}" name="Respuesta" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{4CA03027-DFF2-4051-B5F9-F15B164B8B9D}" name="Medida de la Respuesta" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{0D398F17-E035-4F24-9737-AF4E1E07E5D3}" name="Estado" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{36FA7176-8DDB-4D85-AE64-E6C5170F7D83}" name="Número" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{8834A6E8-573A-47F2-A3FE-23E91F2D6836}" name="Descripción" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{8B7A2951-7384-4824-990A-D5D73995746B}" name="Fuente del estímulo" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{95FF5415-84A1-4310-83B7-2FCDE85D783D}" name="Estímulo" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{E05C2C76-E6B1-4D4C-ADF9-BF94944F302B}" name="Artefacto" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{AA6ED53E-FDDB-4B2B-B962-6BB3608DD278}" name="Ambiente" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{7A3FC220-C6DD-403D-9C80-C973D1B52B44}" name="Respuesta" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{12D4BDE7-66E4-4CA9-A211-EE26BB665EF4}" name="Medida de la respuesta" dataDxfId="111"/>
+    <tableColumn id="9" xr3:uid="{5EC1B76D-2A3C-4D29-B896-7B443966919B}" name="Estado" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CCFEC43-CF5F-4482-B542-E19CC15A7A3D}" name="Tabla6" displayName="Tabla6" ref="A7:I10" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
-  <autoFilter ref="A7:I10" xr:uid="{7CCFEC43-CF5F-4482-B542-E19CC15A7A3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FC2285FC-A3A8-4DAA-92D8-90FB1A4C6825}" name="Tabla7" displayName="Tabla7" ref="A7:I10" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+  <autoFilter ref="A7:I10" xr:uid="{FC2285FC-A3A8-4DAA-92D8-90FB1A4C6825}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1AD1B49E-6E8F-4882-ABFB-5FFE7432806D}" name="Número" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{16957780-45BC-4238-BCCB-4A7099768CDE}" name="Descripción" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{8BBC5A05-2672-4164-AB95-474CA035F175}" name="Fuente del Estímulo" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{87086D07-D907-4A02-9A7C-AE15CB6DB5FA}" name="Estímulo" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{3D5FD30D-E777-4796-83CB-64882FEDA037}" name="Artefacto" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{6BA84606-CB03-42CD-A744-FACD70823038}" name="Ambiente" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{BF98D258-2063-4FF7-8417-B9BD5BA94209}" name="Respuesta" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{946729FF-75F2-4BE6-9A04-4AF3F37EF0DC}" name="Medida de la Respuesta" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{924BC9B3-6D34-4645-8B1D-B4E034C96128}" name="Estado" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{254A7DD6-0910-4F86-A83C-9B04320E030C}" name="Número" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{94BC81E9-D89C-49D9-BB30-C63F6FB144BB}" name="Descripción" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{6EB5899F-429B-49F2-951D-ADF7CBE968B7}" name="Fuente del Estímulo" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{72E34A5E-0DB6-462E-8373-FB135A09B919}" name="Estímulo" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{581AC9FB-B793-4065-A738-38DEBB0B3781}" name="Artefacto" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{C058CE89-984A-4AE7-81E7-EA1CDBFBB8C1}" name="Ambiente" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{318DD402-2809-4342-AFDD-667BB63E7D54}" name="Respuesta" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{4CA03027-DFF2-4051-B5F9-F15B164B8B9D}" name="Medida de la Respuesta" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{0D398F17-E035-4F24-9737-AF4E1E07E5D3}" name="Estado" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D0E67746-94F7-43FF-94C5-FD752B9DCBE0}" name="Tabla9" displayName="Tabla9" ref="A7:I10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
-  <autoFilter ref="A7:I10" xr:uid="{D0E67746-94F7-43FF-94C5-FD752B9DCBE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CCFEC43-CF5F-4482-B542-E19CC15A7A3D}" name="Tabla6" displayName="Tabla6" ref="A7:I10" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+  <autoFilter ref="A7:I10" xr:uid="{7CCFEC43-CF5F-4482-B542-E19CC15A7A3D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1D0DFB64-C8F2-43A1-BC57-B4FA0A3A67A5}" name="Número" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{C60238F9-A140-4B3D-AFCF-5F3F55745D77}" name="Descripción" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{DA61B289-5F65-4A63-AE6B-9B9C8BC4C5D5}" name="Fuente del Estímulo" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{1318DF64-965D-45FF-82A2-995A330A2C6E}" name="Estímulo" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{3350FAA5-5B2F-4656-9C7C-630ABBDEBB7C}" name="Artefacto" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{EBEB5D8D-2704-4ACF-93AF-DA467FC0E097}" name="Ambiente" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{54AB823F-3196-4214-98F4-9F74A3F281D5}" name="Respuesta" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{B6071E83-5488-451F-82F3-040FEC897D9B}" name="Medida de la Respuesta" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{BEE4A882-E336-45FE-8DD7-3882213CAEE6}" name="Estado" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{1AD1B49E-6E8F-4882-ABFB-5FFE7432806D}" name="Número" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{16957780-45BC-4238-BCCB-4A7099768CDE}" name="Descripción" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{8BBC5A05-2672-4164-AB95-474CA035F175}" name="Fuente del Estímulo" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{87086D07-D907-4A02-9A7C-AE15CB6DB5FA}" name="Estímulo" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{3D5FD30D-E777-4796-83CB-64882FEDA037}" name="Artefacto" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{6BA84606-CB03-42CD-A744-FACD70823038}" name="Ambiente" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{BF98D258-2063-4FF7-8417-B9BD5BA94209}" name="Respuesta" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{946729FF-75F2-4BE6-9A04-4AF3F37EF0DC}" name="Medida de la Respuesta" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{924BC9B3-6D34-4645-8B1D-B4E034C96128}" name="Estado" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A329BC0-DB21-4333-A7E3-7F86A46E9838}" name="Tabla93" displayName="Tabla93" ref="A7:I10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
-  <autoFilter ref="A7:I10" xr:uid="{1A329BC0-DB21-4333-A7E3-7F86A46E9838}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D0E67746-94F7-43FF-94C5-FD752B9DCBE0}" name="Tabla9" displayName="Tabla9" ref="A7:I10" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78" totalsRowBorderDxfId="77">
+  <autoFilter ref="A7:I10" xr:uid="{D0E67746-94F7-43FF-94C5-FD752B9DCBE0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FB0806EB-5966-4A32-A6BC-80A20F21CD37}" name="Número" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{239BCA30-C4FD-4622-80FE-1A708DC93013}" name="Descripción" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{890E140D-AE95-49A0-91D0-0F1D1968C743}" name="Fuente del Estímulo" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E444E9E5-09C2-4CA5-B3AD-7790BAA49CC8}" name="Estímulo" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{044381DB-E8AC-4204-BFCD-CCAB44CC6989}" name="Artefacto" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9209425B-5F96-4F5C-A649-E9C6BD9550DD}" name="Ambiente" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{04C80197-277E-4C78-A7BE-0BA290667871}" name="Respuesta" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{7F77F61E-F403-440C-890F-1BFDA6B7B8FD}" name="Medida de la Respuesta" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{0A025226-B28B-473B-BCA3-85FF4F06EEFD}" name="Estado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1D0DFB64-C8F2-43A1-BC57-B4FA0A3A67A5}" name="Número" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{C60238F9-A140-4B3D-AFCF-5F3F55745D77}" name="Descripción" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{DA61B289-5F65-4A63-AE6B-9B9C8BC4C5D5}" name="Fuente del Estímulo" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{1318DF64-965D-45FF-82A2-995A330A2C6E}" name="Estímulo" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{3350FAA5-5B2F-4656-9C7C-630ABBDEBB7C}" name="Artefacto" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{EBEB5D8D-2704-4ACF-93AF-DA467FC0E097}" name="Ambiente" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{54AB823F-3196-4214-98F4-9F74A3F281D5}" name="Respuesta" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{B6071E83-5488-451F-82F3-040FEC897D9B}" name="Medida de la Respuesta" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{BEE4A882-E336-45FE-8DD7-3882213CAEE6}" name="Estado" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FD105646-DE94-4BCD-9D32-F5D2F2CD1804}" name="Tabla8" displayName="Tabla8" ref="A7:I10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
-  <autoFilter ref="A7:I10" xr:uid="{FD105646-DE94-4BCD-9D32-F5D2F2CD1804}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A329BC0-DB21-4333-A7E3-7F86A46E9838}" name="Tabla93" displayName="Tabla93" ref="A7:I10" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+  <autoFilter ref="A7:I10" xr:uid="{1A329BC0-DB21-4333-A7E3-7F86A46E9838}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F8E74986-4D9A-40EE-B132-756CA48E9BA8}" name="Número" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{A7EA2EC5-7050-4574-8E0B-B2336E42D086}" name="Descripción" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{3C13C3E1-CC99-49AC-8ACD-AFC471504B58}" name="Fuente del Estímulo" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{8ED8501F-DF7B-428F-AFC3-89281974CE9E}" name="Estímulo" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{F7979D77-EF88-4895-9229-C01552BD545D}" name="Artefacto" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{7E3B6349-03D0-47AD-A10F-B9247DE90C70}" name="Ambiente" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{7AE586CE-1FF1-4333-8182-C69755289199}" name="Respuesta" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{7DBC0AD8-20DE-4974-8466-B4403F7437E3}" name="Medida de la Respuesta" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{8785AEA3-4330-495C-AABC-6725FB4E49F0}" name="Estado" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{FB0806EB-5966-4A32-A6BC-80A20F21CD37}" name="Número" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{239BCA30-C4FD-4622-80FE-1A708DC93013}" name="Descripción" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{890E140D-AE95-49A0-91D0-0F1D1968C743}" name="Fuente del Estímulo" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{E444E9E5-09C2-4CA5-B3AD-7790BAA49CC8}" name="Estímulo" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{044381DB-E8AC-4204-BFCD-CCAB44CC6989}" name="Artefacto" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{9209425B-5F96-4F5C-A649-E9C6BD9550DD}" name="Ambiente" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{04C80197-277E-4C78-A7BE-0BA290667871}" name="Respuesta" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{7F77F61E-F403-440C-890F-1BFDA6B7B8FD}" name="Medida de la Respuesta" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{0A025226-B28B-473B-BCA3-85FF4F06EEFD}" name="Estado" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7930,10 +8241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8005,7 +8316,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="78" t="s">
         <v>445</v>
       </c>
       <c r="B11"/>
@@ -8060,6 +8371,16 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -8073,6 +8394,7 @@
     <hyperlink ref="A20" location="AlternativaSolucionSelecc!A1" display="Alternativa de Solucion  Seleccionada" xr:uid="{AA444825-5E3A-4194-9D21-A73A8AAD0A74}"/>
     <hyperlink ref="A21" location="TacticasEstrategias!A1" display="Tacticas Estrategias" xr:uid="{39CB7AEA-71C0-4D59-86DB-D19AE6DA3AA3}"/>
     <hyperlink ref="A10" location="HistoriasUsuario!A1" display="Historias de Usuario " xr:uid="{FA0AA978-00BA-4289-ADC9-E9C89FB3638B}"/>
+    <hyperlink ref="A25" location="Elecciones!A1" display="Elecciones  " xr:uid="{3B377A59-6A47-4FFC-924C-34F4E5A642B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8080,6 +8402,207 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4312C-FDD2-4340-821F-754A5F40D4E6}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.28515625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Caracterizacion!A125" display="Caracterizacion" xr:uid="{4143DDCD-F253-4DA2-9589-F65532AB8B6D}"/>
+    <hyperlink ref="B1" location="TacticasEstrategias!A1" display="Tacticas Estrategias" xr:uid="{21B92A26-0E6C-4D35-9C3B-D1C478E9C863}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B71487E-C9E1-4276-81FB-A1C49393F747}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -8104,75 +8627,75 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="110" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="107" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="94"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="107" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -8310,7 +8833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B083A-8F1B-4380-B3DA-4DA002A053C1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -8337,74 +8860,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="110" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -8545,7 +9068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19D2B3-3E99-4B9E-BAE1-41A4FFCD985E}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -8570,74 +9093,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="110" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="103" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -8778,7 +9301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AFA58C-0D37-472A-9044-2D31A2B22101}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -8803,74 +9326,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -9008,7 +9531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF74A5E-2AA8-4C93-B20D-32544E95EFB7}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -9033,74 +9556,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -9238,7 +9761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AABED7F-A641-414C-93D1-501EE24037CE}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -9263,74 +9786,74 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="117" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -9468,7 +9991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4FBD70-9D3A-4C8E-B5C8-430B3A403F0B}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -9490,68 +10013,68 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -9652,7 +10175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F952A68-CFD3-4455-8952-3067C8308151}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -9672,74 +10195,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="107" t="s">
         <v>562</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -9876,7 +10399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61622F7-0E97-45E4-AD8D-67A23570D199}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -9910,74 +10433,74 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -10173,7 +10696,550 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960EF336-7349-4C12-8BD6-20A253071299}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14" style="7" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>638</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>639</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>641</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="125" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="124" t="s">
+        <v>646</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>647</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>649</v>
+      </c>
+      <c r="E4" s="76">
+        <v>4</v>
+      </c>
+      <c r="F4" s="76">
+        <v>5</v>
+      </c>
+      <c r="G4" s="76">
+        <v>5</v>
+      </c>
+      <c r="H4" s="76">
+        <v>4</v>
+      </c>
+      <c r="I4" s="76">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUM(E4:I4)</f>
+        <v>22</v>
+      </c>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="124" t="s">
+        <v>682</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>683</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>685</v>
+      </c>
+      <c r="E5" s="76">
+        <v>4</v>
+      </c>
+      <c r="F5" s="76">
+        <v>5</v>
+      </c>
+      <c r="G5" s="76">
+        <v>5</v>
+      </c>
+      <c r="H5" s="76">
+        <v>4</v>
+      </c>
+      <c r="I5" s="76">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUM(E5:I5)</f>
+        <v>22</v>
+      </c>
+      <c r="O5" s="81"/>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="124" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>691</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>693</v>
+      </c>
+      <c r="E6" s="76">
+        <v>5</v>
+      </c>
+      <c r="F6" s="76">
+        <v>4</v>
+      </c>
+      <c r="G6" s="76">
+        <v>4</v>
+      </c>
+      <c r="H6" s="76">
+        <v>5</v>
+      </c>
+      <c r="I6" s="76">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7">
+        <f>SUM(E6:I6)</f>
+        <v>22</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="124" t="s">
+        <v>658</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>659</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>661</v>
+      </c>
+      <c r="E7" s="76">
+        <v>4</v>
+      </c>
+      <c r="F7" s="76">
+        <v>4</v>
+      </c>
+      <c r="G7" s="76">
+        <v>4</v>
+      </c>
+      <c r="H7" s="76">
+        <v>4</v>
+      </c>
+      <c r="I7" s="76">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7">
+        <f>SUM(E7:I7)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="124" t="s">
+        <v>666</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>669</v>
+      </c>
+      <c r="E8" s="76">
+        <v>4</v>
+      </c>
+      <c r="F8" s="76">
+        <v>5</v>
+      </c>
+      <c r="G8" s="76">
+        <v>4</v>
+      </c>
+      <c r="H8" s="76">
+        <v>3</v>
+      </c>
+      <c r="I8" s="76">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7">
+        <f>SUM(E8:I8)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="124" t="s">
+        <v>674</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>676</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="76">
+        <v>4</v>
+      </c>
+      <c r="F9" s="76">
+        <v>5</v>
+      </c>
+      <c r="G9" s="76">
+        <v>4</v>
+      </c>
+      <c r="H9" s="76">
+        <v>4</v>
+      </c>
+      <c r="I9" s="76">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUM(E9:I9)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="124" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>679</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>680</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>681</v>
+      </c>
+      <c r="E10" s="76">
+        <v>3</v>
+      </c>
+      <c r="F10" s="76">
+        <v>4</v>
+      </c>
+      <c r="G10" s="76">
+        <v>5</v>
+      </c>
+      <c r="H10" s="76">
+        <v>3</v>
+      </c>
+      <c r="I10" s="76">
+        <v>4</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUM(E10:I10)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="124" t="s">
+        <v>694</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>695</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>696</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>697</v>
+      </c>
+      <c r="E11" s="76">
+        <v>4</v>
+      </c>
+      <c r="F11" s="76">
+        <v>4</v>
+      </c>
+      <c r="G11" s="76">
+        <v>4</v>
+      </c>
+      <c r="H11" s="76">
+        <v>4</v>
+      </c>
+      <c r="I11" s="76">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUM(E11:I11)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="124" t="s">
+        <v>654</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>655</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>656</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>657</v>
+      </c>
+      <c r="E12" s="76">
+        <v>4</v>
+      </c>
+      <c r="F12" s="76">
+        <v>4</v>
+      </c>
+      <c r="G12" s="76">
+        <v>3</v>
+      </c>
+      <c r="H12" s="76">
+        <v>4</v>
+      </c>
+      <c r="I12" s="76">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUM(E12:I12)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="124" t="s">
+        <v>686</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>687</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>688</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="E13" s="76">
+        <v>3</v>
+      </c>
+      <c r="F13" s="76">
+        <v>4</v>
+      </c>
+      <c r="G13" s="76">
+        <v>5</v>
+      </c>
+      <c r="H13" s="76">
+        <v>3</v>
+      </c>
+      <c r="I13" s="76">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUM(E13:I13)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="124" t="s">
+        <v>670</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>671</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>672</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>673</v>
+      </c>
+      <c r="E14" s="76">
+        <v>3</v>
+      </c>
+      <c r="F14" s="76">
+        <v>3</v>
+      </c>
+      <c r="G14" s="76">
+        <v>4</v>
+      </c>
+      <c r="H14" s="76">
+        <v>4</v>
+      </c>
+      <c r="I14" s="76">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUM(E14:I14)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="124" t="s">
+        <v>650</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>651</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>652</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>653</v>
+      </c>
+      <c r="E15" s="76">
+        <v>3</v>
+      </c>
+      <c r="F15" s="76">
+        <v>4</v>
+      </c>
+      <c r="G15" s="76">
+        <v>3</v>
+      </c>
+      <c r="H15" s="76">
+        <v>3</v>
+      </c>
+      <c r="I15" s="76">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUM(E15:I15)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="124" t="s">
+        <v>662</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>663</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>664</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>665</v>
+      </c>
+      <c r="E16" s="76">
+        <v>3</v>
+      </c>
+      <c r="F16" s="76">
+        <v>3</v>
+      </c>
+      <c r="G16" s="76">
+        <v>3</v>
+      </c>
+      <c r="H16" s="76">
+        <v>4</v>
+      </c>
+      <c r="I16" s="76">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7">
+        <f>SUM(E16:I16)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="124" t="s">
+        <v>642</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>643</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>644</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>645</v>
+      </c>
+      <c r="E17" s="76">
+        <v>3</v>
+      </c>
+      <c r="F17" s="76">
+        <v>3</v>
+      </c>
+      <c r="G17" s="76">
+        <v>2</v>
+      </c>
+      <c r="H17" s="76">
+        <v>3</v>
+      </c>
+      <c r="I17" s="76">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7">
+        <f>SUM(E17:I17)</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{098E7FD0-835B-426E-9897-DAC46A1D6ADA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E889B929-B5B5-483A-BEEF-8B8890C6DDF7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -10196,74 +11262,74 @@
       <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -10459,7 +11525,673 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C722FD5-E71D-43F6-AADB-231D79660503}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <f>SUM(B3:D3)</f>
+        <v>39</v>
+      </c>
+      <c r="F3" s="8">
+        <f>E3/$E$16</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SUM(B4:D4)</f>
+        <v>22</v>
+      </c>
+      <c r="F4" s="9">
+        <f>E4/$E$16</f>
+        <v>8.0586080586080591E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SUM(B5:D5)</f>
+        <v>23</v>
+      </c>
+      <c r="F5" s="8">
+        <f>E5/$E$16</f>
+        <v>8.4249084249084255E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:E15" si="0">SUM(B6:D6)</f>
+        <v>34</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F15" si="1">E6/$E$16</f>
+        <v>0.12454212454212454</v>
+      </c>
+      <c r="G6" s="74"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>7.3260073260073263E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>8.7912087912087919E-2</v>
+      </c>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2271062271062272E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>8.7912087912087919E-2</v>
+      </c>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>6.95970695970696E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>5.8608058608058608E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2">
+        <f>SUM(B3:B15)</f>
+        <v>91</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:E16" si="2">SUM(C3:C15)</f>
+        <v>91</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="F16" s="9">
+        <f>E16/$E$16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{E08C2090-9D5B-4DC0-92FE-92EA93E01964}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F51200-D3AC-41F5-92E2-045AA3A7E3D9}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{8679D947-372C-490F-B601-DC7676E63A69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EADD079-0931-4173-B33E-BF925D737CCF}">
   <dimension ref="A1:E108"/>
   <sheetViews>
@@ -10479,931 +12211,931 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="79" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="79" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="79" t="s">
         <v>564</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="79" t="s">
         <v>565</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="79" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112">
+      <c r="A3" s="83">
         <v>1</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="76" t="s">
         <v>500</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="111" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="76" t="s">
         <v>501</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112">
+      <c r="A5" s="83">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="83" t="s">
         <v>504</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="76" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="111" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="76" t="s">
         <v>506</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="112">
+      <c r="A7" s="83">
         <v>3</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="83" t="s">
         <v>560</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="76" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="111" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="76" t="s">
         <v>508</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112">
+      <c r="A9" s="83">
         <v>4</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="83" t="s">
         <v>509</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="76" t="s">
         <v>510</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="111" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="76" t="s">
         <v>511</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112">
+      <c r="A11" s="83">
         <v>5</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="83" t="s">
         <v>566</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="76" t="s">
         <v>513</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="111" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="76" t="s">
         <v>514</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112">
+      <c r="A13" s="83">
         <v>6</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="83" t="s">
         <v>515</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="76" t="s">
         <v>516</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="111" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="76" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112">
+      <c r="A15" s="83">
         <v>7</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="83" t="s">
         <v>518</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="76" t="s">
         <v>519</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E15" s="112" t="s">
+      <c r="E15" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="111" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="76" t="s">
         <v>520</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
     </row>
     <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112">
+      <c r="A17" s="83">
         <v>8</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="83" t="s">
         <v>521</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="76" t="s">
         <v>522</v>
       </c>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E17" s="112" t="s">
+      <c r="E17" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="111" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="76" t="s">
         <v>523</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112">
+      <c r="A19" s="83">
         <v>9</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="83" t="s">
         <v>524</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="76" t="s">
         <v>525</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="111" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="76" t="s">
         <v>526</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112">
+      <c r="A21" s="83">
         <v>10</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="83" t="s">
         <v>527</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="76" t="s">
         <v>528</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="111" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="76" t="s">
         <v>529</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112">
+      <c r="A23" s="83">
         <v>11</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="83" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="76" t="s">
         <v>531</v>
       </c>
-      <c r="D23" s="112" t="s">
+      <c r="D23" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E23" s="112" t="s">
+      <c r="E23" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="111" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="112">
+      <c r="A25" s="83">
         <v>12</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="83" t="s">
         <v>533</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="D25" s="112" t="s">
+      <c r="D25" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E25" s="112" t="s">
+      <c r="E25" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="111" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="76" t="s">
         <v>535</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
     </row>
     <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112">
+      <c r="A27" s="83">
         <v>13</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="76" t="s">
         <v>537</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E27" s="112" t="s">
+      <c r="E27" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="111" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="76" t="s">
         <v>538</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="112">
+      <c r="A29" s="83">
         <v>14</v>
       </c>
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="83" t="s">
         <v>539</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="76" t="s">
         <v>540</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="111" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="76" t="s">
         <v>541</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
     </row>
     <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="112">
+      <c r="A31" s="83">
         <v>15</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="83" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="111" t="s">
+      <c r="C31" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="D31" s="112" t="s">
+      <c r="D31" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E31" s="112" t="s">
+      <c r="E31" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="111" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="76" t="s">
         <v>544</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="112">
+      <c r="A33" s="83">
         <v>16</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="83" t="s">
         <v>545</v>
       </c>
-      <c r="C33" s="111" t="s">
+      <c r="C33" s="76" t="s">
         <v>546</v>
       </c>
-      <c r="D33" s="112" t="s">
+      <c r="D33" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="111" t="s">
+      <c r="A34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="76" t="s">
         <v>547</v>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="112">
+      <c r="A35" s="83">
         <v>17</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="76" t="s">
         <v>549</v>
       </c>
-      <c r="D35" s="112" t="s">
+      <c r="D35" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="E35" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="111" t="s">
+      <c r="A36" s="83"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="76" t="s">
         <v>550</v>
       </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="112">
+      <c r="A37" s="83">
         <v>18</v>
       </c>
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="83" t="s">
         <v>551</v>
       </c>
-      <c r="C37" s="111" t="s">
+      <c r="C37" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E37" s="112" t="s">
+      <c r="E37" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="111" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="76" t="s">
         <v>553</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="112">
+      <c r="A39" s="83">
         <v>19</v>
       </c>
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="83" t="s">
         <v>554</v>
       </c>
-      <c r="C39" s="111" t="s">
+      <c r="C39" s="76" t="s">
         <v>555</v>
       </c>
-      <c r="D39" s="112" t="s">
+      <c r="D39" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="111" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="76" t="s">
         <v>556</v>
       </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
     </row>
     <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="112">
+      <c r="A41" s="83">
         <v>20</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="83" t="s">
         <v>557</v>
       </c>
-      <c r="C41" s="111" t="s">
+      <c r="C41" s="76" t="s">
         <v>558</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D41" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="112"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="111" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="76" t="s">
         <v>559</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
     </row>
     <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="112">
+      <c r="A43" s="83">
         <v>21</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="B43" s="83" t="s">
         <v>588</v>
       </c>
-      <c r="C43" s="111" t="s">
+      <c r="C43" s="76" t="s">
         <v>589</v>
       </c>
-      <c r="D43" s="112" t="s">
+      <c r="D43" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="112"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="111" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="76" t="s">
         <v>590</v>
       </c>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="112">
+      <c r="A45" s="83">
         <v>22</v>
       </c>
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="83" t="s">
         <v>591</v>
       </c>
-      <c r="C45" s="111" t="s">
+      <c r="C45" s="76" t="s">
         <v>592</v>
       </c>
-      <c r="D45" s="112" t="s">
+      <c r="D45" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E45" s="112" t="s">
+      <c r="E45" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="111" t="s">
+      <c r="A46" s="83"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
     </row>
     <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="112">
+      <c r="A47" s="83">
         <v>23</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="83" t="s">
         <v>594</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="76" t="s">
         <v>595</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E47" s="112" t="s">
+      <c r="E47" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="112"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="111" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="112">
+      <c r="A49" s="83">
         <v>24</v>
       </c>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="83" t="s">
         <v>597</v>
       </c>
-      <c r="C49" s="111" t="s">
+      <c r="C49" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="D49" s="112" t="s">
+      <c r="D49" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E49" s="112" t="s">
+      <c r="E49" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="112"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="111" t="s">
+      <c r="A50" s="83"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="76" t="s">
         <v>599</v>
       </c>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="112">
+      <c r="A51" s="83">
         <v>25</v>
       </c>
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="83" t="s">
         <v>600</v>
       </c>
-      <c r="C51" s="111" t="s">
+      <c r="C51" s="76" t="s">
         <v>601</v>
       </c>
-      <c r="D51" s="112" t="s">
+      <c r="D51" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E51" s="112" t="s">
+      <c r="E51" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="111" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="76" t="s">
         <v>602</v>
       </c>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="112">
+      <c r="A53" s="83">
         <v>26</v>
       </c>
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="83" t="s">
         <v>603</v>
       </c>
-      <c r="C53" s="111" t="s">
+      <c r="C53" s="76" t="s">
         <v>604</v>
       </c>
-      <c r="D53" s="112" t="s">
+      <c r="D53" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E53" s="112" t="s">
+      <c r="E53" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="111" t="s">
+      <c r="A54" s="83"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="76" t="s">
         <v>605</v>
       </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="112">
+      <c r="A55" s="83">
         <v>27</v>
       </c>
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="83" t="s">
         <v>606</v>
       </c>
-      <c r="C55" s="111" t="s">
+      <c r="C55" s="76" t="s">
         <v>607</v>
       </c>
-      <c r="D55" s="112" t="s">
+      <c r="D55" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E55" s="112" t="s">
+      <c r="E55" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="111" t="s">
+      <c r="A56" s="83"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="76" t="s">
         <v>608</v>
       </c>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="112">
+      <c r="A57" s="83">
         <v>28</v>
       </c>
-      <c r="B57" s="112" t="s">
+      <c r="B57" s="83" t="s">
         <v>609</v>
       </c>
-      <c r="C57" s="111" t="s">
+      <c r="C57" s="76" t="s">
         <v>610</v>
       </c>
-      <c r="D57" s="112" t="s">
+      <c r="D57" s="83" t="s">
         <v>612</v>
       </c>
-      <c r="E57" s="112" t="s">
+      <c r="E57" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="112"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="111" t="s">
+      <c r="A58" s="83"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="76" t="s">
         <v>611</v>
       </c>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="112">
+      <c r="A59" s="83">
         <v>29</v>
       </c>
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="83" t="s">
         <v>613</v>
       </c>
-      <c r="C59" s="111" t="s">
+      <c r="C59" s="76" t="s">
         <v>614</v>
       </c>
-      <c r="D59" s="112" t="s">
+      <c r="D59" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E59" s="112" t="s">
+      <c r="E59" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="112"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="111" t="s">
+      <c r="A60" s="83"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="76" t="s">
         <v>615</v>
       </c>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="112">
+      <c r="A61" s="83">
         <v>30</v>
       </c>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="83" t="s">
         <v>616</v>
       </c>
-      <c r="C61" s="111" t="s">
+      <c r="C61" s="76" t="s">
         <v>617</v>
       </c>
-      <c r="D61" s="112" t="s">
+      <c r="D61" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E61" s="112" t="s">
+      <c r="E61" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="111" t="s">
+      <c r="A62" s="83"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="76" t="s">
         <v>618</v>
       </c>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="112">
+      <c r="A63" s="83">
         <v>31</v>
       </c>
-      <c r="B63" s="112" t="s">
+      <c r="B63" s="83" t="s">
         <v>619</v>
       </c>
-      <c r="C63" s="111" t="s">
+      <c r="C63" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="D63" s="112" t="s">
+      <c r="D63" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E63" s="112" t="s">
+      <c r="E63" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="112"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="111" t="s">
+      <c r="A64" s="83"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="76" t="s">
         <v>621</v>
       </c>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
     </row>
     <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="112">
+      <c r="A65" s="83">
         <v>32</v>
       </c>
-      <c r="B65" s="112" t="s">
+      <c r="B65" s="83" t="s">
         <v>622</v>
       </c>
-      <c r="C65" s="111" t="s">
+      <c r="C65" s="76" t="s">
         <v>623</v>
       </c>
-      <c r="D65" s="112" t="s">
+      <c r="D65" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E65" s="112" t="s">
+      <c r="E65" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="112"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="111" t="s">
+      <c r="A66" s="83"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="76" t="s">
         <v>624</v>
       </c>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="112">
+      <c r="A67" s="83">
         <v>33</v>
       </c>
-      <c r="B67" s="112" t="s">
+      <c r="B67" s="83" t="s">
         <v>625</v>
       </c>
-      <c r="C67" s="111" t="s">
+      <c r="C67" s="76" t="s">
         <v>626</v>
       </c>
-      <c r="D67" s="112" t="s">
+      <c r="D67" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E67" s="112" t="s">
+      <c r="E67" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="112"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="111" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="76" t="s">
         <v>627</v>
       </c>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="112">
+      <c r="A69" s="83">
         <v>34</v>
       </c>
-      <c r="B69" s="112" t="s">
+      <c r="B69" s="83" t="s">
         <v>628</v>
       </c>
-      <c r="C69" s="111" t="s">
+      <c r="C69" s="76" t="s">
         <v>629</v>
       </c>
-      <c r="D69" s="112" t="s">
+      <c r="D69" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E69" s="112" t="s">
+      <c r="E69" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="112"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="111" t="s">
+      <c r="A70" s="83"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="76" t="s">
         <v>630</v>
       </c>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="112">
+      <c r="A71" s="83">
         <v>35</v>
       </c>
-      <c r="B71" s="112" t="s">
+      <c r="B71" s="83" t="s">
         <v>631</v>
       </c>
-      <c r="C71" s="111" t="s">
+      <c r="C71" s="76" t="s">
         <v>632</v>
       </c>
-      <c r="D71" s="112" t="s">
+      <c r="D71" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="112" t="s">
+      <c r="E71" s="83" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="112"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="111" t="s">
+      <c r="A72" s="83"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="76" t="s">
         <v>633</v>
       </c>
-      <c r="D72" s="112"/>
-      <c r="E72" s="112"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11425,6 +13157,132 @@
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="D67:D68"/>
@@ -11439,132 +13297,6 @@
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{39E8F964-FA78-451F-AA99-AC92C3995828}"/>
@@ -11574,679 +13306,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C722FD5-E71D-43F6-AADB-231D79660503}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E1AA8F-4DD4-469C-B8A3-95712D9C086F}">
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <f>SUM(B3:D3)</f>
-        <v>39</v>
-      </c>
-      <c r="F3" s="8">
-        <f>E3/$E$16</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G3" s="109"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <f>SUM(B4:D4)</f>
-        <v>22</v>
-      </c>
-      <c r="F4" s="9">
-        <f>E4/$E$16</f>
-        <v>8.0586080586080591E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <f>SUM(B5:D5)</f>
-        <v>23</v>
-      </c>
-      <c r="F5" s="8">
-        <f>E5/$E$16</f>
-        <v>8.4249084249084255E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6:E15" si="0">SUM(B6:D6)</f>
-        <v>34</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" ref="F6:F15" si="1">E6/$E$16</f>
-        <v>0.12454212454212454</v>
-      </c>
-      <c r="G6" s="109"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="1"/>
-        <v>7.3260073260073263E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>8.7912087912087919E-2</v>
-      </c>
-      <c r="G8" s="110"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>6.2271062271062272E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>8.7912087912087919E-2</v>
-      </c>
-      <c r="G10" s="109"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>6.95970695970696E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="1"/>
-        <v>5.8608058608058608E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="1"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="1"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2">
-        <f>SUM(B3:B15)</f>
-        <v>91</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:E16" si="2">SUM(C3:C15)</f>
-        <v>91</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="2"/>
-        <v>273</v>
-      </c>
-      <c r="F16" s="9">
-        <f>E16/$E$16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{E08C2090-9D5B-4DC0-92FE-92EA93E01964}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F51200-D3AC-41F5-92E2-045AA3A7E3D9}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{8679D947-372C-490F-B601-DC7676E63A69}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E1AA8F-4DD4-469C-B8A3-95712D9C086F}">
-  <dimension ref="A1:M72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12275,54 +13339,54 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="91" t="s">
         <v>451</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="91" t="s">
         <v>452</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="84"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="92" t="s">
         <v>455</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="92" t="s">
         <v>456</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="62" t="s">
         <v>458</v>
       </c>
@@ -12343,10 +13407,10 @@
       <c r="A5" t="s">
         <v>463</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="81" t="s">
         <v>389</v>
       </c>
       <c r="D5" s="64">
@@ -12374,10 +13438,10 @@
       <c r="A6" t="s">
         <v>463</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="81" t="s">
         <v>198</v>
       </c>
       <c r="D6">
@@ -12388,63 +13452,63 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="84" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="76">
         <v>1</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="76" t="s">
         <v>568</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="76" t="s">
         <v>571</v>
       </c>
-      <c r="H7" s="111" t="s">
+      <c r="H7" s="76" t="s">
         <v>572</v>
       </c>
-      <c r="J7" s="111"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="111">
+      <c r="A8" s="84"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="76">
         <v>2</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="76" t="s">
         <v>569</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="76" t="s">
         <v>570</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="76" t="s">
         <v>573</v>
       </c>
-      <c r="H8" s="111" t="s">
+      <c r="H8" s="76" t="s">
         <v>574</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
+      <c r="J8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>463</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="81" t="s">
         <v>231</v>
       </c>
       <c r="D9">
@@ -12453,8 +13517,8 @@
       <c r="E9" t="s">
         <v>580</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10">
@@ -12463,39 +13527,39 @@
       <c r="E10" t="s">
         <v>581</v>
       </c>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>463</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="81" t="s">
         <v>259</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="76" t="s">
         <v>582</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="76" t="s">
         <v>583</v>
       </c>
     </row>
@@ -12503,16 +13567,16 @@
       <c r="A13" t="s">
         <v>463</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="7" t="s">
         <v>260</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="76" t="s">
         <v>584</v>
       </c>
     </row>
@@ -12520,255 +13584,234 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="76" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B15" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>463</v>
       </c>
-      <c r="B16" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>463</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C18" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E18" s="76" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>463</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B20" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C20" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E20" s="76" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
-        <v>475</v>
-      </c>
-      <c r="B22" s="124" t="s">
-        <v>364</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>497</v>
-      </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
         <v>475</v>
       </c>
-      <c r="B23" s="124" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>358</v>
-      </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B23" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>497</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
         <v>475</v>
       </c>
-      <c r="B24" s="124" t="s">
-        <v>366</v>
-      </c>
-      <c r="C24" s="124" t="s">
-        <v>496</v>
-      </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
         <v>475</v>
       </c>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>496</v>
+      </c>
+      <c r="D25" s="82"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="82" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="124" t="s">
+      <c r="C26" s="82" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="7" t="s">
+      <c r="D26" s="82"/>
+      <c r="E26" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="B52" s="91" t="s">
         <v>451</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C52" s="91" t="s">
         <v>452</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D52" s="91" t="s">
         <v>453</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="84"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83" t="s">
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="93"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="90"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92" t="s">
         <v>454</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E53" s="92" t="s">
         <v>455</v>
       </c>
-      <c r="F52" s="83" t="s">
+      <c r="F53" s="92" t="s">
         <v>456</v>
       </c>
-      <c r="G52" s="85" t="s">
+      <c r="G53" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="86"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="62" t="s">
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="95"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="90"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="H53" s="62" t="s">
+      <c r="H54" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="I53" s="62" t="s">
+      <c r="I54" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="J53" s="62" t="s">
+      <c r="J54" s="62" t="s">
         <v>461</v>
       </c>
-      <c r="K53" s="63" t="s">
+      <c r="K54" s="63" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="74" t="s">
+    <row r="55" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B55" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C55" s="100" t="s">
         <v>465</v>
       </c>
-      <c r="D54" s="64">
+      <c r="D55" s="64">
         <v>1</v>
       </c>
-      <c r="E54" s="65" t="s">
+      <c r="E55" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="F54" s="65" t="s">
+      <c r="F55" s="65" t="s">
         <v>467</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="J54" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="K54" s="67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="66">
-        <v>2</v>
-      </c>
-      <c r="E55" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>472</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>468</v>
@@ -12777,38 +13820,54 @@
         <v>468</v>
       </c>
       <c r="I55" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="J55" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="K55" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A56" s="97"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="66">
+        <v>2</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="I56" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="J55" s="66" t="s">
+      <c r="J56" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="K55" s="67">
+      <c r="K56" s="67">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="68" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="68" t="s">
         <v>475</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B57" s="66" t="s">
         <v>476</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C57" s="69" t="s">
         <v>477</v>
       </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="67"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="68"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
       <c r="D57" s="66"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
@@ -13000,50 +14059,63 @@
       <c r="J71" s="66"/>
       <c r="K71" s="67"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="70"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="72"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="68"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="67"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="70"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{D3CF16AA-4C8F-46DE-B6E8-7B478BA51EE8}"/>
-    <hyperlink ref="B15" location="'ESC-CAL-0001-Eficiencia '!A1" display="ESC-CAL-0001-Eficiencia " xr:uid="{A8FFF9D8-1EEA-4BCD-BF50-058430896D44}"/>
-    <hyperlink ref="B16" location="'ESC-CAL-0002-Eficiencia '!A1" display="ESC-CAL-0002-Eficiencia " xr:uid="{1E7D511F-2298-4F15-8EA7-04CAF31CDD71}"/>
-    <hyperlink ref="B17" location="'ESC-CAL-0001-Capacidad-Auditado'!A1" display="ESC-CAL-0001-Capacidad-Auditado " xr:uid="{32B150D1-D772-4BC7-BFEB-029AB8BBFEDC}"/>
-    <hyperlink ref="B19" location="'ESC-CAL-0002-Capacidad-Auditado'!A1" display="ESC-CAL-0002-Capacidad-Auditado " xr:uid="{E4F5CC51-BF37-4A36-9562-5DBE529F90BE}"/>
+    <hyperlink ref="B16" location="'ESC-CAL-0001-Eficiencia '!A1" display="ESC-CAL-0001-Eficiencia " xr:uid="{A8FFF9D8-1EEA-4BCD-BF50-058430896D44}"/>
+    <hyperlink ref="B17" location="'ESC-CAL-0002-Eficiencia '!A1" display="ESC-CAL-0002-Eficiencia " xr:uid="{1E7D511F-2298-4F15-8EA7-04CAF31CDD71}"/>
+    <hyperlink ref="B18" location="'ESC-CAL-0001-Capacidad-Auditado'!A1" display="ESC-CAL-0001-Capacidad-Auditado " xr:uid="{32B150D1-D772-4BC7-BFEB-029AB8BBFEDC}"/>
+    <hyperlink ref="B20" location="'ESC-CAL-0002-Capacidad-Auditado'!A1" display="ESC-CAL-0002-Capacidad-Auditado " xr:uid="{E4F5CC51-BF37-4A36-9562-5DBE529F90BE}"/>
     <hyperlink ref="B11" location="'ESC-CAL-0001-Portabilidad '!A1" display="ESC-CAL-0001-Portabilidad " xr:uid="{2D414E4A-023A-4247-96EF-C28A694FE58E}"/>
     <hyperlink ref="B13" location="'ESC-CAL-0002-Portabilidad '!A1" display="ESC-CAL-0002-Portabilidad " xr:uid="{A48F8537-15B4-4566-B736-6628A0619E12}"/>
     <hyperlink ref="B9" location="'ESC-CAL-0002-Disponibilidad'!A1" display="ESC-CAL-0002-Disponibilidad" xr:uid="{6F3625B4-00B9-4EF2-9502-74C5B5440667}"/>
@@ -13056,7 +14128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F898A-4F79-4D7B-BFD9-EBDB26504837}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -13191,7 +14263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48A8D0-6B45-47E6-ADBC-4DDB12A9AAAF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -13288,7 +14360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEBE1B1-0415-4B82-B9C8-9670DD39FA39}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -13401,7 +14473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7182AAF1-7280-4416-ADC6-463D73FD1C1D}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -13490,7 +14562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C73B9-0AF9-4DE7-8A91-18F0737D3184}">
   <dimension ref="A1:F154"/>
   <sheetViews>
@@ -14018,7 +15090,7 @@
       <c r="B42" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="77" t="s">
         <v>561</v>
       </c>
       <c r="F42" s="12"/>
@@ -14371,7 +15443,7 @@
       <c r="C71" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="126"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
@@ -15397,205 +16469,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4312C-FDD2-4340-821F-754A5F40D4E6}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="27.28515625" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>2</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B2:I2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Caracterizacion!A125" display="Caracterizacion" xr:uid="{4143DDCD-F253-4DA2-9589-F65532AB8B6D}"/>
-    <hyperlink ref="B1" location="TacticasEstrategias!A1" display="Tacticas Estrategias" xr:uid="{21B92A26-0E6C-4D35-9C3B-D1C478E9C863}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/ExtraClase/EMNA-Documentacion.xlsx
+++ b/ExtraClase/EMNA-Documentacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F07B94-6E78-4F4E-AC7A-06176CD58E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904820FA-D277-4977-A49B-5EF6DEF442BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de Contenido" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="879">
   <si>
     <t>Trade off de QA</t>
   </si>
@@ -2511,18 +2511,9 @@
     <t>Tipo Componente Construcción</t>
   </si>
   <si>
-    <t>UCOBet</t>
-  </si>
-  <si>
     <t>Desarrollo propio</t>
   </si>
   <si>
-    <t>Componente que contiene toda la lógica de negocio necesaria para la aplicación UCOBet.</t>
-  </si>
-  <si>
-    <t>Este componente es de vital importancia, dado que es la razón de ser del negocio y producto….</t>
-  </si>
-  <si>
     <t>Core</t>
   </si>
   <si>
@@ -2532,27 +2523,9 @@
     <t>Componente adoptado</t>
   </si>
   <si>
-    <t>Componente que permite realizar la gestión de toda la información que requiere la aplicación UCOBet.</t>
-  </si>
-  <si>
-    <t>Este componente apuntará a que se pueda garantizar una correcta gestión de la información de forma centralizada, segura, confiable y consistente. &lt;Explicar cómo este componente, ayuda alcanzar ciertas restricciones de diseño identificadas&gt;.</t>
-  </si>
-  <si>
     <t>Genérico</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrollo propio </t>
-  </si>
-  <si>
-    <t>Componente que contiene toda la logica de negocio necesaria para la aplicación EMNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este Componente es de vital importancia, dado que es la razon de ser del negocio y producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core </t>
-  </si>
-  <si>
     <t xml:space="preserve">Como usuario, no debo de poder invirar a otros usuarios si no tengo los permios necesarios, porque de lo contrario personas no autorisadas podrian aceder al sistema y aprevecharse de sus funcionalidades de forma maliciosa lo que podria traer problemas legales </t>
   </si>
   <si>
@@ -3607,6 +3580,126 @@
   </si>
   <si>
     <t>Los mensajes podrían ser vulnerables a ataques criptográficos, especialmente a medida que las tecnologías de ataque evolucionen.</t>
+  </si>
+  <si>
+    <t>Componente que contiene toda la lógica de negocio necesaria para la aplicación EMNA.</t>
+  </si>
+  <si>
+    <t>Componente que permite realizar la gestión de toda la información que requiere la aplicación EMNA.</t>
+  </si>
+  <si>
+    <t>Este componente es de vital importancia, dado que es la razón de ser del negocio y producto. Define el funcionamiento central de la aplicación y gestiona la lógica de negocio crítica.</t>
+  </si>
+  <si>
+    <t>Este componente garantiza una gestión centralizada, segura, confiable y consistente de la información, apoyando las restricciones de diseño relacionadas con integridad y disponibilidad de datos.</t>
+  </si>
+  <si>
+    <t>Almacena y gestiona claves de cifrado utilizadas en la aplicación.</t>
+  </si>
+  <si>
+    <t>Asegura la gestión segura de claves criptográficas, garantizando la integridad y confidencialidad de los datos cifrados. Fundamental para mantener la seguridad en la comunicación y almacenamiento de datos sensibles.</t>
+  </si>
+  <si>
+    <t>Almacena y gestiona parámetros de configuración y ajuste para la aplicación.</t>
+  </si>
+  <si>
+    <t>Permite la personalización y ajuste fino del comportamiento de la aplicación sin necesidad de modificar el código fuente. Facilita la administración centralizada de configuraciones.</t>
+  </si>
+  <si>
+    <t>Gestiona la recolección, almacenamiento y visualización de logs y eventos.</t>
+  </si>
+  <si>
+    <t>Esencial para el monitoreo y la depuración de la aplicación. Facilita la detección y resolución de problemas, además de cumplir con las auditorías y requisitos de seguridad.</t>
+  </si>
+  <si>
+    <t>Gestiona y almacena mensajes y notificaciones para usuarios y técnicos.</t>
+  </si>
+  <si>
+    <t>Proporciona una forma centralizada de manejar la comunicación y notificaciones, mejorando la experiencia del usuario y la eficiencia en la resolución de problemas.</t>
+  </si>
+  <si>
+    <t>Sistema que gestiona la autenticación y autorización de usuarios.</t>
+  </si>
+  <si>
+    <t>Garantiza que solo los usuarios autenticados y autorizados puedan acceder a ciertas funcionalidades y datos. Esencial para mantener la seguridad y privacidad de la aplicación.</t>
+  </si>
+  <si>
+    <t>Envia notificaciones a los usuarios sobre eventos importantes o actualizaciones.</t>
+  </si>
+  <si>
+    <t>Mejora la comunicación con los usuarios, manteniéndolos informados sobre eventos relevantes y mejorando la experiencia del usuario.</t>
+  </si>
+  <si>
+    <t>Almacena datos en memoria para mejorar el rendimiento y reducir tiempos de acceso.</t>
+  </si>
+  <si>
+    <t>Mejora la velocidad de acceso a datos frecuentemente utilizados y reduce la carga sobre el sistema de base de datos, optimizando el rendimiento de la aplicación.</t>
+  </si>
+  <si>
+    <t>Controla la tasa de peticiones para evitar sobrecarga en el sistema.</t>
+  </si>
+  <si>
+    <t>Protege la aplicación contra abusos y ataques de denegación de servicio al limitar el número de peticiones que un usuario puede realizar en un tiempo determinado.</t>
+  </si>
+  <si>
+    <t>WAF (Web Application Firewall)</t>
+  </si>
+  <si>
+    <t>Protege la aplicación web contra amenazas y ataques externos.</t>
+  </si>
+  <si>
+    <t>Filtra y monitorea el tráfico HTTP/HTTPS para proteger la aplicación contra ataques como SQL Injection, Cross-Site Scripting (XSS) y otros tipos de amenazas.</t>
+  </si>
+  <si>
+    <t>CDN (Content Delivery Network)</t>
+  </si>
+  <si>
+    <t>Distribuye contenido a través de una red de servidores para mejorar la velocidad y disponibilidad.</t>
+  </si>
+  <si>
+    <t>Reduce la latencia y mejora la velocidad de carga al entregar contenido desde servidores geográficamente cercanos al usuario final, mejorando la experiencia del usuario.</t>
+  </si>
+  <si>
+    <t>Gestiona las solicitudes API, enrutamiento y autenticación.</t>
+  </si>
+  <si>
+    <t>Centraliza el control del acceso a las APIs, facilitando la gestión de solicitudes, autenticación, y monitoreo de servicios.</t>
+  </si>
+  <si>
+    <t>Facilita la comunicación entre microservicios, manejando aspectos como el enrutamiento y seguridad.</t>
+  </si>
+  <si>
+    <t>Mejora la observabilidad y gestión de servicios en un entorno de microservicios, asegurando la comunicación segura y eficiente entre los componentes de la aplicación.</t>
+  </si>
+  <si>
+    <t>Facilita la comunicación asíncrona entre diferentes componentes o servicios.</t>
+  </si>
+  <si>
+    <t>Permite la comunicación desacoplada entre servicios, mejorando la escalabilidad y resiliencia del sistema al manejar y enrutar mensajes entre componentes.</t>
+  </si>
+  <si>
+    <t>Blob Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blob Storge </t>
+  </si>
+  <si>
+    <t>Amazon S3: Desde $0.023 por GB para almacenamiento estándar, $0.0125 por GB para almacenamiento infrecuente</t>
+  </si>
+  <si>
+    <t>Azure Blob Storage: Desde $0.0184 por GB para almacenamiento en caliente, $0.01 por GB para almacenamiento en frío</t>
+  </si>
+  <si>
+    <t>Google Cloud Storage: Desde $0.020 por GB para almacenamiento estándar, $0.01 por GB para almacenamiento de clase de archivo</t>
+  </si>
+  <si>
+    <t>Backblaze B2, Wasabi, IBM Cloud Object Storage</t>
+  </si>
+  <si>
+    <t>Sistema de almacenamiento en la nube para datos no estructurados, como archivos, imágenes y videos.</t>
+  </si>
+  <si>
+    <t>Proporciona una solución escalable y económica para almacenar grandes volúmenes de datos no estructurados. Facilita el acceso y gestión de datos desde cualquier lugar, y se integra con otros servicios para mejorar la disponibilidad y redundancia de los datos.</t>
   </si>
 </sst>
 </file>
@@ -4137,7 +4230,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4337,9 +4430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4389,24 +4479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4427,6 +4499,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4493,6 +4583,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8775,7 +8871,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8843,11 +8939,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="77" t="s">
         <v>445</v>
       </c>
       <c r="B11"/>
@@ -8906,17 +9002,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -9461,13 +9557,13 @@
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="C42" s="77" t="s">
-        <v>561</v>
+      <c r="C42" s="76" t="s">
+        <v>552</v>
       </c>
       <c r="F42" s="12"/>
     </row>
@@ -9819,7 +9915,7 @@
       <c r="C71" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="84"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
@@ -10872,74 +10968,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11073,75 +11169,75 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -11306,74 +11402,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11539,74 +11635,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11772,74 +11868,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12002,74 +12098,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12232,74 +12328,74 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="120" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="119" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12459,68 +12555,68 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12641,74 +12737,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
-        <v>562</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="B2" s="110" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12847,7 +12943,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1BAC1E-9F0D-4DB6-B608-DA0639297998}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12859,317 +12955,334 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>680</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>718</v>
+      </c>
+      <c r="D3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>685</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>720</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>871</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>873</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>874</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>875</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
         <v>687</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B6" s="90" t="s">
+        <v>723</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>683</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>683</v>
+      </c>
+      <c r="E6" s="89" t="s">
         <v>688</v>
       </c>
-      <c r="C2" s="88" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>686</v>
-      </c>
-      <c r="E2" s="88" t="s">
+      <c r="B7" s="90" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>725</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>726</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B8" s="90" t="s">
+        <v>727</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>728</v>
+      </c>
+      <c r="D8" s="90" t="s">
         <v>726</v>
       </c>
-      <c r="C3" s="90" t="s">
-        <v>727</v>
-      </c>
-      <c r="D3" t="s">
-        <v>728</v>
-      </c>
-      <c r="E3" s="90" t="s">
+      <c r="E8" s="89" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="88" t="s">
+        <v>692</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>729</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>730</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>731</v>
+      </c>
+      <c r="E9" s="89" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
         <v>694</v>
       </c>
-      <c r="B4" s="90" t="s">
-        <v>729</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>730</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>731</v>
-      </c>
-      <c r="E4" s="90" t="s">
+      <c r="B10" s="89" t="s">
+        <v>732</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>733</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="E10" s="89" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
         <v>696</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>732</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>692</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>692</v>
-      </c>
-      <c r="E5" s="90" t="s">
+      <c r="B11" s="90" t="s">
+        <v>734</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>735</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>736</v>
+      </c>
+      <c r="E11" s="89" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
         <v>698</v>
       </c>
-      <c r="B6" s="91" t="s">
-        <v>733</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>734</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>735</v>
-      </c>
-      <c r="E6" s="90" t="s">
+      <c r="B12" s="90" t="s">
+        <v>737</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>738</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>739</v>
+      </c>
+      <c r="E12" s="89" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
         <v>700</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>736</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>737</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>735</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="B13" s="89" t="s">
+        <v>740</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>741</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>742</v>
+      </c>
+      <c r="E13" s="89" t="s">
         <v>701</v>
       </c>
-      <c r="B8" s="91" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="88" t="s">
+        <v>702</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>743</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>744</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>745</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>704</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>746</v>
+      </c>
+      <c r="C15" s="89" t="s">
         <v>738</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="D15" s="89" t="s">
         <v>739</v>
       </c>
-      <c r="D8" s="90" t="s">
-        <v>740</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
-        <v>703</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>741</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>742</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>762</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="E15" s="89" t="s">
         <v>705</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>743</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>744</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>745</v>
-      </c>
-      <c r="E10" s="90" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="B16" s="89" t="s">
+        <v>747</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>748</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>749</v>
+      </c>
+      <c r="E16" s="89" t="s">
         <v>707</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>746</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>747</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>748</v>
-      </c>
-      <c r="E11" s="90" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="B17" s="90" t="s">
+        <v>750</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="E17" s="89" t="s">
         <v>709</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>749</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>750</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>751</v>
-      </c>
-      <c r="E12" s="90" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
+        <v>754</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="87" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="B21" s="87" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="90" t="s">
+        <v>679</v>
+      </c>
+      <c r="B22" s="89" t="s">
         <v>711</v>
       </c>
-      <c r="B13" s="90" t="s">
-        <v>752</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>753</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>754</v>
-      </c>
-      <c r="E13" s="90" t="s">
+      <c r="C22" s="89" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
+        <v>680</v>
+      </c>
+      <c r="B23" s="89" t="s">
         <v>713</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>755</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>747</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>748</v>
-      </c>
-      <c r="E14" s="90" t="s">
+      <c r="C23" s="89" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="88" t="s">
+        <v>677</v>
+      </c>
+      <c r="B24" s="89" t="s">
         <v>715</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>756</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>757</v>
-      </c>
-      <c r="D15" s="90" t="s">
-        <v>758</v>
-      </c>
-      <c r="E15" s="90" t="s">
+      <c r="C24" s="89" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>717</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>759</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>760</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>761</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
-        <v>763</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
-        <v>719</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>458</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
-        <v>688</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>720</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
-        <v>689</v>
-      </c>
-      <c r="B22" s="90" t="s">
-        <v>722</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
-        <v>686</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>724</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -13215,74 +13328,74 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="119"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="116" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -13501,74 +13614,74 @@
       <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -13817,7 +13930,7 @@
         <f>E3/$E$16</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -13884,7 +13997,7 @@
         <f t="shared" ref="F6:F15" si="1">E6/$E$16</f>
         <v>0.12454212454212454</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -13929,7 +14042,7 @@
         <f t="shared" si="1"/>
         <v>8.7912087912087919E-2</v>
       </c>
-      <c r="G8" s="75"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -13974,7 +14087,7 @@
         <f t="shared" si="1"/>
         <v>8.7912087912087919E-2</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -14458,67 +14571,67 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>618</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>623</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B4" s="75" t="s">
         <v>624</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C4" s="75" t="s">
         <v>625</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D4" s="75" t="s">
         <v>626</v>
       </c>
-      <c r="E3" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="79" t="s">
-        <v>627</v>
-      </c>
-      <c r="I3" s="79" t="s">
+      <c r="E4" s="75">
+        <v>4</v>
+      </c>
+      <c r="F4" s="75">
         <v>5</v>
       </c>
-      <c r="J3" s="83" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>632</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>633</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>634</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>635</v>
-      </c>
-      <c r="E4" s="76">
+      <c r="G4" s="75">
+        <v>5</v>
+      </c>
+      <c r="H4" s="75">
         <v>4</v>
       </c>
-      <c r="F4" s="76">
-        <v>5</v>
-      </c>
-      <c r="G4" s="76">
-        <v>5</v>
-      </c>
-      <c r="H4" s="76">
-        <v>4</v>
-      </c>
-      <c r="I4" s="76">
+      <c r="I4" s="75">
         <v>4</v>
       </c>
       <c r="J4" s="7">
@@ -14528,65 +14641,65 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
-        <v>668</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>669</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>670</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>671</v>
-      </c>
-      <c r="E5" s="76">
+      <c r="A5" s="81" t="s">
+        <v>659</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>660</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="E5" s="75">
         <v>4</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="75">
         <v>5</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="75">
         <v>5</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="75">
         <v>4</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="75">
         <v>4</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="O5" s="80"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
-        <v>676</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>677</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>678</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>679</v>
-      </c>
-      <c r="E6" s="76">
+      <c r="A6" s="81" t="s">
+        <v>667</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>670</v>
+      </c>
+      <c r="E6" s="75">
         <v>5</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="75">
         <v>4</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="75">
         <v>4</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="75">
         <v>5</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="75">
         <v>4</v>
       </c>
       <c r="J6" s="7">
@@ -14596,31 +14709,31 @@
       <c r="K6"/>
     </row>
     <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>644</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>645</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>646</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>647</v>
-      </c>
-      <c r="E7" s="76">
+      <c r="A7" s="81" t="s">
+        <v>635</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>636</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>638</v>
+      </c>
+      <c r="E7" s="75">
         <v>4</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <v>4</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="75">
         <v>4</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="75">
         <v>4</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="75">
         <v>4</v>
       </c>
       <c r="J7" s="7">
@@ -14629,31 +14742,31 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>653</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>654</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>655</v>
-      </c>
-      <c r="E8" s="76">
+      <c r="A8" s="81" t="s">
+        <v>643</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>644</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>645</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>646</v>
+      </c>
+      <c r="E8" s="75">
         <v>4</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="75">
         <v>5</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="75">
         <v>4</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="75">
         <v>3</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="75">
         <v>4</v>
       </c>
       <c r="J8" s="7">
@@ -14662,31 +14775,31 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>660</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>661</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>663</v>
-      </c>
-      <c r="E9" s="76">
+      <c r="A9" s="81" t="s">
+        <v>651</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>653</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>654</v>
+      </c>
+      <c r="E9" s="75">
         <v>4</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="75">
         <v>5</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="75">
         <v>4</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="75">
         <v>4</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="75">
         <v>3</v>
       </c>
       <c r="J9" s="7">
@@ -14695,31 +14808,31 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
-        <v>664</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>665</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>666</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>667</v>
-      </c>
-      <c r="E10" s="76">
+      <c r="A10" s="81" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>656</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>658</v>
+      </c>
+      <c r="E10" s="75">
         <v>3</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <v>4</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="75">
         <v>5</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="75">
         <v>3</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="75">
         <v>4</v>
       </c>
       <c r="J10" s="7">
@@ -14728,31 +14841,31 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>681</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>682</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>683</v>
-      </c>
-      <c r="E11" s="76">
+      <c r="A11" s="81" t="s">
+        <v>671</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>672</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>674</v>
+      </c>
+      <c r="E11" s="75">
         <v>4</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <v>4</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="75">
         <v>4</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="75">
         <v>4</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="75">
         <v>3</v>
       </c>
       <c r="J11" s="7">
@@ -14761,31 +14874,31 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
-        <v>640</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>641</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>642</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>643</v>
-      </c>
-      <c r="E12" s="76">
+      <c r="A12" s="81" t="s">
+        <v>631</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>633</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>634</v>
+      </c>
+      <c r="E12" s="75">
         <v>4</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <v>4</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="75">
         <v>3</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H12" s="75">
         <v>4</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="75">
         <v>3</v>
       </c>
       <c r="J12" s="7">
@@ -14794,31 +14907,31 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
-        <v>672</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>673</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>674</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>675</v>
-      </c>
-      <c r="E13" s="76">
+      <c r="A13" s="81" t="s">
+        <v>663</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>664</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>665</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>666</v>
+      </c>
+      <c r="E13" s="75">
         <v>3</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="75">
         <v>4</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="75">
         <v>5</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="75">
         <v>3</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="75">
         <v>3</v>
       </c>
       <c r="J13" s="7">
@@ -14827,31 +14940,31 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
-        <v>656</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>657</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>658</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>659</v>
-      </c>
-      <c r="E14" s="76">
+      <c r="A14" s="81" t="s">
+        <v>647</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>648</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>649</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>650</v>
+      </c>
+      <c r="E14" s="75">
         <v>3</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <v>3</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="75">
         <v>4</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="75">
         <v>4</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="75">
         <v>3</v>
       </c>
       <c r="J14" s="7">
@@ -14860,31 +14973,31 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>637</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>638</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>639</v>
-      </c>
-      <c r="E15" s="76">
+      <c r="A15" s="81" t="s">
+        <v>627</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>629</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>630</v>
+      </c>
+      <c r="E15" s="75">
         <v>3</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="75">
         <v>4</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="75">
         <v>3</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="75">
         <v>3</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="75">
         <v>3</v>
       </c>
       <c r="J15" s="7">
@@ -14893,31 +15006,31 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
-        <v>648</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>649</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>650</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>651</v>
-      </c>
-      <c r="E16" s="76">
+      <c r="A16" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>640</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>641</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>642</v>
+      </c>
+      <c r="E16" s="75">
         <v>3</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="75">
         <v>3</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="75">
         <v>3</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="75">
         <v>4</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="75">
         <v>3</v>
       </c>
       <c r="J16" s="7">
@@ -14926,31 +15039,31 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
-        <v>628</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>629</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>630</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>631</v>
-      </c>
-      <c r="E17" s="76">
+      <c r="A17" s="81" t="s">
+        <v>619</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>620</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>621</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>622</v>
+      </c>
+      <c r="E17" s="75">
         <v>3</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="75">
         <v>3</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="75">
         <v>2</v>
       </c>
-      <c r="H17" s="76">
+      <c r="H17" s="75">
         <v>3</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="75">
         <v>3</v>
       </c>
       <c r="J17" s="7">
@@ -14991,931 +15104,931 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="91">
+        <v>1</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91">
+        <v>2</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="75" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91">
+        <v>3</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="75" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+    </row>
+    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91">
+        <v>4</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>501</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="75" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="91">
+        <v>5</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="75" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="91">
+        <v>6</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="75" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+    </row>
+    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="91">
+        <v>7</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>509</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>510</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="75" t="s">
+        <v>511</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91">
+        <v>8</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="75" t="s">
+        <v>514</v>
+      </c>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="91">
+        <v>9</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>515</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="75" t="s">
+        <v>517</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91">
+        <v>10</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="75" t="s">
+        <v>520</v>
+      </c>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="91">
+        <v>11</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>521</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>522</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="75" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="91">
+        <v>12</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>524</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>525</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+    </row>
+    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="91">
+        <v>13</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>527</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="75" t="s">
+        <v>529</v>
+      </c>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="91">
+        <v>14</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>530</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="D29" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="75" t="s">
+        <v>532</v>
+      </c>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+    </row>
+    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="91">
+        <v>15</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>533</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>534</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E31" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+    </row>
+    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="91">
+        <v>16</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>536</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>537</v>
+      </c>
+      <c r="D33" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="75" t="s">
+        <v>538</v>
+      </c>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="91">
+        <v>17</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>539</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>540</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E35" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="91">
+        <v>18</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>542</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>543</v>
+      </c>
+      <c r="D37" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E37" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="75" t="s">
+        <v>544</v>
+      </c>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+    </row>
+    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="91">
+        <v>19</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>545</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>546</v>
+      </c>
+      <c r="D39" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E39" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="75" t="s">
+        <v>547</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+    </row>
+    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91">
+        <v>20</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>548</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>549</v>
+      </c>
+      <c r="D41" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E41" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="75" t="s">
+        <v>550</v>
+      </c>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+    </row>
+    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="91">
+        <v>21</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>565</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>566</v>
+      </c>
+      <c r="D43" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E43" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="91">
+        <v>22</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>568</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="D45" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E45" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="75" t="s">
+        <v>570</v>
+      </c>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+    </row>
+    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="91">
+        <v>23</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>571</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="D47" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="91"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="75" t="s">
         <v>573</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>563</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>564</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>565</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92">
-        <v>1</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>499</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>500</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E3" s="92" t="s">
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+    </row>
+    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="91">
+        <v>24</v>
+      </c>
+      <c r="B49" s="91" t="s">
+        <v>574</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="D49" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E49" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+    </row>
+    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="91">
+        <v>25</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>577</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="D51" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E51" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="91"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="91">
+        <v>26</v>
+      </c>
+      <c r="B53" s="91" t="s">
+        <v>580</v>
+      </c>
+      <c r="C53" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D53" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E53" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="75" t="s">
+        <v>582</v>
+      </c>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="91">
+        <v>27</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="C55" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="D55" s="91" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="76" t="s">
-        <v>501</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92">
-        <v>2</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>504</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>505</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E5" s="92" t="s">
+      <c r="E55" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="91"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="75" t="s">
+        <v>585</v>
+      </c>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+    </row>
+    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="91">
+        <v>28</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>586</v>
+      </c>
+      <c r="C57" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="D57" s="91" t="s">
+        <v>589</v>
+      </c>
+      <c r="E57" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="91"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="91">
+        <v>29</v>
+      </c>
+      <c r="B59" s="91" t="s">
+        <v>590</v>
+      </c>
+      <c r="C59" s="75" t="s">
+        <v>591</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E59" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="91">
+        <v>30</v>
+      </c>
+      <c r="B61" s="91" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" s="91" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="76" t="s">
-        <v>506</v>
-      </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
-        <v>3</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>560</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>507</v>
-      </c>
-      <c r="D7" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E7" s="92" t="s">
+      <c r="E61" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="91"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="75" t="s">
+        <v>595</v>
+      </c>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="91">
+        <v>31</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>596</v>
+      </c>
+      <c r="C63" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="D63" s="91" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="76" t="s">
-        <v>508</v>
-      </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-    </row>
-    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
-        <v>4</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>509</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>510</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E9" s="92" t="s">
+      <c r="E63" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="91"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+    </row>
+    <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="91">
+        <v>32</v>
+      </c>
+      <c r="B65" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="C65" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="D65" s="91" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="76" t="s">
-        <v>511</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
-        <v>5</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>566</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>513</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="76" t="s">
-        <v>514</v>
-      </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92">
-        <v>6</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>515</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>516</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="76" t="s">
-        <v>517</v>
-      </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92">
-        <v>7</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>518</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="76" t="s">
-        <v>520</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92">
-        <v>8</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>521</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>522</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="76" t="s">
-        <v>523</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92">
-        <v>9</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>524</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>525</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="76" t="s">
-        <v>526</v>
-      </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92">
-        <v>10</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>527</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>528</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="76" t="s">
-        <v>529</v>
-      </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="92">
-        <v>11</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>530</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>531</v>
-      </c>
-      <c r="D23" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="76" t="s">
-        <v>532</v>
-      </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="92">
-        <v>12</v>
-      </c>
-      <c r="B25" s="92" t="s">
-        <v>533</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>534</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="76" t="s">
-        <v>535</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92">
-        <v>13</v>
-      </c>
-      <c r="B27" s="92" t="s">
-        <v>536</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>537</v>
-      </c>
-      <c r="D27" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="76" t="s">
-        <v>538</v>
-      </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-    </row>
-    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92">
-        <v>14</v>
-      </c>
-      <c r="B29" s="92" t="s">
-        <v>539</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>540</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E29" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="76" t="s">
-        <v>541</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-    </row>
-    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92">
-        <v>15</v>
-      </c>
-      <c r="B31" s="92" t="s">
-        <v>542</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>543</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-    </row>
-    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92">
-        <v>16</v>
-      </c>
-      <c r="B33" s="92" t="s">
-        <v>545</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>546</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E33" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="76" t="s">
-        <v>547</v>
-      </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92">
-        <v>17</v>
-      </c>
-      <c r="B35" s="92" t="s">
-        <v>548</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>549</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E35" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="76" t="s">
-        <v>550</v>
-      </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="92">
-        <v>18</v>
-      </c>
-      <c r="B37" s="92" t="s">
-        <v>551</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>552</v>
-      </c>
-      <c r="D37" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E37" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="76" t="s">
-        <v>553</v>
-      </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-    </row>
-    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="92">
-        <v>19</v>
-      </c>
-      <c r="B39" s="92" t="s">
-        <v>554</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>555</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E39" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="76" t="s">
-        <v>556</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-    </row>
-    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92">
-        <v>20</v>
-      </c>
-      <c r="B41" s="92" t="s">
-        <v>557</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>558</v>
-      </c>
-      <c r="D41" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E41" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="76" t="s">
-        <v>559</v>
-      </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-    </row>
-    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="92">
-        <v>21</v>
-      </c>
-      <c r="B43" s="92" t="s">
-        <v>574</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>575</v>
-      </c>
-      <c r="D43" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E43" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="76" t="s">
-        <v>576</v>
-      </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92">
-        <v>22</v>
-      </c>
-      <c r="B45" s="92" t="s">
-        <v>577</v>
-      </c>
-      <c r="C45" s="76" t="s">
-        <v>578</v>
-      </c>
-      <c r="D45" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E45" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="76" t="s">
-        <v>579</v>
-      </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-    </row>
-    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="92">
-        <v>23</v>
-      </c>
-      <c r="B47" s="92" t="s">
-        <v>580</v>
-      </c>
-      <c r="C47" s="76" t="s">
-        <v>581</v>
-      </c>
-      <c r="D47" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E47" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="76" t="s">
-        <v>582</v>
-      </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-    </row>
-    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="92">
-        <v>24</v>
-      </c>
-      <c r="B49" s="92" t="s">
-        <v>583</v>
-      </c>
-      <c r="C49" s="76" t="s">
-        <v>584</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E49" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="76" t="s">
-        <v>585</v>
-      </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-    </row>
-    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="92">
-        <v>25</v>
-      </c>
-      <c r="B51" s="92" t="s">
-        <v>586</v>
-      </c>
-      <c r="C51" s="76" t="s">
-        <v>587</v>
-      </c>
-      <c r="D51" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E51" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="76" t="s">
-        <v>588</v>
-      </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92">
-        <v>26</v>
-      </c>
-      <c r="B53" s="92" t="s">
-        <v>589</v>
-      </c>
-      <c r="C53" s="76" t="s">
-        <v>590</v>
-      </c>
-      <c r="D53" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E53" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="76" t="s">
-        <v>591</v>
-      </c>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="92">
-        <v>27</v>
-      </c>
-      <c r="B55" s="92" t="s">
-        <v>592</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>593</v>
-      </c>
-      <c r="D55" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E55" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="76" t="s">
-        <v>594</v>
-      </c>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-    </row>
-    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="92">
-        <v>28</v>
-      </c>
-      <c r="B57" s="92" t="s">
-        <v>595</v>
-      </c>
-      <c r="C57" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="D57" s="92" t="s">
-        <v>598</v>
-      </c>
-      <c r="E57" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="92"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="76" t="s">
-        <v>597</v>
-      </c>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="92">
-        <v>29</v>
-      </c>
-      <c r="B59" s="92" t="s">
-        <v>599</v>
-      </c>
-      <c r="C59" s="76" t="s">
-        <v>600</v>
-      </c>
-      <c r="D59" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E59" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="92"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="76" t="s">
+      <c r="E65" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="91"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="75" t="s">
         <v>601</v>
       </c>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="92">
-        <v>30</v>
-      </c>
-      <c r="B61" s="92" t="s">
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="91">
+        <v>33</v>
+      </c>
+      <c r="B67" s="91" t="s">
         <v>602</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C67" s="75" t="s">
         <v>603</v>
       </c>
-      <c r="D61" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E61" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="76" t="s">
+      <c r="D67" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E67" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="91"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="75" t="s">
         <v>604</v>
       </c>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="92">
-        <v>31</v>
-      </c>
-      <c r="B63" s="92" t="s">
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="91">
+        <v>34</v>
+      </c>
+      <c r="B69" s="91" t="s">
         <v>605</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="C69" s="75" t="s">
         <v>606</v>
       </c>
-      <c r="D63" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E63" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="92"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="76" t="s">
+      <c r="D69" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E69" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="91"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="75" t="s">
         <v>607</v>
       </c>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-    </row>
-    <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="92">
-        <v>32</v>
-      </c>
-      <c r="B65" s="92" t="s">
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="91">
+        <v>35</v>
+      </c>
+      <c r="B71" s="91" t="s">
         <v>608</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C71" s="75" t="s">
         <v>609</v>
       </c>
-      <c r="D65" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="E65" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="76" t="s">
+      <c r="D71" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="E71" s="91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="91"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="75" t="s">
         <v>610</v>
       </c>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-    </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="92">
-        <v>33</v>
-      </c>
-      <c r="B67" s="92" t="s">
-        <v>611</v>
-      </c>
-      <c r="C67" s="76" t="s">
-        <v>612</v>
-      </c>
-      <c r="D67" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E67" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="92"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="76" t="s">
-        <v>613</v>
-      </c>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-    </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="92">
-        <v>34</v>
-      </c>
-      <c r="B69" s="92" t="s">
-        <v>614</v>
-      </c>
-      <c r="C69" s="76" t="s">
-        <v>615</v>
-      </c>
-      <c r="D69" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E69" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="92"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="76" t="s">
-        <v>616</v>
-      </c>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-    </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="92">
-        <v>35</v>
-      </c>
-      <c r="B71" s="92" t="s">
-        <v>617</v>
-      </c>
-      <c r="C71" s="76" t="s">
-        <v>618</v>
-      </c>
-      <c r="D71" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="E71" s="92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="92"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="76" t="s">
-        <v>619</v>
-      </c>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15937,6 +16050,122 @@
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="D59:D60"/>
@@ -15961,122 +16190,6 @@
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{39E8F964-FA78-451F-AA99-AC92C3995828}"/>
@@ -16090,9 +16203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E1AA8F-4DD4-469C-B8A3-95712D9C086F}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16114,64 +16225,64 @@
         <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="K1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="92" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="94" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="94" t="s">
         <v>453</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="103"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102" t="s">
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95" t="s">
         <v>454</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="95" t="s">
         <v>456</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="105"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="62" t="s">
         <v>458</v>
       </c>
@@ -16189,22 +16300,22 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="85" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="86" t="s">
         <v>454</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="86" t="s">
         <v>455</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="86" t="s">
         <v>456</v>
       </c>
       <c r="G6" s="62" t="s">
@@ -16224,575 +16335,575 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
+        <v>755</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>756</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>757</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>758</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>759</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>838</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K7" s="75">
+        <v>7</v>
+      </c>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D8" s="75">
+        <v>1</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>762</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="G8" s="75" t="s">
         <v>764</v>
       </c>
-      <c r="D7" s="76">
+      <c r="H8" s="75" t="s">
+        <v>765</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>766</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K8" s="75">
+        <v>7</v>
+      </c>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="75">
         <v>1</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>765</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>766</v>
-      </c>
-      <c r="G7" s="76" t="s">
+      <c r="E9" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>559</v>
+      </c>
+      <c r="G9" s="75" t="s">
         <v>767</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H9" s="75" t="s">
         <v>768</v>
       </c>
-      <c r="I7" s="76" t="s">
-        <v>847</v>
-      </c>
-      <c r="J7" s="76" t="s">
+      <c r="I9" s="75" t="s">
         <v>769</v>
       </c>
-      <c r="K7" s="76">
+      <c r="J9" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K9" s="75">
+        <v>6</v>
+      </c>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75">
+        <v>2</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>560</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>770</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>771</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>772</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K10" s="75">
         <v>7</v>
       </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-    </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+    </row>
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>770</v>
-      </c>
-      <c r="D8" s="76">
+      <c r="B11" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>773</v>
+      </c>
+      <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E8" s="76" t="s">
-        <v>771</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>772</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="H8" s="76" t="s">
+      <c r="E11" s="75" t="s">
         <v>774</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="F11" s="75" t="s">
         <v>775</v>
       </c>
-      <c r="J8" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K8" s="76">
+      <c r="G11" s="75" t="s">
+        <v>776</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>777</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>778</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K11" s="75">
+        <v>5</v>
+      </c>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75">
+        <v>2</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>779</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>780</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>781</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>782</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>783</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K12" s="75">
         <v>7</v>
       </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="B9" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="76">
+      <c r="B13" s="75" t="s">
+        <v>784</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>785</v>
+      </c>
+      <c r="D13" s="75">
         <v>1</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>567</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>568</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>776</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>777</v>
-      </c>
-      <c r="I9" s="76" t="s">
-        <v>778</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K9" s="76">
+      <c r="E13" s="75" t="s">
+        <v>786</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>787</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>788</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>789</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>790</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K13" s="75">
+        <v>6</v>
+      </c>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75">
+        <v>2</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>791</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>792</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>793</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>794</v>
+      </c>
+      <c r="I14" s="75" t="s">
+        <v>795</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>796</v>
+      </c>
+      <c r="K14" s="75">
+        <v>1</v>
+      </c>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75">
+        <v>3</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>809</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>810</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>811</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>812</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>813</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K15" s="75">
         <v>7</v>
       </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76">
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>797</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>798</v>
+      </c>
+      <c r="D16" s="75">
+        <v>1</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>799</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>801</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>802</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>803</v>
+      </c>
+      <c r="J16" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K16" s="75">
+        <v>6</v>
+      </c>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75">
         <v>2</v>
       </c>
-      <c r="E10" s="76" t="s">
-        <v>569</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>570</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>779</v>
-      </c>
-      <c r="H10" s="76" t="s">
-        <v>780</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>781</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K10" s="76">
+      <c r="E17" s="75" t="s">
+        <v>804</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>805</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>806</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>807</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>808</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>796</v>
+      </c>
+      <c r="K17" s="75">
+        <v>1</v>
+      </c>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75">
+        <v>3</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>809</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>810</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>811</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>812</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>813</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K18" s="75">
+        <v>7</v>
+      </c>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+    </row>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>814</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>815</v>
+      </c>
+      <c r="D19" s="75">
+        <v>1</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>816</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>817</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>818</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>819</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>820</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K19" s="75">
         <v>6</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-    </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75">
+        <v>2</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>828</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>829</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>830</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>831</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>832</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K20" s="75">
+        <v>7</v>
+      </c>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>782</v>
-      </c>
-      <c r="D11" s="76">
+      <c r="B21" s="75" t="s">
+        <v>821</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>822</v>
+      </c>
+      <c r="D21" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="76" t="s">
-        <v>783</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>784</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>785</v>
-      </c>
-      <c r="H11" s="76" t="s">
-        <v>786</v>
-      </c>
-      <c r="I11" s="76" t="s">
-        <v>787</v>
-      </c>
-      <c r="J11" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K11" s="76">
-        <v>5</v>
-      </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76">
+      <c r="E21" s="75" t="s">
+        <v>823</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>824</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>825</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>826</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>827</v>
+      </c>
+      <c r="J21" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K21" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75">
         <v>2</v>
       </c>
-      <c r="E12" s="76" t="s">
-        <v>788</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>789</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>790</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>791</v>
-      </c>
-      <c r="I12" s="76" t="s">
-        <v>792</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K12" s="76">
+      <c r="E22" s="75" t="s">
+        <v>833</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>834</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>835</v>
+      </c>
+      <c r="H22" s="75" t="s">
+        <v>836</v>
+      </c>
+      <c r="I22" s="75" t="s">
+        <v>837</v>
+      </c>
+      <c r="J22" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="K22" s="75">
         <v>7</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>793</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>794</v>
-      </c>
-      <c r="D13" s="76">
-        <v>1</v>
-      </c>
-      <c r="E13" s="76" t="s">
-        <v>795</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>796</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>797</v>
-      </c>
-      <c r="H13" s="76" t="s">
-        <v>798</v>
-      </c>
-      <c r="I13" s="76" t="s">
-        <v>799</v>
-      </c>
-      <c r="J13" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K13" s="76">
-        <v>6</v>
-      </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76">
-        <v>2</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>800</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>801</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>802</v>
-      </c>
-      <c r="H14" s="76" t="s">
-        <v>803</v>
-      </c>
-      <c r="I14" s="76" t="s">
-        <v>804</v>
-      </c>
-      <c r="J14" s="76" t="s">
-        <v>805</v>
-      </c>
-      <c r="K14" s="76">
-        <v>1</v>
-      </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76">
-        <v>3</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>818</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>819</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>820</v>
-      </c>
-      <c r="H15" s="76" t="s">
-        <v>821</v>
-      </c>
-      <c r="I15" s="76" t="s">
-        <v>822</v>
-      </c>
-      <c r="J15" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K15" s="76">
-        <v>7</v>
-      </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>463</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>806</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>807</v>
-      </c>
-      <c r="D16" s="76">
-        <v>1</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>808</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>809</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>810</v>
-      </c>
-      <c r="H16" s="76" t="s">
-        <v>811</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>812</v>
-      </c>
-      <c r="J16" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K16" s="76">
-        <v>6</v>
-      </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76">
-        <v>2</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>813</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>814</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>815</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>816</v>
-      </c>
-      <c r="I17" s="76" t="s">
-        <v>817</v>
-      </c>
-      <c r="J17" s="76" t="s">
-        <v>805</v>
-      </c>
-      <c r="K17" s="76">
-        <v>1</v>
-      </c>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76">
-        <v>3</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>818</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>819</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>820</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>821</v>
-      </c>
-      <c r="I18" s="76" t="s">
-        <v>822</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K18" s="76">
-        <v>7</v>
-      </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>463</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>823</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>824</v>
-      </c>
-      <c r="D19" s="76">
-        <v>1</v>
-      </c>
-      <c r="E19" s="76" t="s">
-        <v>825</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>826</v>
-      </c>
-      <c r="G19" s="76" t="s">
-        <v>827</v>
-      </c>
-      <c r="H19" s="76" t="s">
-        <v>828</v>
-      </c>
-      <c r="I19" s="76" t="s">
-        <v>829</v>
-      </c>
-      <c r="J19" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K19" s="76">
-        <v>6</v>
-      </c>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76">
-        <v>2</v>
-      </c>
-      <c r="E20" s="76" t="s">
-        <v>837</v>
-      </c>
-      <c r="F20" s="76" t="s">
-        <v>838</v>
-      </c>
-      <c r="G20" s="76" t="s">
-        <v>839</v>
-      </c>
-      <c r="H20" s="76" t="s">
-        <v>840</v>
-      </c>
-      <c r="I20" s="76" t="s">
-        <v>841</v>
-      </c>
-      <c r="J20" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K20" s="76">
-        <v>7</v>
-      </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
-        <v>463</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>830</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>831</v>
-      </c>
-      <c r="D21" s="76">
-        <v>1</v>
-      </c>
-      <c r="E21" s="76" t="s">
-        <v>832</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>833</v>
-      </c>
-      <c r="G21" s="76" t="s">
-        <v>834</v>
-      </c>
-      <c r="H21" s="76" t="s">
-        <v>835</v>
-      </c>
-      <c r="I21" s="76" t="s">
-        <v>836</v>
-      </c>
-      <c r="J21" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K21" s="76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76">
-        <v>2</v>
-      </c>
-      <c r="E22" s="76" t="s">
-        <v>842</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>843</v>
-      </c>
-      <c r="G22" s="76" t="s">
-        <v>844</v>
-      </c>
-      <c r="H22" s="76" t="s">
-        <v>845</v>
-      </c>
-      <c r="I22" s="76" t="s">
-        <v>846</v>
-      </c>
-      <c r="J22" s="76" t="s">
-        <v>769</v>
-      </c>
-      <c r="K22" s="76">
-        <v>7</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
+      <c r="A28" s="75"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
+      <c r="A29" s="75"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
+      <c r="A30" s="75"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="75"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
+      <c r="A32" s="75"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
+      <c r="A33" s="75"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -16800,54 +16911,54 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="92" t="s">
         <v>450</v>
       </c>
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="94" t="s">
         <v>451</v>
       </c>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="94" t="s">
         <v>453</v>
       </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="103"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="96"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="100"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102" t="s">
+      <c r="A51" s="93"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95" t="s">
         <v>454</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="F51" s="102" t="s">
+      <c r="F51" s="95" t="s">
         <v>456</v>
       </c>
-      <c r="G51" s="104" t="s">
+      <c r="G51" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
-      <c r="K51" s="105"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="98"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="100"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
       <c r="G52" s="62" t="s">
         <v>458</v>
       </c>
@@ -16865,13 +16976,13 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="99" t="s">
         <v>463</v>
       </c>
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="101" t="s">
         <v>464</v>
       </c>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="103" t="s">
         <v>465</v>
       </c>
       <c r="D53" s="64">
@@ -16900,9 +17011,9 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="98"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="66">
         <v>2</v>
       </c>
@@ -17157,6 +17268,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:K51"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -17165,17 +17287,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:K4"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -17191,19 +17302,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F898A-4F79-4D7B-BFD9-EBDB26504837}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
@@ -17211,108 +17314,343 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="127" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="127" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="127" t="s">
         <v>370</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="127" t="s">
         <v>480</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="127" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>839</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>841</v>
+      </c>
+      <c r="E3" s="89" t="s">
         <v>474</v>
       </c>
-      <c r="F3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>370</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>480</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="B9" s="64" t="s">
+      <c r="F3" s="89" t="s">
         <v>483</v>
       </c>
-      <c r="C9" s="65" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="B4" s="89" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="C4" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>842</v>
+      </c>
+      <c r="E4" s="89" t="s">
         <v>474</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F4" s="89" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="375" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>487</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="E10" s="64" t="s">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>685</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>843</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>844</v>
+      </c>
+      <c r="E5" s="89" t="s">
         <v>474</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>491</v>
+      <c r="F5" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>872</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>877</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>878</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>687</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>845</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>846</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>689</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>847</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>848</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>691</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>849</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>850</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>692</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>851</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>852</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>694</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>853</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>854</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>696</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>855</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>856</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>698</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>857</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>858</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>859</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>860</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>861</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>862</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>863</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>864</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>704</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>865</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>866</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>706</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>867</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>868</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>708</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>869</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>870</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -17566,7 +17904,7 @@
         <v>364</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>357</v>
@@ -17592,7 +17930,7 @@
         <v>366</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>361</v>

--- a/ExtraClase/EMNA-Documentacion.xlsx
+++ b/ExtraClase/EMNA-Documentacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sergio_arias8941_uco_net_co/Documents/Desktop/Universidad/uco-2024-2/IS2/IS2/ExtraClase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904820FA-D277-4977-A49B-5EF6DEF442BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{904820FA-D277-4977-A49B-5EF6DEF442BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{236ED57E-9682-4A7A-A1BF-28702BFC9E30}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-1620" windowWidth="28920" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de Contenido" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="865">
   <si>
     <t>Trade off de QA</t>
   </si>
@@ -1722,34 +1722,13 @@
     <t xml:space="preserve">Es muy importnte que el usuario pueda encriptar los datos con su respectivo diario, porque si se llegara a presentar una noveda de que se filtre el mensaje, puede ocasionar problemas legales </t>
   </si>
   <si>
-    <t xml:space="preserve">Como usuario, debo poder desencriptar el mensaje que me envian,lo que me permite tener la seguiroda adicional que me brinda el sistema </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es muy importante que el usuario pueda desencriptar el mensaje sin presentar errores en el proceso, porque de lo contrario no se podra acceder al mensaje y de esta manera se convierte en un reto tecnico que debe ser evaluado como se resolvera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POC: prueba de conceptos / Spike </t>
-  </si>
-  <si>
     <t xml:space="preserve">Es muy importente que los usuarios no permitidos no puedan aceder al sistema porque de lo contrario lo podran usar con malas intenciones lo que podria traer futuros problemas legales </t>
   </si>
   <si>
-    <t xml:space="preserve">El sistema se deberia de actualizar autimaticamente, lo que permite que tenga la ultima version sin necesidad de intervenciones manuales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES muy importante que el usuario pueda descargar actualizaciones de forma automatica , porque de lo contrario no se podaria utilizar las ultimas verciones sin necesidad de intervenciones manuales y que se puedan presentar brechas de seguridad  que sean corregidas </t>
-  </si>
-  <si>
     <t>FC-0001</t>
   </si>
   <si>
     <t>FC-0002</t>
-  </si>
-  <si>
-    <t>FC-0003</t>
-  </si>
-  <si>
-    <t>FC-0004</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo </t>
@@ -2260,24 +2239,12 @@
     <t>Adoptar el Principio de Responsabilidad Única</t>
   </si>
   <si>
-    <t>Aplicar Encapsulación</t>
-  </si>
-  <si>
     <t>Implementar Tolerancia a Fallos</t>
   </si>
   <si>
-    <t>Aplicar Desacoplamiento</t>
-  </si>
-  <si>
     <t>Incorporar Pruebas Automatizadas</t>
   </si>
   <si>
-    <t>Diseñar con Modularidad</t>
-  </si>
-  <si>
-    <t>Crear el sistema en módulos independientes mejora la mantenibilidad y reutilización del código, facilitando su integración y despliegue.</t>
-  </si>
-  <si>
     <t>Seguir Prácticas de Código Limpio (Clean Code)</t>
   </si>
   <si>
@@ -2293,13 +2260,7 @@
     <t>Cada componente del sistema debe tener una única responsabilidad y razón para cambiar, mejorando la modularidad y mantenibilidad.</t>
   </si>
   <si>
-    <t>Encapsular los detalles internos y exponer solo interfaces necesarias facilita el mantenimiento y evolución del sistema.</t>
-  </si>
-  <si>
     <t>Incorporar mecanismos para manejar fallos y errores asegura la disponibilidad y resiliencia del sistema, evitando caídas completas.</t>
-  </si>
-  <si>
-    <t>Reducir las dependencias entre componentes facilita la evolución y mantenimiento del software, promoviendo flexibilidad y reutilización.</t>
   </si>
   <si>
     <t>Las pruebas automatizadas permiten detectar errores tempranamente y asegurar que el sistema siga funcionando correctamente tras cambios en el código.</t>
@@ -2530,9 +2491,6 @@
   </si>
   <si>
     <t>Como usuario, debo poder encriptar mis mensajes para poder enviar el mensaje de forma segura , lo que me pemrite tener la seguirdad adicional que me brinda el sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historias de Usuario </t>
   </si>
   <si>
     <t>Como usuario final, necesito que mis mensajes sean cifrados automáticamente al enviarlos, para asegurar que nadie más pueda acceder a su contenido.</t>
@@ -3797,8 +3755,9 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3931,11 +3890,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -4222,15 +4181,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4452,9 +4426,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4476,8 +4447,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4499,24 +4494,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4584,17 +4561,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="22" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="4" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -7149,7 +7124,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7628,7 +7603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361250320"/>
@@ -7687,7 +7662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361256080"/>
@@ -7729,7 +7704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7766,7 +7741,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8871,7 +8846,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8884,67 +8859,65 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="39" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>489</v>
-      </c>
+      <c r="A10" s="128"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B11"/>
     </row>
@@ -8987,32 +8960,32 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -9025,7 +8998,6 @@
     <hyperlink ref="A14" location="RestriccionesTecnicas!A1" display="Restricciones Tecnicas " xr:uid="{E9BB16F9-6A9E-4871-AA6E-22D047375EE8}"/>
     <hyperlink ref="A20" location="AlternativaSolucionSelecc!A1" display="Alternativa de Solucion  Seleccionada" xr:uid="{AA444825-5E3A-4194-9D21-A73A8AAD0A74}"/>
     <hyperlink ref="A21" location="TacticasEstrategias!A1" display="Tacticas Estrategias" xr:uid="{39CB7AEA-71C0-4D59-86DB-D19AE6DA3AA3}"/>
-    <hyperlink ref="A10" location="HistoriasUsuario!A1" display="Historias de Usuario " xr:uid="{FA0AA978-00BA-4289-ADC9-E9C89FB3638B}"/>
     <hyperlink ref="A25" location="Elecciones!A1" display="Elecciones  " xr:uid="{3B377A59-6A47-4FFC-924C-34F4E5A642B4}"/>
     <hyperlink ref="A26" location="'Provedores Componentes'!A1" display="Provedores Componentes" xr:uid="{3B24E8FF-73DC-4B5B-A04A-E708E817B7EF}"/>
   </hyperlinks>
@@ -9084,7 +9056,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>29</v>
@@ -9557,13 +9529,13 @@
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C42" s="76" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F42" s="12"/>
     </row>
@@ -9915,7 +9887,7 @@
       <c r="C71" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="83"/>
+      <c r="D71" s="129"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
@@ -10185,10 +10157,10 @@
     </row>
     <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B94" s="57" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C94" s="58" t="s">
         <v>56</v>
@@ -10199,10 +10171,10 @@
     </row>
     <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B95" s="57" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C95" s="58" t="s">
         <v>57</v>
@@ -10213,7 +10185,7 @@
     </row>
     <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B96" s="57" t="s">
         <v>283</v>
@@ -10225,7 +10197,7 @@
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B97" s="57" t="s">
         <v>284</v>
@@ -10237,7 +10209,7 @@
     </row>
     <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B98" s="57" t="s">
         <v>285</v>
@@ -10249,7 +10221,7 @@
     </row>
     <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B99" s="57" t="s">
         <v>286</v>
@@ -10261,7 +10233,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B100" s="57" t="s">
         <v>287</v>
@@ -10273,7 +10245,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B101" s="57" t="s">
         <v>288</v>
@@ -10285,7 +10257,7 @@
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B102" s="57" t="s">
         <v>66</v>
@@ -10297,7 +10269,7 @@
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B103" s="57" t="s">
         <v>289</v>
@@ -10309,7 +10281,7 @@
     </row>
     <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B104" s="57" t="s">
         <v>65</v>
@@ -10321,7 +10293,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B105" s="57" t="s">
         <v>290</v>
@@ -10333,7 +10305,7 @@
     </row>
     <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B106" s="57" t="s">
         <v>291</v>
@@ -10345,7 +10317,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B107" s="57" t="s">
         <v>292</v>
@@ -10357,7 +10329,7 @@
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B108" s="57" t="s">
         <v>293</v>
@@ -10369,7 +10341,7 @@
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B109" s="57" t="s">
         <v>294</v>
@@ -10381,7 +10353,7 @@
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B110" s="57" t="s">
         <v>295</v>
@@ -10393,7 +10365,7 @@
     </row>
     <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B111" s="57" t="s">
         <v>296</v>
@@ -10405,7 +10377,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B112" s="57" t="s">
         <v>297</v>
@@ -10417,7 +10389,7 @@
     </row>
     <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B113" s="57" t="s">
         <v>298</v>
@@ -10429,7 +10401,7 @@
     </row>
     <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B114" s="57" t="s">
         <v>299</v>
@@ -10441,7 +10413,7 @@
     </row>
     <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B115" s="57" t="s">
         <v>300</v>
@@ -10453,7 +10425,7 @@
     </row>
     <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B116" s="57" t="s">
         <v>301</v>
@@ -10465,7 +10437,7 @@
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B117" s="57" t="s">
         <v>308</v>
@@ -10477,7 +10449,7 @@
     </row>
     <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B118" s="57" t="s">
         <v>302</v>
@@ -10489,7 +10461,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B119" s="57" t="s">
         <v>303</v>
@@ -10501,7 +10473,7 @@
     </row>
     <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B120" s="57" t="s">
         <v>304</v>
@@ -10513,7 +10485,7 @@
     </row>
     <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B121" s="57" t="s">
         <v>305</v>
@@ -10525,7 +10497,7 @@
     </row>
     <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B122" s="57" t="s">
         <v>306</v>
@@ -10537,7 +10509,7 @@
     </row>
     <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B123" s="57" t="s">
         <v>307</v>
@@ -10549,7 +10521,7 @@
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B124" s="59" t="s">
         <v>309</v>
@@ -10564,7 +10536,7 @@
         <v>12</v>
       </c>
       <c r="B125" s="60" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C125" s="61" t="s">
         <v>58</v>
@@ -10961,81 +10933,81 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="107" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
+      <c r="B3" s="108" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11080,7 +11052,7 @@
         <v>177</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>49</v>
@@ -11089,7 +11061,7 @@
         <v>178</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>50</v>
@@ -11109,7 +11081,7 @@
         <v>181</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>49</v>
@@ -11118,7 +11090,7 @@
         <v>182</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>50</v>
@@ -11162,82 +11134,82 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="111" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="113"/>
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -11282,7 +11254,7 @@
         <v>184</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>49</v>
@@ -11291,7 +11263,7 @@
         <v>185</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>50</v>
@@ -11311,7 +11283,7 @@
         <v>187</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>49</v>
@@ -11320,7 +11292,7 @@
         <v>188</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>50</v>
@@ -11340,7 +11312,7 @@
         <v>190</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>49</v>
@@ -11349,7 +11321,7 @@
         <v>191</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>50</v>
@@ -11395,81 +11367,81 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>441</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="B3" s="114" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11514,7 +11486,7 @@
         <v>159</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>49</v>
@@ -11543,7 +11515,7 @@
         <v>163</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>49</v>
@@ -11563,7 +11535,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>48</v>
@@ -11572,13 +11544,13 @@
         <v>166</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>161</v>
@@ -11628,81 +11600,81 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>441</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="113" t="s">
-        <v>425</v>
-      </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="B3" s="114" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11747,7 +11719,7 @@
         <v>168</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>49</v>
@@ -11776,7 +11748,7 @@
         <v>172</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>49</v>
@@ -11796,7 +11768,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>48</v>
@@ -11805,13 +11777,13 @@
         <v>175</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>170</v>
@@ -11861,81 +11833,81 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11980,7 +11952,7 @@
         <v>129</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>130</v>
@@ -12009,7 +11981,7 @@
         <v>134</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>135</v>
@@ -12038,7 +12010,7 @@
         <v>139</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>140</v>
@@ -12091,81 +12063,81 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12210,7 +12182,7 @@
         <v>144</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>145</v>
@@ -12239,7 +12211,7 @@
         <v>149</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>145</v>
@@ -12268,7 +12240,7 @@
         <v>153</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>154</v>
@@ -12321,81 +12293,81 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12431,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>104</v>
@@ -12440,7 +12412,7 @@
         <v>105</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>69</v>
@@ -12449,7 +12421,7 @@
         <v>106</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>50</v>
@@ -12469,7 +12441,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>69</v>
@@ -12478,7 +12450,7 @@
         <v>110</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>50</v>
@@ -12489,7 +12461,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>111</v>
@@ -12498,7 +12470,7 @@
         <v>112</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>69</v>
@@ -12507,7 +12479,7 @@
         <v>113</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>50</v>
@@ -12548,75 +12520,75 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12655,7 +12627,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -12672,7 +12644,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -12689,7 +12661,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -12737,74 +12709,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>553</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="111" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12849,7 +12821,7 @@
         <v>116</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>117</v>
@@ -12858,7 +12830,7 @@
         <v>118</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>50</v>
@@ -12878,7 +12850,7 @@
         <v>121</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>117</v>
@@ -12887,7 +12859,7 @@
         <v>122</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>50</v>
@@ -12907,7 +12879,7 @@
         <v>125</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>126</v>
@@ -12916,7 +12888,7 @@
         <v>127</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>50</v>
@@ -12945,7 +12917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1BAC1E-9F0D-4DB6-B608-DA0639297998}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12955,280 +12929,280 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>703</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>708</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>857</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>859</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>860</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>861</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>673</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>711</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>712</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>677</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>713</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>714</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>712</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
         <v>678</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B9" s="89" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>716</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>717</v>
+      </c>
+      <c r="E9" s="88" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="87" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
         <v>680</v>
       </c>
-      <c r="D2" s="87" t="s">
-        <v>677</v>
-      </c>
-      <c r="E2" s="87" t="s">
+      <c r="B10" s="88" t="s">
+        <v>718</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>719</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="E10" s="88" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>682</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>717</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>718</v>
-      </c>
-      <c r="D3" t="s">
-        <v>719</v>
-      </c>
-      <c r="E3" s="89" t="s">
+      <c r="B11" s="89" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>721</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>722</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="B12" s="89" t="s">
+        <v>723</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>724</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>725</v>
+      </c>
+      <c r="E12" s="88" t="s">
         <v>685</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>720</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>721</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>722</v>
-      </c>
-      <c r="E4" s="89" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
-        <v>871</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>873</v>
-      </c>
-      <c r="C5" s="128" t="s">
-        <v>874</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>875</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="B13" s="88" t="s">
+        <v>726</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>728</v>
+      </c>
+      <c r="E13" s="88" t="s">
         <v>687</v>
       </c>
-      <c r="B6" s="90" t="s">
-        <v>723</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>683</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>683</v>
-      </c>
-      <c r="E6" s="89" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="B14" s="88" t="s">
+        <v>729</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>730</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>731</v>
+      </c>
+      <c r="E14" s="88" t="s">
         <v>689</v>
       </c>
-      <c r="B7" s="90" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>690</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>732</v>
+      </c>
+      <c r="C15" s="88" t="s">
         <v>724</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="D15" s="88" t="s">
         <v>725</v>
       </c>
-      <c r="D7" s="90" t="s">
-        <v>726</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="E15" s="88" t="s">
         <v>691</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>727</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>728</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>726</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
         <v>692</v>
       </c>
-      <c r="B9" s="90" t="s">
-        <v>729</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>730</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>731</v>
-      </c>
-      <c r="E9" s="89" t="s">
+      <c r="B16" s="88" t="s">
+        <v>733</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>735</v>
+      </c>
+      <c r="E16" s="88" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="87" t="s">
         <v>694</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>732</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>733</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>753</v>
-      </c>
-      <c r="E10" s="89" t="s">
+      <c r="B17" s="89" t="s">
+        <v>736</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>737</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>738</v>
+      </c>
+      <c r="E17" s="88" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
-        <v>696</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>734</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>735</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>736</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
-        <v>698</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>737</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>738</v>
-      </c>
-      <c r="D12" s="89" t="s">
-        <v>739</v>
-      </c>
-      <c r="E12" s="89" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
-        <v>700</v>
-      </c>
-      <c r="B13" s="89" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="87" t="s">
         <v>740</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>741</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>742</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
-        <v>702</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>743</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>744</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>745</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
-        <v>704</v>
-      </c>
-      <c r="B15" s="90" t="s">
-        <v>746</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>738</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>739</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
-        <v>706</v>
-      </c>
-      <c r="B16" s="89" t="s">
-        <v>747</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>748</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>749</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
-        <v>708</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>750</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>751</v>
-      </c>
-      <c r="D17" s="89" t="s">
-        <v>752</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
-        <v>754</v>
       </c>
       <c r="B18" s="2">
         <v>9</v>
@@ -13242,47 +13216,47 @@
       <c r="E18" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
-        <v>710</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>458</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>459</v>
+      <c r="A21" s="86" t="s">
+        <v>696</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
-        <v>679</v>
-      </c>
-      <c r="B22" s="89" t="s">
-        <v>711</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>712</v>
+      <c r="A22" s="89" t="s">
+        <v>665</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>697</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
-        <v>680</v>
-      </c>
-      <c r="B23" s="89" t="s">
-        <v>713</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>714</v>
+      <c r="A23" s="87" t="s">
+        <v>666</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>699</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
-        <v>677</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>715</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>716</v>
+      <c r="A24" s="87" t="s">
+        <v>663</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>701</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -13321,81 +13295,81 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -13440,7 +13414,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>69</v>
@@ -13469,7 +13443,7 @@
         <v>90</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>69</v>
@@ -13478,7 +13452,7 @@
         <v>91</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>50</v>
@@ -13498,7 +13472,7 @@
         <v>93</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>69</v>
@@ -13507,7 +13481,7 @@
         <v>94</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>50</v>
@@ -13527,7 +13501,7 @@
         <v>96</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>71</v>
@@ -13536,7 +13510,7 @@
         <v>97</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>50</v>
@@ -13556,7 +13530,7 @@
         <v>99</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>83</v>
@@ -13607,81 +13581,81 @@
         <v>61</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="110" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
+      <c r="B3" s="111" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="106" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
+      <c r="B5" s="107" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -13717,25 +13691,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>50</v>
@@ -13746,16 +13720,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>71</v>
@@ -13781,10 +13755,10 @@
         <v>48</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>69</v>
@@ -13813,7 +13787,7 @@
         <v>78</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>71</v>
@@ -13842,7 +13816,7 @@
         <v>82</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>83</v>
@@ -13851,7 +13825,7 @@
         <v>84</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>50</v>
@@ -14571,21 +14545,21 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E3" s="78" t="s">
         <v>36</v>
@@ -14597,27 +14571,27 @@
         <v>60</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="I3" s="78" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="E4" s="75">
         <v>4</v>
@@ -14642,16 +14616,16 @@
     </row>
     <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="E5" s="75">
         <v>4</v>
@@ -14676,16 +14650,16 @@
     </row>
     <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="E6" s="75">
         <v>5</v>
@@ -14710,16 +14684,16 @@
     </row>
     <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E7" s="75">
         <v>4</v>
@@ -14743,16 +14717,16 @@
     </row>
     <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E8" s="75">
         <v>4</v>
@@ -14776,16 +14750,16 @@
     </row>
     <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="E9" s="75">
         <v>4</v>
@@ -14809,16 +14783,16 @@
     </row>
     <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="E10" s="75">
         <v>3</v>
@@ -14842,16 +14816,16 @@
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E11" s="75">
         <v>4</v>
@@ -14875,16 +14849,16 @@
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="E12" s="75">
         <v>4</v>
@@ -14908,16 +14882,16 @@
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="E13" s="75">
         <v>3</v>
@@ -14941,16 +14915,16 @@
     </row>
     <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E14" s="75">
         <v>3</v>
@@ -14974,16 +14948,16 @@
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="E15" s="75">
         <v>3</v>
@@ -15007,16 +14981,16 @@
     </row>
     <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="E16" s="75">
         <v>3</v>
@@ -15040,16 +15014,16 @@
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="E17" s="75">
         <v>3</v>
@@ -15105,930 +15079,930 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="E2" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="75" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="92">
+        <v>2</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="75" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
+        <v>3</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+    </row>
+    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92">
+        <v>4</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="75" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="92">
+        <v>5</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11" s="75" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="D11" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="75" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92">
+        <v>6</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="75" t="s">
         <v>493</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="D13" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="75" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="75" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91">
-        <v>2</v>
-      </c>
-      <c r="B5" s="91" t="s">
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+    </row>
+    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="92">
+        <v>7</v>
+      </c>
+      <c r="B15" s="92" t="s">
         <v>495</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C15" s="75" t="s">
         <v>496</v>
       </c>
-      <c r="D5" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="75" t="s">
+      <c r="D15" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="75" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
-        <v>3</v>
-      </c>
-      <c r="B7" s="91" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="92">
+        <v>8</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>498</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92">
+        <v>9</v>
+      </c>
+      <c r="B19" s="92" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="75" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92">
+        <v>10</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>505</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="75" t="s">
+        <v>506</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="92">
+        <v>11</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>508</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="75" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="92">
+        <v>12</v>
+      </c>
+      <c r="B25" s="92" t="s">
+        <v>510</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>511</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="75" t="s">
+        <v>512</v>
+      </c>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+    </row>
+    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="92">
+        <v>13</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>513</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>514</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="75" t="s">
+        <v>515</v>
+      </c>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="92">
+        <v>14</v>
+      </c>
+      <c r="B29" s="92" t="s">
+        <v>516</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>517</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="75" t="s">
+        <v>518</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+    </row>
+    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="92">
+        <v>15</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>519</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>520</v>
+      </c>
+      <c r="D31" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="75" t="s">
+        <v>521</v>
+      </c>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+    </row>
+    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="92">
+        <v>16</v>
+      </c>
+      <c r="B33" s="92" t="s">
+        <v>522</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E33" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="75" t="s">
+        <v>524</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92">
+        <v>17</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="92">
+        <v>18</v>
+      </c>
+      <c r="B37" s="92" t="s">
+        <v>528</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>529</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E37" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+    </row>
+    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="92">
+        <v>19</v>
+      </c>
+      <c r="B39" s="92" t="s">
+        <v>531</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>532</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E39" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+    </row>
+    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="92">
+        <v>20</v>
+      </c>
+      <c r="B41" s="92" t="s">
+        <v>534</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="75" t="s">
+        <v>536</v>
+      </c>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+    </row>
+    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="92">
+        <v>21</v>
+      </c>
+      <c r="B43" s="92" t="s">
         <v>551</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="75" t="s">
-        <v>499</v>
-      </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-    </row>
-    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
-        <v>4</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>501</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E9" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="75" t="s">
-        <v>502</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
-        <v>5</v>
-      </c>
-      <c r="B11" s="91" t="s">
+      <c r="C43" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="92">
+        <v>22</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>554</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>555</v>
+      </c>
+      <c r="D45" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E45" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="75" t="s">
+        <v>556</v>
+      </c>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+    </row>
+    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="92">
+        <v>23</v>
+      </c>
+      <c r="B47" s="92" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="75" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="75" t="s">
-        <v>505</v>
-      </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
-        <v>6</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="75" t="s">
-        <v>508</v>
-      </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
-        <v>7</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>509</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>510</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="75" t="s">
-        <v>511</v>
-      </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
-        <v>8</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>512</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>513</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="75" t="s">
-        <v>514</v>
-      </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
-        <v>9</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>515</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>516</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="75" t="s">
-        <v>517</v>
-      </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
-        <v>10</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>518</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>519</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E21" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="75" t="s">
-        <v>520</v>
-      </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
-        <v>11</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>521</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>522</v>
-      </c>
-      <c r="D23" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="75" t="s">
-        <v>523</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
-        <v>12</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>524</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>525</v>
-      </c>
-      <c r="D25" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E25" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="75" t="s">
-        <v>526</v>
-      </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
-        <v>13</v>
-      </c>
-      <c r="B27" s="91" t="s">
-        <v>527</v>
-      </c>
-      <c r="C27" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="D27" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="75" t="s">
-        <v>529</v>
-      </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-    </row>
-    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
-        <v>14</v>
-      </c>
-      <c r="B29" s="91" t="s">
-        <v>530</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>531</v>
-      </c>
-      <c r="D29" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="75" t="s">
-        <v>532</v>
-      </c>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-    </row>
-    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
-        <v>15</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>533</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>534</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E31" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="75" t="s">
-        <v>535</v>
-      </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-    </row>
-    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
-        <v>16</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>536</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>537</v>
-      </c>
-      <c r="D33" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="75" t="s">
-        <v>538</v>
-      </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
-        <v>17</v>
-      </c>
-      <c r="B35" s="91" t="s">
-        <v>539</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>540</v>
-      </c>
-      <c r="D35" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="75" t="s">
-        <v>541</v>
-      </c>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
-        <v>18</v>
-      </c>
-      <c r="B37" s="91" t="s">
-        <v>542</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>543</v>
-      </c>
-      <c r="D37" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="75" t="s">
-        <v>544</v>
-      </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-    </row>
-    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
-        <v>19</v>
-      </c>
-      <c r="B39" s="91" t="s">
-        <v>545</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>546</v>
-      </c>
-      <c r="D39" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E39" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="75" t="s">
-        <v>547</v>
-      </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-    </row>
-    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
-        <v>20</v>
-      </c>
-      <c r="B41" s="91" t="s">
-        <v>548</v>
-      </c>
-      <c r="C41" s="75" t="s">
-        <v>549</v>
-      </c>
-      <c r="D41" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E41" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="75" t="s">
-        <v>550</v>
-      </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-    </row>
-    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
-        <v>21</v>
-      </c>
-      <c r="B43" s="91" t="s">
+      <c r="C47" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="D47" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E47" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="75" t="s">
+        <v>559</v>
+      </c>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+    </row>
+    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="92">
+        <v>24</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>560</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="D49" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E49" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+    </row>
+    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="92">
+        <v>25</v>
+      </c>
+      <c r="B51" s="92" t="s">
+        <v>563</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="D51" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E51" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="92"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="75" t="s">
         <v>565</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="92">
+        <v>26</v>
+      </c>
+      <c r="B53" s="92" t="s">
         <v>566</v>
       </c>
-      <c r="D43" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E43" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="75" t="s">
+      <c r="C53" s="75" t="s">
         <v>567</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
-        <v>22</v>
-      </c>
-      <c r="B45" s="91" t="s">
+      <c r="D53" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E53" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="75" t="s">
         <v>568</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="92">
+        <v>27</v>
+      </c>
+      <c r="B55" s="92" t="s">
         <v>569</v>
       </c>
-      <c r="D45" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E45" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="75" t="s">
+      <c r="C55" s="75" t="s">
         <v>570</v>
       </c>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-    </row>
-    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
-        <v>23</v>
-      </c>
-      <c r="B47" s="91" t="s">
+      <c r="D55" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E55" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="75" t="s">
         <v>571</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+    </row>
+    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="92">
+        <v>28</v>
+      </c>
+      <c r="B57" s="92" t="s">
         <v>572</v>
       </c>
-      <c r="D47" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="75" t="s">
+      <c r="C57" s="75" t="s">
         <v>573</v>
       </c>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-    </row>
-    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
-        <v>24</v>
-      </c>
-      <c r="B49" s="91" t="s">
+      <c r="D57" s="92" t="s">
+        <v>575</v>
+      </c>
+      <c r="E57" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="75" t="s">
         <v>574</v>
       </c>
-      <c r="C49" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="D49" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E49" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="75" t="s">
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="92">
+        <v>29</v>
+      </c>
+      <c r="B59" s="92" t="s">
         <v>576</v>
       </c>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-    </row>
-    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
-        <v>25</v>
-      </c>
-      <c r="B51" s="91" t="s">
+      <c r="C59" s="75" t="s">
         <v>577</v>
       </c>
-      <c r="C51" s="75" t="s">
+      <c r="D59" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E59" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="92"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="D51" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E51" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="75" t="s">
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="92">
+        <v>30</v>
+      </c>
+      <c r="B61" s="92" t="s">
         <v>579</v>
       </c>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
-        <v>26</v>
-      </c>
-      <c r="B53" s="91" t="s">
+      <c r="C61" s="75" t="s">
         <v>580</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="D61" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E61" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="92"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="75" t="s">
         <v>581</v>
       </c>
-      <c r="D53" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E53" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="75" t="s">
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="92">
+        <v>31</v>
+      </c>
+      <c r="B63" s="92" t="s">
         <v>582</v>
       </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
-        <v>27</v>
-      </c>
-      <c r="B55" s="91" t="s">
+      <c r="C63" s="75" t="s">
         <v>583</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="D63" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E63" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="92"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="75" t="s">
         <v>584</v>
       </c>
-      <c r="D55" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E55" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="75" t="s">
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+    </row>
+    <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="92">
+        <v>32</v>
+      </c>
+      <c r="B65" s="92" t="s">
         <v>585</v>
       </c>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-    </row>
-    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
-        <v>28</v>
-      </c>
-      <c r="B57" s="91" t="s">
+      <c r="C65" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="D65" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E65" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="75" t="s">
         <v>587</v>
       </c>
-      <c r="D57" s="91" t="s">
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="92">
+        <v>33</v>
+      </c>
+      <c r="B67" s="92" t="s">
+        <v>588</v>
+      </c>
+      <c r="C67" s="75" t="s">
         <v>589</v>
       </c>
-      <c r="E57" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="75" t="s">
-        <v>588</v>
-      </c>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
-        <v>29</v>
-      </c>
-      <c r="B59" s="91" t="s">
+      <c r="D67" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E67" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="75" t="s">
         <v>590</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="92">
+        <v>34</v>
+      </c>
+      <c r="B69" s="92" t="s">
         <v>591</v>
       </c>
-      <c r="D59" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E59" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="75" t="s">
+      <c r="C69" s="75" t="s">
         <v>592</v>
       </c>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
-        <v>30</v>
-      </c>
-      <c r="B61" s="91" t="s">
+      <c r="D69" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E69" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="92"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="75" t="s">
         <v>593</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="92">
+        <v>35</v>
+      </c>
+      <c r="B71" s="92" t="s">
         <v>594</v>
       </c>
-      <c r="D61" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="75" t="s">
+      <c r="C71" s="75" t="s">
         <v>595</v>
       </c>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="91">
-        <v>31</v>
-      </c>
-      <c r="B63" s="91" t="s">
+      <c r="D71" s="92" t="s">
+        <v>479</v>
+      </c>
+      <c r="E71" s="92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="92"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="75" t="s">
         <v>596</v>
       </c>
-      <c r="C63" s="75" t="s">
-        <v>597</v>
-      </c>
-      <c r="D63" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E63" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="75" t="s">
-        <v>598</v>
-      </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-    </row>
-    <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91">
-        <v>32</v>
-      </c>
-      <c r="B65" s="91" t="s">
-        <v>599</v>
-      </c>
-      <c r="C65" s="75" t="s">
-        <v>600</v>
-      </c>
-      <c r="D65" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E65" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="75" t="s">
-        <v>601</v>
-      </c>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-    </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91">
-        <v>33</v>
-      </c>
-      <c r="B67" s="91" t="s">
-        <v>602</v>
-      </c>
-      <c r="C67" s="75" t="s">
-        <v>603</v>
-      </c>
-      <c r="D67" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E67" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="75" t="s">
-        <v>604</v>
-      </c>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-    </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="91">
-        <v>34</v>
-      </c>
-      <c r="B69" s="91" t="s">
-        <v>605</v>
-      </c>
-      <c r="C69" s="75" t="s">
-        <v>606</v>
-      </c>
-      <c r="D69" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E69" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="75" t="s">
-        <v>607</v>
-      </c>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-    </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="91">
-        <v>35</v>
-      </c>
-      <c r="B71" s="91" t="s">
-        <v>608</v>
-      </c>
-      <c r="C71" s="75" t="s">
-        <v>609</v>
-      </c>
-      <c r="D71" s="91" t="s">
-        <v>493</v>
-      </c>
-      <c r="E71" s="91" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="75" t="s">
-        <v>610</v>
-      </c>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16050,18 +16024,110 @@
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="D5:D6"/>
@@ -16086,110 +16152,18 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{39E8F964-FA78-451F-AA99-AC92C3995828}"/>
@@ -16225,145 +16199,145 @@
         <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="K1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>451</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>453</v>
-      </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="96"/>
+      <c r="A3" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95" t="s">
-        <v>454</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="F4" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="G4" s="97" t="s">
-        <v>457</v>
-      </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="62" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
-        <v>450</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>455</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>456</v>
+      <c r="A6" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>443</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="K6" s="63" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="D7" s="75">
         <v>1</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K7" s="75">
         <v>7</v>
@@ -16373,34 +16347,34 @@
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="D8" s="75">
         <v>1</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K8" s="75">
         <v>7</v>
@@ -16410,7 +16384,7 @@
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>52</v>
@@ -16422,22 +16396,22 @@
         <v>1</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G9" s="75" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K9" s="75">
         <v>6</v>
@@ -16453,22 +16427,22 @@
         <v>2</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G10" s="75" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K10" s="75">
         <v>7</v>
@@ -16478,34 +16452,34 @@
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B11" s="75" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="D11" s="75">
         <v>1</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="I11" s="75" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="J11" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K11" s="75">
         <v>5</v>
@@ -16521,22 +16495,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="I12" s="75" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="J12" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K12" s="75">
         <v>7</v>
@@ -16546,34 +16520,34 @@
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="D13" s="75">
         <v>1</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="G13" s="75" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="J13" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K13" s="75">
         <v>6</v>
@@ -16589,22 +16563,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F14" s="75" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="I14" s="75" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="J14" s="75" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="K14" s="75">
         <v>1</v>
@@ -16620,22 +16594,22 @@
         <v>3</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="F15" s="75" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="I15" s="75" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="J15" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K15" s="75">
         <v>7</v>
@@ -16645,34 +16619,34 @@
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="D16" s="75">
         <v>1</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="F16" s="75" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="I16" s="75" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="J16" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K16" s="75">
         <v>6</v>
@@ -16688,22 +16662,22 @@
         <v>2</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="F17" s="75" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="G17" s="75" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="H17" s="75" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="J17" s="75" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="K17" s="75">
         <v>1</v>
@@ -16719,22 +16693,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="G18" s="75" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K18" s="75">
         <v>7</v>
@@ -16744,34 +16718,34 @@
     </row>
     <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="D19" s="75">
         <v>1</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="H19" s="75" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="J19" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K19" s="75">
         <v>6</v>
@@ -16787,22 +16761,22 @@
         <v>2</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="H20" s="75" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="I20" s="75" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="J20" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K20" s="75">
         <v>7</v>
@@ -16812,34 +16786,34 @@
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="75" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="D21" s="75">
         <v>1</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F21" s="75" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="G21" s="75" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="H21" s="75" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K21" s="75">
         <v>6</v>
@@ -16853,22 +16827,22 @@
         <v>2</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="G22" s="75" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="H22" s="75" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="I22" s="75" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="K22" s="75">
         <v>7</v>
@@ -16907,133 +16881,133 @@
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="B50" s="101" t="s">
+        <v>438</v>
+      </c>
+      <c r="C50" s="101" t="s">
+        <v>439</v>
+      </c>
+      <c r="D50" s="101" t="s">
+        <v>440</v>
+      </c>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="103"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="100"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="E51" s="102" t="s">
+        <v>442</v>
+      </c>
+      <c r="F51" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="105"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="100"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="H52" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="I52" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="J52" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="K52" s="63" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="92" t="s">
+    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="93" t="s">
         <v>450</v>
       </c>
-      <c r="B50" s="94" t="s">
+      <c r="B53" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="C50" s="94" t="s">
+      <c r="C53" s="97" t="s">
         <v>452</v>
-      </c>
-      <c r="D50" s="94" t="s">
-        <v>453</v>
-      </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="96"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="93"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95" t="s">
-        <v>454</v>
-      </c>
-      <c r="E51" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="F51" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="G51" s="97" t="s">
-        <v>457</v>
-      </c>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="98"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="93"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="H52" s="62" t="s">
-        <v>459</v>
-      </c>
-      <c r="I52" s="62" t="s">
-        <v>460</v>
-      </c>
-      <c r="J52" s="62" t="s">
-        <v>461</v>
-      </c>
-      <c r="K52" s="63" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="99" t="s">
-        <v>463</v>
-      </c>
-      <c r="B53" s="101" t="s">
-        <v>464</v>
-      </c>
-      <c r="C53" s="103" t="s">
-        <v>465</v>
       </c>
       <c r="D53" s="64">
         <v>1</v>
       </c>
       <c r="E53" s="65" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="F53" s="65" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="J53" s="66" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="K53" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="104"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="66">
         <v>2</v>
       </c>
       <c r="E54" s="66" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="J54" s="66" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="K54" s="67">
         <v>1</v>
@@ -17041,13 +17015,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="68" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D55" s="66"/>
       <c r="E55" s="66"/>
@@ -17268,17 +17242,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:K51"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -17287,6 +17250,17 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:K4"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -17304,7 +17278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F898A-4F79-4D7B-BFD9-EBDB26504837}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17314,343 +17288,343 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
-        <v>478</v>
-      </c>
-      <c r="B2" s="127" t="s">
-        <v>479</v>
-      </c>
-      <c r="C2" s="127" t="s">
+      <c r="A2" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="127" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="127" t="s">
-        <v>480</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>481</v>
+      <c r="D2" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="88" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>825</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>827</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>826</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>828</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>671</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>829</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>830</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
+        <v>858</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>863</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>864</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>673</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>831</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
+        <v>675</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>833</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>834</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="88" t="s">
+        <v>677</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>835</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>836</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>837</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>838</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>839</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D11" s="88" t="s">
+        <v>840</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="88" t="s">
         <v>841</v>
       </c>
-      <c r="E3" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F3" s="89" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>484</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>840</v>
-      </c>
-      <c r="D4" s="89" t="s">
+      <c r="D12" s="88" t="s">
         <v>842</v>
       </c>
-      <c r="E4" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F4" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>685</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C5" s="89" t="s">
+      <c r="E12" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>843</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D13" s="88" t="s">
         <v>844</v>
       </c>
-      <c r="E5" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F5" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>872</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>877</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>878</v>
-      </c>
-      <c r="E6" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>687</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C7" s="89" t="s">
+      <c r="E13" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="88" t="s">
         <v>845</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="B14" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>846</v>
       </c>
-      <c r="E7" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
-        <v>689</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C8" s="89" t="s">
+      <c r="D14" s="88" t="s">
         <v>847</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="E14" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
         <v>848</v>
       </c>
-      <c r="E8" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
-        <v>691</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C9" s="89" t="s">
+      <c r="B15" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D15" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="E9" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="E15" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>851</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>852</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
         <v>692</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>851</v>
-      </c>
-      <c r="D10" s="89" t="s">
-        <v>852</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F10" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="B17" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>853</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>854</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
         <v>694</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>853</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>854</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
-        <v>696</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C12" s="89" t="s">
+      <c r="B18" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>855</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D18" s="88" t="s">
         <v>856</v>
       </c>
-      <c r="E12" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
-        <v>698</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>857</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>858</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F13" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
-        <v>859</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>860</v>
-      </c>
-      <c r="D14" s="89" t="s">
-        <v>861</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F14" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
-        <v>862</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>863</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>864</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>704</v>
-      </c>
-      <c r="B16" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" s="89" t="s">
-        <v>865</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>866</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F16" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
-        <v>706</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>867</v>
-      </c>
-      <c r="D17" s="89" t="s">
-        <v>868</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F17" s="89" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
-        <v>708</v>
-      </c>
-      <c r="B18" s="89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C18" s="89" t="s">
-        <v>869</v>
-      </c>
-      <c r="D18" s="89" t="s">
-        <v>870</v>
-      </c>
-      <c r="E18" s="89" t="s">
-        <v>474</v>
-      </c>
-      <c r="F18" s="89" t="s">
-        <v>486</v>
+      <c r="E18" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -17681,10 +17655,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>356</v>
@@ -17692,46 +17666,46 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -17761,7 +17735,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEBE1B1-0415-4B82-B9C8-9670DD39FA39}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17777,90 +17751,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>399</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>400</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>401</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>403</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>404</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>405</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -17874,7 +17824,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7182AAF1-7280-4416-ADC6-463D73FD1C1D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17901,55 +17851,27 @@
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>357</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/ExtraClase/EMNA-Documentacion.xlsx
+++ b/ExtraClase/EMNA-Documentacion.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sergio_arias8941_uco_net_co/Documents/Desktop/Universidad/uco-2024-2/IS2/IS2/ExtraClase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{904820FA-D277-4977-A49B-5EF6DEF442BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{236ED57E-9682-4A7A-A1BF-28702BFC9E30}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{904820FA-D277-4977-A49B-5EF6DEF442BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7184B4AC-C76D-4CDA-A37E-26AF24B34EBF}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-1620" windowWidth="28920" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de Contenido" sheetId="1" r:id="rId1"/>
-    <sheet name="Provedores Componentes" sheetId="28" r:id="rId2"/>
-    <sheet name="Elecciones" sheetId="27" r:id="rId3"/>
-    <sheet name="HistoriasUsuario" sheetId="26" r:id="rId4"/>
-    <sheet name="TacticasEstrategias" sheetId="23" r:id="rId5"/>
-    <sheet name="AlternativaSolucionSelecc" sheetId="22" r:id="rId6"/>
-    <sheet name="RestriccionesNegocio" sheetId="19" r:id="rId7"/>
-    <sheet name="RestriccionesTecnicas" sheetId="21" r:id="rId8"/>
-    <sheet name="FuncionalidadesCriticas " sheetId="20" r:id="rId9"/>
-    <sheet name="Caracterizacion" sheetId="7" r:id="rId10"/>
-    <sheet name="ESC-CAL-0001-Capacidad-Auditado" sheetId="17" r:id="rId11"/>
-    <sheet name="ESC-CAL-0002-Capacidad-Auditado" sheetId="18" r:id="rId12"/>
-    <sheet name="ESC-CAL-0001-Eficiencia " sheetId="15" r:id="rId13"/>
-    <sheet name="ESC-CAL-0002-Eficiencia " sheetId="16" r:id="rId14"/>
-    <sheet name="ESC-CAL-0001-Portabilidad " sheetId="13" r:id="rId15"/>
-    <sheet name="ESC-CAL-0002-Portabilidad " sheetId="14" r:id="rId16"/>
-    <sheet name="ESC-CAL-0001-Disponibilidad" sheetId="11" r:id="rId17"/>
-    <sheet name="ESC-CAL-0002-Disponibilidad" sheetId="25" r:id="rId18"/>
-    <sheet name="ESC-CAL-0001-ResilienciaFallo" sheetId="12" r:id="rId19"/>
-    <sheet name="ESC-CAL-0002-Seguridad" sheetId="10" r:id="rId20"/>
-    <sheet name="ESC-CAL-0001-Seguridad" sheetId="9" r:id="rId21"/>
-    <sheet name="Mapa Empatia" sheetId="5" r:id="rId22"/>
-    <sheet name="Trade off " sheetId="3" r:id="rId23"/>
+    <sheet name="Diagrama de paquetes " sheetId="30" r:id="rId2"/>
+    <sheet name="Diagrama de componentes " sheetId="29" r:id="rId3"/>
+    <sheet name="Provedores Componentes" sheetId="28" r:id="rId4"/>
+    <sheet name="Elecciones" sheetId="27" r:id="rId5"/>
+    <sheet name="HistoriasUsuario" sheetId="26" r:id="rId6"/>
+    <sheet name="TacticasEstrategias" sheetId="23" r:id="rId7"/>
+    <sheet name="AlternativaSolucionSelecc" sheetId="22" r:id="rId8"/>
+    <sheet name="RestriccionesNegocio" sheetId="19" r:id="rId9"/>
+    <sheet name="RestriccionesTecnicas" sheetId="21" r:id="rId10"/>
+    <sheet name="FuncionalidadesCriticas " sheetId="20" r:id="rId11"/>
+    <sheet name="Caracterizacion" sheetId="7" r:id="rId12"/>
+    <sheet name="ESC-CAL-0001-Capacidad-Auditado" sheetId="17" r:id="rId13"/>
+    <sheet name="ESC-CAL-0002-Capacidad-Auditado" sheetId="18" r:id="rId14"/>
+    <sheet name="ESC-CAL-0001-Eficiencia " sheetId="15" r:id="rId15"/>
+    <sheet name="ESC-CAL-0002-Eficiencia " sheetId="16" r:id="rId16"/>
+    <sheet name="ESC-CAL-0001-Portabilidad " sheetId="13" r:id="rId17"/>
+    <sheet name="ESC-CAL-0002-Portabilidad " sheetId="14" r:id="rId18"/>
+    <sheet name="ESC-CAL-0001-Disponibilidad" sheetId="11" r:id="rId19"/>
+    <sheet name="ESC-CAL-0002-Disponibilidad" sheetId="25" r:id="rId20"/>
+    <sheet name="ESC-CAL-0001-ResilienciaFallo" sheetId="12" r:id="rId21"/>
+    <sheet name="ESC-CAL-0002-Seguridad" sheetId="10" r:id="rId22"/>
+    <sheet name="ESC-CAL-0001-Seguridad" sheetId="9" r:id="rId23"/>
+    <sheet name="Mapa Empatia" sheetId="5" r:id="rId24"/>
+    <sheet name="Trade off " sheetId="3" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="878">
   <si>
     <t>Trade off de QA</t>
   </si>
@@ -3659,6 +3661,45 @@
   <si>
     <t>Proporciona una solución escalable y económica para almacenar grandes volúmenes de datos no estructurados. Facilita el acceso y gestión de datos desde cualquier lugar, y se integra con otros servicios para mejorar la disponibilidad y redundancia de los datos.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Diagrama de componentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de paquetes </t>
+  </si>
+  <si>
+    <t>Aplicación:</t>
+  </si>
+  <si>
+    <t>Componente:</t>
+  </si>
+  <si>
+    <t>Descripción componente:</t>
+  </si>
+  <si>
+    <t>Motivación diagrama:</t>
+  </si>
+  <si>
+    <t>Depende de</t>
+  </si>
+  <si>
+    <t>Es usado por</t>
+  </si>
+  <si>
+    <t>Descripción componente</t>
+  </si>
+  <si>
+    <t>Paquete padre</t>
+  </si>
+  <si>
+    <t>Paquete</t>
+  </si>
+  <si>
+    <t>Jerarquía</t>
+  </si>
+  <si>
+    <t>Descripción paquete</t>
+  </si>
 </sst>
 </file>
 
@@ -3667,7 +3708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3762,8 +3803,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3891,6 +3945,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -4204,7 +4264,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4410,7 +4470,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4453,26 +4512,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="22" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4494,6 +4538,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4561,9 +4623,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="22" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8338,6 +8435,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{20B912FF-7A15-4BCD-8F27-A1F642484F2B}" name="Tabla12" displayName="Tabla12" ref="A3:J17" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
   <autoFilter ref="A3:J17" xr:uid="{20B912FF-7A15-4BCD-8F27-A1F642484F2B}"/>
@@ -8843,163 +8944,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="171.28515625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="11"/>
+    <col min="2" max="2" width="84" style="11" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="136" t="s">
         <v>374</v>
       </c>
+      <c r="C1" s="136"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="137" t="s">
         <v>367</v>
       </c>
+      <c r="C2" s="137"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="137" t="s">
         <v>371</v>
       </c>
+      <c r="C3" s="137"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="137" t="s">
         <v>383</v>
       </c>
+      <c r="C4" s="137"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="B5" s="38"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="137" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="137"/>
+    </row>
+    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="137" t="s">
         <v>373</v>
       </c>
+      <c r="C7" s="137"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="138" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11"/>
+      <c r="A11" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12"/>
+        <v>352</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="B13"/>
+        <v>353</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>353</v>
-      </c>
+      <c r="A14" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="139"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>157</v>
+      <c r="A15" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="140" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="140" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>19</v>
+      <c r="A18" s="36" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>433</v>
+      <c r="A19" s="37" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>662</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A16" location="'Trade off '!A1" display="Trade off de QA" xr:uid="{DFE46B2E-658A-485B-9FB6-398B7CA63E1C}"/>
-    <hyperlink ref="A17" location="'Mapa Empatia'!A1" display="Mapa de Empatia " xr:uid="{E0A6560C-961F-4860-8ADD-F07043445D12}"/>
-    <hyperlink ref="A18" location="Caracterizacion!A1" display="Caractetizacion " xr:uid="{ED93357A-4E55-4391-83A1-412B54BBAC90}"/>
-    <hyperlink ref="A12" location="RestriccionesNegocio!A1" display="Restricciones de negocio " xr:uid="{0C18D978-5861-41CF-BD36-498C54063DDD}"/>
-    <hyperlink ref="A13" location="'FuncionalidadesCriticas '!A1" display="Funcionalidades criticas " xr:uid="{6B62D9FA-8469-430A-80EB-5235B982B64B}"/>
-    <hyperlink ref="A14" location="RestriccionesTecnicas!A1" display="Restricciones Tecnicas " xr:uid="{E9BB16F9-6A9E-4871-AA6E-22D047375EE8}"/>
-    <hyperlink ref="A20" location="AlternativaSolucionSelecc!A1" display="Alternativa de Solucion  Seleccionada" xr:uid="{AA444825-5E3A-4194-9D21-A73A8AAD0A74}"/>
-    <hyperlink ref="A21" location="TacticasEstrategias!A1" display="Tacticas Estrategias" xr:uid="{39CB7AEA-71C0-4D59-86DB-D19AE6DA3AA3}"/>
-    <hyperlink ref="A25" location="Elecciones!A1" display="Elecciones  " xr:uid="{3B377A59-6A47-4FFC-924C-34F4E5A642B4}"/>
-    <hyperlink ref="A26" location="'Provedores Componentes'!A1" display="Provedores Componentes" xr:uid="{3B24E8FF-73DC-4B5B-A04A-E708E817B7EF}"/>
+    <hyperlink ref="A15" location="'Trade off '!A1" display="Trade off de QA" xr:uid="{DFE46B2E-658A-485B-9FB6-398B7CA63E1C}"/>
+    <hyperlink ref="A16" location="'Mapa Empatia'!A1" display="Mapa de Empatia " xr:uid="{E0A6560C-961F-4860-8ADD-F07043445D12}"/>
+    <hyperlink ref="A17" location="Caracterizacion!A1" display="Caractetizacion " xr:uid="{ED93357A-4E55-4391-83A1-412B54BBAC90}"/>
+    <hyperlink ref="A11" location="RestriccionesNegocio!A1" display="Restricciones de negocio " xr:uid="{0C18D978-5861-41CF-BD36-498C54063DDD}"/>
+    <hyperlink ref="A12" location="'FuncionalidadesCriticas '!A1" display="Funcionalidades criticas " xr:uid="{6B62D9FA-8469-430A-80EB-5235B982B64B}"/>
+    <hyperlink ref="A13" location="RestriccionesTecnicas!A1" display="Restricciones Tecnicas " xr:uid="{E9BB16F9-6A9E-4871-AA6E-22D047375EE8}"/>
+    <hyperlink ref="A19" location="AlternativaSolucionSelecc!A1" display="Alternativa de Solucion  Seleccionada" xr:uid="{AA444825-5E3A-4194-9D21-A73A8AAD0A74}"/>
+    <hyperlink ref="A20" location="TacticasEstrategias!A1" display="Tacticas Estrategias" xr:uid="{39CB7AEA-71C0-4D59-86DB-D19AE6DA3AA3}"/>
+    <hyperlink ref="B11" location="Elecciones!A1" display="Elecciones  " xr:uid="{3B377A59-6A47-4FFC-924C-34F4E5A642B4}"/>
+    <hyperlink ref="B12" location="'Provedores Componentes'!A1" display="Provedores Componentes" xr:uid="{3B24E8FF-73DC-4B5B-A04A-E708E817B7EF}"/>
+    <hyperlink ref="B15" location="'Diagrama de componentes '!A1" display="Diagrama de componentes " xr:uid="{4D28DDDE-FA0F-4FB7-BBCA-53ADDEA1FA71}"/>
+    <hyperlink ref="B16" location="'Diagrama de paquetes '!A1" display="Diagrama de paquetes " xr:uid="{82047B9E-CBE2-41F3-A60A-CD1457D7E16F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9007,6 +9125,156 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEBE1B1-0415-4B82-B9C8-9670DD39FA39}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="57.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="57.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{6A42541E-163A-4AB6-9230-EDD17BB01BBA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7182AAF1-7280-4416-ADC6-463D73FD1C1D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="48.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{4C355981-037D-4F87-8591-C86281DDACC2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C73B9-0AF9-4DE7-8A91-18F0737D3184}">
   <dimension ref="A1:F154"/>
   <sheetViews>
@@ -9887,7 +10155,7 @@
       <c r="C71" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="129"/>
+      <c r="D71" s="91"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
@@ -10915,7 +11183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4312C-FDD2-4340-821F-754A5F40D4E6}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -11116,7 +11384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B71487E-C9E1-4276-81FB-A1C49393F747}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -11347,7 +11615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B083A-8F1B-4380-B3DA-4DA002A053C1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -11582,7 +11850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19D2B3-3E99-4B9E-BAE1-41A4FFCD985E}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -11815,7 +12083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AFA58C-0D37-472A-9044-2D31A2B22101}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -12045,7 +12313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF74A5E-2AA8-4C93-B20D-32544E95EFB7}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -12275,7 +12543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AABED7F-A641-414C-93D1-501EE24037CE}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -12505,7 +12773,249 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517C7F59-370C-4644-9448-B170013D8C24}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="130" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
+        <v>868</v>
+      </c>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="130" t="s">
+        <v>869</v>
+      </c>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="130" t="s">
+        <v>870</v>
+      </c>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="128" t="s">
+        <v>874</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>875</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>876</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>871</v>
+      </c>
+      <c r="E6" s="128" t="s">
+        <v>872</v>
+      </c>
+      <c r="F6" s="128" t="s">
+        <v>877</v>
+      </c>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="129"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="129"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="129"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="129"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="129"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="129"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="129"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{94EFA083-0C5B-412C-8DD7-22C9E2BEB40A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4FBD70-9D3A-4C8E-B5C8-430B3A403F0B}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -12689,7 +13199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F952A68-CFD3-4455-8952-3067C8308151}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -12913,362 +13423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1BAC1E-9F0D-4DB6-B608-DA0639297998}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
-        <v>664</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>665</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>663</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
-        <v>668</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>703</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>704</v>
-      </c>
-      <c r="D3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>671</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>706</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>707</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>708</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
-        <v>857</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>859</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>860</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>861</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
-        <v>673</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>709</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>669</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>669</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
-        <v>675</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>710</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>711</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>712</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>713</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>712</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
-        <v>678</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>715</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>716</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>717</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
-        <v>680</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>718</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>719</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>739</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
-        <v>682</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>720</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>721</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>722</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
-        <v>684</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>723</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>724</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>725</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
-        <v>686</v>
-      </c>
-      <c r="B13" s="88" t="s">
-        <v>726</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>727</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>728</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
-        <v>688</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>729</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>730</v>
-      </c>
-      <c r="D14" s="89" t="s">
-        <v>731</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
-        <v>690</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>732</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>724</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>725</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="87" t="s">
-        <v>692</v>
-      </c>
-      <c r="B16" s="88" t="s">
-        <v>733</v>
-      </c>
-      <c r="C16" s="89" t="s">
-        <v>734</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>735</v>
-      </c>
-      <c r="E16" s="88" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
-        <v>694</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>736</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>737</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>738</v>
-      </c>
-      <c r="E17" s="88" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
-        <v>740</v>
-      </c>
-      <c r="B18" s="2">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
-        <v>696</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>445</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
-        <v>665</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>697</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
-        <v>666</v>
-      </c>
-      <c r="B23" s="88" t="s">
-        <v>699</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
-        <v>663</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>701</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>702</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{AC71B427-ABAC-4E27-9D16-DE5556485AAD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61622F7-0E97-45E4-AD8D-67A23570D199}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -13565,7 +13720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E889B929-B5B5-483A-BEEF-8B8890C6DDF7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -13851,7 +14006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C722FD5-E71D-43F6-AADB-231D79660503}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -14214,7 +14369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F51200-D3AC-41F5-92E2-045AA3A7E3D9}">
   <dimension ref="A1:N15"/>
   <sheetViews>
@@ -14518,6 +14673,525 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1D57B-A645-40E4-A8D4-77A621BBB19C}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="130" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
+        <v>868</v>
+      </c>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="130" t="s">
+        <v>869</v>
+      </c>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="130" t="s">
+        <v>870</v>
+      </c>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>871</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>872</v>
+      </c>
+      <c r="E6" s="133" t="s">
+        <v>873</v>
+      </c>
+      <c r="F6" s="133"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="134"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="134"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="131"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="131"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="131"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:F9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{32414F91-C2A5-47DD-93EA-9C2CBC6A25AC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1BAC1E-9F0D-4DB6-B608-DA0639297998}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>703</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>708</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
+        <v>857</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>859</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>860</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>861</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
+        <v>673</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>711</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>712</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
+        <v>677</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>713</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>714</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>712</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>678</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>716</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>717</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>718</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>719</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>739</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="86" t="s">
+        <v>682</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>721</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>722</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
+        <v>684</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>723</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>724</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>725</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="86" t="s">
+        <v>686</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>726</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>728</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86" t="s">
+        <v>688</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>729</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>730</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>731</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="86" t="s">
+        <v>690</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>732</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>724</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>725</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="86" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>733</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>734</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>735</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="86" t="s">
+        <v>694</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>736</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>737</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>738</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
+        <v>740</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="85" t="s">
+        <v>696</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
+        <v>665</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>697</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="86" t="s">
+        <v>666</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>699</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="86" t="s">
+        <v>663</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>701</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>702</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{AC71B427-ABAC-4E27-9D16-DE5556485AAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960EF336-7349-4C12-8BD6-20A253071299}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -14549,39 +15223,39 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>600</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>602</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>603</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="81" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>609</v>
       </c>
       <c r="B4" s="75" t="s">
@@ -14615,7 +15289,7 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>645</v>
       </c>
       <c r="B5" s="75" t="s">
@@ -14646,10 +15320,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="O5" s="79"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>653</v>
       </c>
       <c r="B6" s="75" t="s">
@@ -14683,7 +15357,7 @@
       <c r="K6"/>
     </row>
     <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>621</v>
       </c>
       <c r="B7" s="75" t="s">
@@ -14716,7 +15390,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>629</v>
       </c>
       <c r="B8" s="75" t="s">
@@ -14749,7 +15423,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>637</v>
       </c>
       <c r="B9" s="75" t="s">
@@ -14782,7 +15456,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="80" t="s">
         <v>641</v>
       </c>
       <c r="B10" s="75" t="s">
@@ -14815,7 +15489,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="75" t="s">
@@ -14848,7 +15522,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="80" t="s">
         <v>617</v>
       </c>
       <c r="B12" s="75" t="s">
@@ -14881,7 +15555,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="80" t="s">
         <v>649</v>
       </c>
       <c r="B13" s="75" t="s">
@@ -14914,7 +15588,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="80" t="s">
         <v>633</v>
       </c>
       <c r="B14" s="75" t="s">
@@ -14947,7 +15621,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="80" t="s">
         <v>613</v>
       </c>
       <c r="B15" s="75" t="s">
@@ -14980,7 +15654,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>625</v>
       </c>
       <c r="B16" s="75" t="s">
@@ -15013,7 +15687,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="80" t="s">
         <v>605</v>
       </c>
       <c r="B17" s="75" t="s">
@@ -15058,7 +15732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EADD079-0931-4173-B33E-BF925D737CCF}">
   <dimension ref="A1:E108"/>
   <sheetViews>
@@ -15078,19 +15752,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>550</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>540</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>541</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>542</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>47</v>
       </c>
     </row>
@@ -16024,6 +16698,122 @@
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="D59:D60"/>
@@ -16048,122 +16838,6 @@
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{39E8F964-FA78-451F-AA99-AC92C3995828}"/>
@@ -16173,7 +16847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E1AA8F-4DD4-469C-B8A3-95712D9C086F}">
   <dimension ref="A1:M71"/>
   <sheetViews>
@@ -16209,54 +16883,54 @@
       <c r="A2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="95" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="95" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="103"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="105"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="62" t="s">
         <v>445</v>
       </c>
@@ -16274,22 +16948,22 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="83" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>439</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>441</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="84" t="s">
         <v>442</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>443</v>
       </c>
       <c r="G6" s="62" t="s">
@@ -16885,54 +17559,54 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="95" t="s">
         <v>438</v>
       </c>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="95" t="s">
         <v>439</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="103"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="97"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="100"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102" t="s">
+      <c r="A51" s="94"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="F51" s="102" t="s">
+      <c r="F51" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="G51" s="104" t="s">
+      <c r="G51" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
-      <c r="K51" s="105"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="99"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="100"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
       <c r="G52" s="62" t="s">
         <v>445</v>
       </c>
@@ -16950,13 +17624,13 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="100" t="s">
         <v>450</v>
       </c>
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="102" t="s">
         <v>451</v>
       </c>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="104" t="s">
         <v>452</v>
       </c>
       <c r="D53" s="64">
@@ -16985,9 +17659,9 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="98"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="105"/>
       <c r="D54" s="66">
         <v>2</v>
       </c>
@@ -17242,6 +17916,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:K51"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -17250,17 +17935,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:K4"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -17274,7 +17948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F898A-4F79-4D7B-BFD9-EBDB26504837}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -17288,342 +17962,342 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="89" t="s">
         <v>363</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="89" t="s">
         <v>467</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="89" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>825</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="87" t="s">
         <v>827</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="87" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>826</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>828</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="87" t="s">
         <v>671</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="87" t="s">
         <v>829</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="87" t="s">
         <v>830</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="87" t="s">
         <v>858</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>863</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="87" t="s">
         <v>864</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>673</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="87" t="s">
         <v>831</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="87" t="s">
         <v>832</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="87" t="s">
         <v>675</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="87" t="s">
         <v>833</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="87" t="s">
         <v>834</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="87" t="s">
         <v>677</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>835</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="87" t="s">
         <v>836</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="87" t="s">
         <v>678</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="87" t="s">
         <v>837</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="87" t="s">
         <v>838</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="87" t="s">
         <v>680</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="87" t="s">
         <v>839</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="87" t="s">
         <v>840</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="87" t="s">
         <v>682</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="87" t="s">
         <v>841</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="87" t="s">
         <v>842</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="87" t="s">
         <v>684</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="87" t="s">
         <v>843</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="87" t="s">
         <v>844</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="87" t="s">
         <v>845</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="87" t="s">
         <v>846</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="87" t="s">
         <v>847</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>848</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="87" t="s">
         <v>849</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="87" t="s">
         <v>850</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="87" t="s">
         <v>690</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="87" t="s">
         <v>851</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="87" t="s">
         <v>852</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="87" t="s">
         <v>692</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="87" t="s">
         <v>853</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="87" t="s">
         <v>854</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="87" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="87" t="s">
         <v>694</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="87" t="s">
         <v>855</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="87" t="s">
         <v>856</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="87" t="s">
         <v>473</v>
       </c>
     </row>
@@ -17636,7 +18310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48A8D0-6B45-47E6-ADBC-4DDB12A9AAAF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -17731,154 +18405,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEBE1B1-0415-4B82-B9C8-9670DD39FA39}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="57.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="57.42578125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>405</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{6A42541E-163A-4AB6-9230-EDD17BB01BBA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7182AAF1-7280-4416-ADC6-463D73FD1C1D}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="48.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{4C355981-037D-4F87-8591-C86281DDACC2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ExtraClase/EMNA-Documentacion.xlsx
+++ b/ExtraClase/EMNA-Documentacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sergio_arias8941_uco_net_co/Documents/Desktop/Universidad/uco-2024-2/IS2/IS2/ExtraClase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{904820FA-D277-4977-A49B-5EF6DEF442BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7184B4AC-C76D-4CDA-A37E-26AF24B34EBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307CB99E-3F2C-46F7-99CD-84845706B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de Contenido" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="898">
   <si>
     <t>Trade off de QA</t>
   </si>
@@ -3700,6 +3700,66 @@
   <si>
     <t>Descripción paquete</t>
   </si>
+  <si>
+    <t xml:space="preserve">emna </t>
+  </si>
+  <si>
+    <t>emnaMensajesMS</t>
+  </si>
+  <si>
+    <t>emnaUsuariosMS</t>
+  </si>
+  <si>
+    <t>emnaSeguridadMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo </t>
+  </si>
+  <si>
+    <t>Python3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqlite </t>
+  </si>
+  <si>
+    <t>Sqlite</t>
+  </si>
+  <si>
+    <t>emna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emna-extraclase </t>
+  </si>
+  <si>
+    <t>emna-extraclase/emna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configuraciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">migrations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">urls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">views </t>
+  </si>
+  <si>
+    <t xml:space="preserve">models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serializers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontend </t>
+  </si>
 </sst>
 </file>
 
@@ -3954,7 +4014,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -4256,6 +4316,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4264,7 +4342,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4515,8 +4593,62 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="22" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4538,24 +4670,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4623,44 +4737,86 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7221,7 +7377,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7700,7 +7856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361250320"/>
@@ -7759,7 +7915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361256080"/>
@@ -7801,7 +7957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7838,7 +7994,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8435,10 +8591,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{20B912FF-7A15-4BCD-8F27-A1F642484F2B}" name="Tabla12" displayName="Tabla12" ref="A3:J17" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
   <autoFilter ref="A3:J17" xr:uid="{20B912FF-7A15-4BCD-8F27-A1F642484F2B}"/>
@@ -8946,8 +9098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8960,72 +9112,72 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="136"/>
+      <c r="C1" s="101"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="100" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="137"/>
+      <c r="C2" s="100"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="100" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="137"/>
+      <c r="C3" s="100"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="100" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="137"/>
+      <c r="C4" s="100"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="100" t="s">
         <v>370</v>
       </c>
-      <c r="C6" s="137"/>
+      <c r="C6" s="100"/>
     </row>
     <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="100" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="137"/>
+      <c r="C7" s="100"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="97" t="s">
         <v>432</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -9057,13 +9209,13 @@
       <c r="A14" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="139"/>
+      <c r="B14" s="98"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="99" t="s">
         <v>865</v>
       </c>
     </row>
@@ -9071,7 +9223,7 @@
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="99" t="s">
         <v>866</v>
       </c>
     </row>
@@ -11208,74 +11360,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="120" t="s">
         <v>417</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11409,75 +11561,75 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="126" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="123" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="123" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="113"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -11642,74 +11794,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="123" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="126" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="119" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -11875,74 +12027,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="123" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="126" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12108,74 +12260,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="119" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12338,74 +12490,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="119" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12568,74 +12720,74 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="133" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="132" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="129" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="131"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -12775,19 +12927,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517C7F59-370C-4644-9448-B170013D8C24}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12797,210 +12946,596 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="94" t="s">
         <v>867</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="94" t="s">
         <v>868</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="94" t="s">
         <v>869</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="94" t="s">
         <v>870</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="92" t="s">
         <v>874</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="92" t="s">
         <v>875</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="92" t="s">
         <v>876</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="92" t="s">
         <v>871</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="92" t="s">
         <v>872</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="92" t="s">
         <v>877</v>
       </c>
-      <c r="G6" s="128"/>
+      <c r="G6" s="92"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="93" t="s">
+        <v>889</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
+      <c r="A8" s="143" t="str">
+        <f>$B$7</f>
+        <v xml:space="preserve">emna-extraclase </v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>878</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8" s="93" t="str">
+        <f>C11</f>
+        <v>emna-extraclase /emnaMensajesMS</v>
+      </c>
+      <c r="E8" s="93"/>
+      <c r="F8" s="102" t="s">
+        <v>891</v>
+      </c>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93" t="str">
+        <f>C19</f>
+        <v>emna-extraclase /emnaUsuariosMS</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93" t="str">
+        <f>C27</f>
+        <v>emna-extraclase /emnaSeguridadMS</v>
+      </c>
+      <c r="E10" s="93"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
+      <c r="A11" s="2" t="str">
+        <f>$B$7</f>
+        <v xml:space="preserve">emna-extraclase </v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>879</v>
+      </c>
+      <c r="C11" s="93" t="str">
+        <f>$B$7 &amp; "/"&amp;B11</f>
+        <v>emna-extraclase /emnaMensajesMS</v>
+      </c>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93" t="str">
+        <f>C8</f>
+        <v>emna-extraclase/emna</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
+      <c r="A12" s="2" t="str">
+        <f>$A$11&amp;"/"&amp;$B$11</f>
+        <v>emna-extraclase /emnaMensajesMS</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>892</v>
+      </c>
+      <c r="C12" s="93" t="str">
+        <f>$C$11 &amp; "/"&amp;B12</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/migrations </v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
+      <c r="A13" s="2" t="str">
+        <f t="shared" ref="A13:A17" si="0">$A$11&amp;"/"&amp;$B$11</f>
+        <v>emna-extraclase /emnaMensajesMS</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>893</v>
+      </c>
+      <c r="C13" s="93" t="str">
+        <f>$C$11 &amp; "/"&amp;B13</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/urls </v>
+      </c>
+      <c r="D13" s="93" t="str">
+        <f>C14</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/views </v>
+      </c>
+      <c r="E13" s="93"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
+      <c r="A14" s="143" t="str">
+        <f t="shared" si="0"/>
+        <v>emna-extraclase /emnaMensajesMS</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>894</v>
+      </c>
+      <c r="C14" s="93" t="str">
+        <f>$C$11 &amp; "/"&amp;B14</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/views </v>
+      </c>
+      <c r="D14" s="93" t="str">
+        <f>C16</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/serializers </v>
+      </c>
+      <c r="E14" s="93" t="str">
+        <f>C13</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/urls </v>
+      </c>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93" t="str">
+        <f>C17</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/models </v>
+      </c>
+      <c r="E15" s="93"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>emna-extraclase /emnaMensajesMS</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>896</v>
+      </c>
+      <c r="C16" s="93" t="str">
+        <f>$C$11 &amp; "/"&amp;B16</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/serializers </v>
+      </c>
+      <c r="D16" s="93" t="str">
+        <f>C17</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/models </v>
+      </c>
+      <c r="E16" s="93" t="str">
+        <f>C14</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/views </v>
+      </c>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
+      <c r="A17" s="143" t="str">
+        <f t="shared" si="0"/>
+        <v>emna-extraclase /emnaMensajesMS</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>895</v>
+      </c>
+      <c r="C17" s="93" t="str">
+        <f>$C$11 &amp; "/"&amp;B17</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/models </v>
+      </c>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93" t="str">
+        <f>C14</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/views </v>
+      </c>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93" t="str">
+        <f>C16</f>
+        <v xml:space="preserve">emna-extraclase /emnaMensajesMS/serializers </v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
+      <c r="A19" s="2" t="str">
+        <f>$B$7</f>
+        <v xml:space="preserve">emna-extraclase </v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>880</v>
+      </c>
+      <c r="C19" s="93" t="str">
+        <f>$B$7 &amp; "/"&amp;B19</f>
+        <v>emna-extraclase /emnaUsuariosMS</v>
+      </c>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
+      <c r="A20" s="2" t="str">
+        <f>$A$19&amp;"/"&amp;$B$19</f>
+        <v>emna-extraclase /emnaUsuariosMS</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>892</v>
+      </c>
+      <c r="C20" s="93" t="str">
+        <f>$C$19 &amp; "/"&amp;B20</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/migrations </v>
+      </c>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93" t="str">
+        <f>C8</f>
+        <v>emna-extraclase/emna</v>
+      </c>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
+      <c r="A21" s="2" t="str">
+        <f>$A$19&amp;"/"&amp;$B$19</f>
+        <v>emna-extraclase /emnaUsuariosMS</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>893</v>
+      </c>
+      <c r="C21" s="93" t="str">
+        <f>$C$19 &amp; "/"&amp;B21</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/urls </v>
+      </c>
+      <c r="D21" s="93" t="str">
+        <f>C22</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/views </v>
+      </c>
+      <c r="E21" s="93"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="143" t="str">
+        <f>$A$19&amp;"/"&amp;$B$19</f>
+        <v>emna-extraclase /emnaUsuariosMS</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>894</v>
+      </c>
+      <c r="C22" s="93" t="str">
+        <f>$C$19 &amp; "/"&amp;B22</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/views </v>
+      </c>
+      <c r="D22" s="93" t="str">
+        <f>C24</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/serializers </v>
+      </c>
+      <c r="E22" s="93" t="str">
+        <f>C21</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/urls </v>
+      </c>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="145"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93" t="str">
+        <f>C25</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/models </v>
+      </c>
+      <c r="E23" s="93"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
+        <f>$A$19&amp;"/"&amp;$B$19</f>
+        <v>emna-extraclase /emnaUsuariosMS</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>896</v>
+      </c>
+      <c r="C24" s="93" t="str">
+        <f>$C$19 &amp; "/"&amp;B24</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/serializers </v>
+      </c>
+      <c r="D24" s="93" t="str">
+        <f>C25</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/models </v>
+      </c>
+      <c r="E24" s="93" t="str">
+        <f>C22</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/views </v>
+      </c>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="143" t="str">
+        <f>$A$19&amp;"/"&amp;$B$19</f>
+        <v>emna-extraclase /emnaUsuariosMS</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>895</v>
+      </c>
+      <c r="C25" s="93" t="str">
+        <f>$C$19 &amp; "/"&amp;B25</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/models </v>
+      </c>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93" t="str">
+        <f>C22</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/views </v>
+      </c>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="145"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93" t="str">
+        <f>C24</f>
+        <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/serializers </v>
+      </c>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="str">
+        <f>$B$7</f>
+        <v xml:space="preserve">emna-extraclase </v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>881</v>
+      </c>
+      <c r="C27" s="93" t="str">
+        <f>$B$7 &amp; "/"&amp;B27</f>
+        <v>emna-extraclase /emnaSeguridadMS</v>
+      </c>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93" t="str">
+        <f>C8</f>
+        <v>emna-extraclase/emna</v>
+      </c>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="str">
+        <f>$A$27&amp;"/"&amp;$B$27</f>
+        <v>emna-extraclase /emnaSeguridadMS</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>892</v>
+      </c>
+      <c r="C28" s="93" t="str">
+        <f>$C$27 &amp; "/"&amp;B28</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/migrations </v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="str">
+        <f t="shared" ref="A29:A33" si="1">$A$27&amp;"/"&amp;$B$27</f>
+        <v>emna-extraclase /emnaSeguridadMS</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>893</v>
+      </c>
+      <c r="C29" s="93" t="str">
+        <f>$C$27 &amp; "/"&amp;B29</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/urls </v>
+      </c>
+      <c r="D29" s="93" t="str">
+        <f>C30</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/views </v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v>emna-extraclase /emnaSeguridadMS</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>894</v>
+      </c>
+      <c r="C30" s="93" t="str">
+        <f>$C$27 &amp; "/"&amp;B30</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/views </v>
+      </c>
+      <c r="D30" s="93" t="str">
+        <f>C32</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/serializers </v>
+      </c>
+      <c r="E30" s="93" t="str">
+        <f>C29</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/urls </v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="145"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93" t="str">
+        <f>C33</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/models </v>
+      </c>
+      <c r="E31" s="93"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>emna-extraclase /emnaSeguridadMS</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>896</v>
+      </c>
+      <c r="C32" s="93" t="str">
+        <f>$C$27 &amp; "/"&amp;B32</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/serializers </v>
+      </c>
+      <c r="D32" s="93" t="str">
+        <f>C33</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/models </v>
+      </c>
+      <c r="E32" s="93" t="str">
+        <f>C30</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/views </v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v>emna-extraclase /emnaSeguridadMS</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>895</v>
+      </c>
+      <c r="C33" s="93" t="str">
+        <f>$C$27 &amp; "/"&amp;B33</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/models </v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="93" t="str">
+        <f>C30</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/views </v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="145"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="93" t="str">
+        <f>C32</f>
+        <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/serializers </v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="str">
+        <f>$B$7</f>
+        <v xml:space="preserve">emna-extraclase </v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>897</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f>$B$7 &amp; "/"&amp;B11</f>
+        <v>emna-extraclase /emnaMensajesMS</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
+  <mergeCells count="16">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -13012,6 +13547,7 @@
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{94EFA083-0C5B-412C-8DD7-22C9E2BEB40A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13037,68 +13573,68 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="131"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -13219,74 +13755,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="123" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="119" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -13457,74 +13993,74 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="119"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -13743,74 +14279,74 @@
       <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="123" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="125"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -14674,167 +15210,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1D57B-A645-40E4-A8D4-77A621BBB19C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="150" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="150" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.7109375" style="150"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="146" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="151" t="s">
         <v>867</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="151" t="s">
         <v>868</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="151" t="s">
         <v>869</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="151" t="s">
         <v>870</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="151" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="151" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="151" t="s">
         <v>871</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="151" t="s">
         <v>872</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="152" t="s">
         <v>873</v>
       </c>
-      <c r="F6" s="133"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="131"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="131"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="F6" s="152"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
+        <v>878</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>883</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>884</v>
+      </c>
+      <c r="D7" s="103"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="96" t="s">
+        <v>885</v>
+      </c>
+      <c r="D8" s="103"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="96" t="s">
+        <v>887</v>
+      </c>
+      <c r="D9" s="103"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>884</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="C10" s="103"/>
+      <c r="D10" s="96" t="s">
+        <v>888</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="H10" s="166"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="96" t="s">
+        <v>885</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="96" t="s">
+        <v>887</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="103" t="s">
+        <v>885</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="C13" s="140" t="s">
+        <v>884</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>888</v>
+      </c>
+      <c r="E13" s="154"/>
+      <c r="F13" s="155"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="64" t="s">
+        <v>880</v>
+      </c>
+      <c r="E15" s="156"/>
+      <c r="F15" s="157"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="64" t="s">
+        <v>881</v>
+      </c>
+      <c r="E16" s="158"/>
+      <c r="F16" s="159"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="103" t="s">
+        <v>886</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>884</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>888</v>
+      </c>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="E18" s="162"/>
+      <c r="F18" s="163"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="64" t="s">
+        <v>880</v>
+      </c>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="103"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="64" t="s">
+        <v>881</v>
+      </c>
+      <c r="E20" s="164"/>
+      <c r="F20" s="165"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="107" t="s">
+        <v>879</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>883</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>884</v>
+      </c>
+      <c r="D21" s="147" t="s">
+        <v>888</v>
+      </c>
+      <c r="E21" s="160"/>
+      <c r="F21" s="161"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="153"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="96" t="s">
+        <v>885</v>
+      </c>
+      <c r="D22" s="148"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="96" t="s">
+        <v>887</v>
+      </c>
+      <c r="D23" s="149"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="165"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="107" t="s">
+        <v>880</v>
+      </c>
+      <c r="B24" s="107" t="s">
+        <v>883</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>884</v>
+      </c>
+      <c r="D24" s="147" t="s">
+        <v>888</v>
+      </c>
+      <c r="E24" s="160"/>
+      <c r="F24" s="161"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="153"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="96" t="s">
+        <v>885</v>
+      </c>
+      <c r="D25" s="148"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="96" t="s">
+        <v>887</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="107" t="s">
+        <v>881</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>883</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>884</v>
+      </c>
+      <c r="D27" s="147" t="s">
+        <v>888</v>
+      </c>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="153"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="96" t="s">
+        <v>885</v>
+      </c>
+      <c r="D28" s="148"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="163"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="96" t="s">
+        <v>887</v>
+      </c>
+      <c r="D29" s="149"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="165"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
+  <mergeCells count="33">
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E13:F16"/>
+    <mergeCell ref="E17:F20"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="E24:F26"/>
+    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{32414F91-C2A5-47DD-93EA-9C2CBC6A25AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15769,914 +16530,914 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92">
+      <c r="A3" s="104">
         <v>1</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="104" t="s">
         <v>476</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>477</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="75" t="s">
         <v>478</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92">
+      <c r="A5" s="104">
         <v>2</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="104" t="s">
         <v>481</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>482</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="75" t="s">
         <v>483</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="104">
         <v>3</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="104" t="s">
         <v>537</v>
       </c>
       <c r="C7" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="75" t="s">
         <v>485</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+      <c r="A9" s="104">
         <v>4</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="104" t="s">
         <v>486</v>
       </c>
       <c r="C9" s="75" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="75" t="s">
         <v>488</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
+      <c r="A11" s="104">
         <v>5</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="104" t="s">
         <v>543</v>
       </c>
       <c r="C11" s="75" t="s">
         <v>490</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="75" t="s">
         <v>491</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92">
+      <c r="A13" s="104">
         <v>6</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="104" t="s">
         <v>492</v>
       </c>
       <c r="C13" s="75" t="s">
         <v>493</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="75" t="s">
         <v>494</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92">
+      <c r="A15" s="104">
         <v>7</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="104" t="s">
         <v>495</v>
       </c>
       <c r="C15" s="75" t="s">
         <v>496</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="75" t="s">
         <v>497</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92">
+      <c r="A17" s="104">
         <v>8</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="104" t="s">
         <v>498</v>
       </c>
       <c r="C17" s="75" t="s">
         <v>499</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="75" t="s">
         <v>500</v>
       </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92">
+      <c r="A19" s="104">
         <v>9</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="104" t="s">
         <v>501</v>
       </c>
       <c r="C19" s="75" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="75" t="s">
         <v>503</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92">
+      <c r="A21" s="104">
         <v>10</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="104" t="s">
         <v>504</v>
       </c>
       <c r="C21" s="75" t="s">
         <v>505</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="92">
+      <c r="A23" s="104">
         <v>11</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="104" t="s">
         <v>507</v>
       </c>
       <c r="C23" s="75" t="s">
         <v>508</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="75" t="s">
         <v>509</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="92">
+      <c r="A25" s="104">
         <v>12</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="104" t="s">
         <v>510</v>
       </c>
       <c r="C25" s="75" t="s">
         <v>511</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="E25" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="75" t="s">
         <v>512</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
     </row>
     <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92">
+      <c r="A27" s="104">
         <v>13</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="104" t="s">
         <v>513</v>
       </c>
       <c r="C27" s="75" t="s">
         <v>514</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E27" s="92" t="s">
+      <c r="E27" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="75" t="s">
         <v>515</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92">
+      <c r="A29" s="104">
         <v>14</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="104" t="s">
         <v>516</v>
       </c>
       <c r="C29" s="75" t="s">
         <v>517</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="75" t="s">
         <v>518</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
     </row>
     <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92">
+      <c r="A31" s="104">
         <v>15</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="104" t="s">
         <v>519</v>
       </c>
       <c r="C31" s="75" t="s">
         <v>520</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E31" s="92" t="s">
+      <c r="E31" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="75" t="s">
         <v>521</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
     </row>
     <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92">
+      <c r="A33" s="104">
         <v>16</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="104" t="s">
         <v>522</v>
       </c>
       <c r="C33" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E33" s="92" t="s">
+      <c r="E33" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="75" t="s">
         <v>524</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92">
+      <c r="A35" s="104">
         <v>17</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="104" t="s">
         <v>525</v>
       </c>
       <c r="C35" s="75" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="75" t="s">
         <v>527</v>
       </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="92">
+      <c r="A37" s="104">
         <v>18</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="104" t="s">
         <v>528</v>
       </c>
       <c r="C37" s="75" t="s">
         <v>529</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E37" s="92" t="s">
+      <c r="E37" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="92">
+      <c r="A39" s="104">
         <v>19</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="104" t="s">
         <v>531</v>
       </c>
       <c r="C39" s="75" t="s">
         <v>532</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E39" s="92" t="s">
+      <c r="E39" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="75" t="s">
         <v>533</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
     </row>
     <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92">
+      <c r="A41" s="104">
         <v>20</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="104" t="s">
         <v>534</v>
       </c>
       <c r="C41" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E41" s="92" t="s">
+      <c r="E41" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="75" t="s">
         <v>536</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
     </row>
     <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="92">
+      <c r="A43" s="104">
         <v>21</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="104" t="s">
         <v>551</v>
       </c>
       <c r="C43" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E43" s="92" t="s">
+      <c r="E43" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="75" t="s">
         <v>553</v>
       </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92">
+      <c r="A45" s="104">
         <v>22</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="104" t="s">
         <v>554</v>
       </c>
       <c r="C45" s="75" t="s">
         <v>555</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D45" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E45" s="92" t="s">
+      <c r="E45" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="75" t="s">
         <v>556</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
     </row>
     <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="92">
+      <c r="A47" s="104">
         <v>23</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="104" t="s">
         <v>557</v>
       </c>
       <c r="C47" s="75" t="s">
         <v>558</v>
       </c>
-      <c r="D47" s="92" t="s">
+      <c r="D47" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E47" s="92" t="s">
+      <c r="E47" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="75" t="s">
         <v>559</v>
       </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="92">
+      <c r="A49" s="104">
         <v>24</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="104" t="s">
         <v>560</v>
       </c>
       <c r="C49" s="75" t="s">
         <v>561</v>
       </c>
-      <c r="D49" s="92" t="s">
+      <c r="D49" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E49" s="92" t="s">
+      <c r="E49" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="104"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="92">
+      <c r="A51" s="104">
         <v>25</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="104" t="s">
         <v>563</v>
       </c>
       <c r="C51" s="75" t="s">
         <v>564</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E51" s="92" t="s">
+      <c r="E51" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
-      <c r="B52" s="92"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="75" t="s">
         <v>565</v>
       </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92">
+      <c r="A53" s="104">
         <v>26</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="104" t="s">
         <v>566</v>
       </c>
       <c r="C53" s="75" t="s">
         <v>567</v>
       </c>
-      <c r="D53" s="92" t="s">
+      <c r="D53" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E53" s="92" t="s">
+      <c r="E53" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="75" t="s">
         <v>568</v>
       </c>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="92">
+      <c r="A55" s="104">
         <v>27</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="104" t="s">
         <v>569</v>
       </c>
       <c r="C55" s="75" t="s">
         <v>570</v>
       </c>
-      <c r="D55" s="92" t="s">
+      <c r="D55" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E55" s="92" t="s">
+      <c r="E55" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="75" t="s">
         <v>571</v>
       </c>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="92">
+      <c r="A57" s="104">
         <v>28</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="104" t="s">
         <v>572</v>
       </c>
       <c r="C57" s="75" t="s">
         <v>573</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D57" s="104" t="s">
         <v>575</v>
       </c>
-      <c r="E57" s="92" t="s">
+      <c r="E57" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="92"/>
-      <c r="B58" s="92"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="75" t="s">
         <v>574</v>
       </c>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="92">
+      <c r="A59" s="104">
         <v>29</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="104" t="s">
         <v>576</v>
       </c>
       <c r="C59" s="75" t="s">
         <v>577</v>
       </c>
-      <c r="D59" s="92" t="s">
+      <c r="D59" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E59" s="92" t="s">
+      <c r="E59" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="92"/>
-      <c r="B60" s="92"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="92">
+      <c r="A61" s="104">
         <v>30</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="104" t="s">
         <v>579</v>
       </c>
       <c r="C61" s="75" t="s">
         <v>580</v>
       </c>
-      <c r="D61" s="92" t="s">
+      <c r="D61" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E61" s="92" t="s">
+      <c r="E61" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
-      <c r="B62" s="92"/>
+      <c r="A62" s="104"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="75" t="s">
         <v>581</v>
       </c>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="92">
+      <c r="A63" s="104">
         <v>31</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="104" t="s">
         <v>582</v>
       </c>
       <c r="C63" s="75" t="s">
         <v>583</v>
       </c>
-      <c r="D63" s="92" t="s">
+      <c r="D63" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E63" s="92" t="s">
+      <c r="E63" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="92"/>
-      <c r="B64" s="92"/>
+      <c r="A64" s="104"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="75" t="s">
         <v>584</v>
       </c>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
     </row>
     <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="92">
+      <c r="A65" s="104">
         <v>32</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="104" t="s">
         <v>585</v>
       </c>
       <c r="C65" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="D65" s="92" t="s">
+      <c r="D65" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="E65" s="92" t="s">
+      <c r="E65" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="75" t="s">
         <v>587</v>
       </c>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="92">
+      <c r="A67" s="104">
         <v>33</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="104" t="s">
         <v>588</v>
       </c>
       <c r="C67" s="75" t="s">
         <v>589</v>
       </c>
-      <c r="D67" s="92" t="s">
+      <c r="D67" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E67" s="92" t="s">
+      <c r="E67" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="92"/>
-      <c r="B68" s="92"/>
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="75" t="s">
         <v>590</v>
       </c>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="92">
+      <c r="A69" s="104">
         <v>34</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="104" t="s">
         <v>591</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>592</v>
       </c>
-      <c r="D69" s="92" t="s">
+      <c r="D69" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E69" s="92" t="s">
+      <c r="E69" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="92"/>
-      <c r="B70" s="92"/>
+      <c r="A70" s="104"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="75" t="s">
         <v>593</v>
       </c>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="92">
+      <c r="A71" s="104">
         <v>35</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="104" t="s">
         <v>594</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>595</v>
       </c>
-      <c r="D71" s="92" t="s">
+      <c r="D71" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="E71" s="92" t="s">
+      <c r="E71" s="104" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="92"/>
-      <c r="B72" s="92"/>
+      <c r="A72" s="104"/>
+      <c r="B72" s="104"/>
       <c r="C72" s="75" t="s">
         <v>596</v>
       </c>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16698,36 +17459,92 @@
     <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A23:A24"/>
@@ -16752,92 +17569,36 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{39E8F964-FA78-451F-AA99-AC92C3995828}"/>
@@ -16883,54 +17644,54 @@
       <c r="A2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="111" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="113" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="113" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="97"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96" t="s">
+      <c r="A4" s="112"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114" t="s">
         <v>441</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="114" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="62" t="s">
         <v>445</v>
       </c>
@@ -17559,54 +18320,54 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="111" t="s">
         <v>437</v>
       </c>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="113" t="s">
         <v>438</v>
       </c>
-      <c r="C50" s="95" t="s">
+      <c r="C50" s="113" t="s">
         <v>439</v>
       </c>
-      <c r="D50" s="95" t="s">
+      <c r="D50" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="97"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="115"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96" t="s">
+      <c r="A51" s="112"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114" t="s">
         <v>441</v>
       </c>
-      <c r="E51" s="96" t="s">
+      <c r="E51" s="114" t="s">
         <v>442</v>
       </c>
-      <c r="F51" s="96" t="s">
+      <c r="F51" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="G51" s="98" t="s">
+      <c r="G51" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="H51" s="98"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="99"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="117"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
       <c r="G52" s="62" t="s">
         <v>445</v>
       </c>
@@ -17624,13 +18385,13 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="105" t="s">
         <v>450</v>
       </c>
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="107" t="s">
         <v>451</v>
       </c>
-      <c r="C53" s="104" t="s">
+      <c r="C53" s="109" t="s">
         <v>452</v>
       </c>
       <c r="D53" s="64">
@@ -17659,9 +18420,9 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="105"/>
+      <c r="A54" s="106"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="110"/>
       <c r="D54" s="66">
         <v>2</v>
       </c>
@@ -17916,17 +18677,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:K51"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -17935,6 +18685,17 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:K4"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
